--- a/tests/data/experiments/lr-with-xlsx-output/output/lr_with_xlsx_output_pred_train.xlsx
+++ b/tests/data/experiments/lr-with-xlsx-output/output/lr_with_xlsx_output_pred_train.xlsx
@@ -1932,22 +1932,22 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>3.489275181662464</v>
+        <v>3.489275181662465</v>
       </c>
       <c r="C2">
         <v>3</v>
       </c>
       <c r="D2">
-        <v>3.51825956683072</v>
+        <v>3.518259566830721</v>
       </c>
       <c r="E2">
-        <v>3.489275181662464</v>
+        <v>3.489275181662465</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
       <c r="G2">
-        <v>3.51825956683072</v>
+        <v>3.518259566830721</v>
       </c>
       <c r="H2">
         <v>4</v>
@@ -1964,7 +1964,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>3.732675881177805</v>
+        <v>3.732675881177806</v>
       </c>
       <c r="E3">
         <v>3.640443455723549</v>
@@ -1973,7 +1973,7 @@
         <v>4</v>
       </c>
       <c r="G3">
-        <v>3.732675881177805</v>
+        <v>3.732675881177806</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -2010,22 +2010,22 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>2.981684439789319</v>
+        <v>2.98168443978932</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>2.798295429215681</v>
+        <v>2.798295429215682</v>
       </c>
       <c r="E5">
-        <v>2.981684439789319</v>
+        <v>2.98168443978932</v>
       </c>
       <c r="F5">
         <v>3</v>
       </c>
       <c r="G5">
-        <v>2.798295429215681</v>
+        <v>2.798295429215682</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -2036,22 +2036,22 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>3.430779707690017</v>
+        <v>3.430779707690016</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6">
-        <v>3.43528988279444</v>
+        <v>3.435289882794438</v>
       </c>
       <c r="E6">
-        <v>3.430779707690017</v>
+        <v>3.430779707690016</v>
       </c>
       <c r="F6">
         <v>3</v>
       </c>
       <c r="G6">
-        <v>3.43528988279444</v>
+        <v>3.435289882794438</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -2062,22 +2062,22 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>3.957442123704382</v>
+        <v>3.957442123704381</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7">
-        <v>4.182305186424225</v>
+        <v>4.182305186424223</v>
       </c>
       <c r="E7">
-        <v>3.957442123704382</v>
+        <v>3.957442123704381</v>
       </c>
       <c r="F7">
         <v>4</v>
       </c>
       <c r="G7">
-        <v>4.182305186424225</v>
+        <v>4.182305186424223</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -2120,7 +2120,7 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>3.380540705581097</v>
+        <v>3.380540705581096</v>
       </c>
       <c r="E9">
         <v>3.392180319155578</v>
@@ -2129,7 +2129,7 @@
         <v>3</v>
       </c>
       <c r="G9">
-        <v>3.380540705581097</v>
+        <v>3.380540705581096</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -2140,22 +2140,22 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>3.149293501270662</v>
+        <v>3.14929350127066</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10">
-        <v>3.036031273176441</v>
+        <v>3.03603127317644</v>
       </c>
       <c r="E10">
-        <v>3.149293501270662</v>
+        <v>3.14929350127066</v>
       </c>
       <c r="F10">
         <v>3</v>
       </c>
       <c r="G10">
-        <v>3.036031273176441</v>
+        <v>3.03603127317644</v>
       </c>
       <c r="H10">
         <v>3</v>
@@ -2166,7 +2166,7 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>3.904727723951229</v>
+        <v>3.904727723951228</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2175,7 +2175,7 @@
         <v>4.107535348782744</v>
       </c>
       <c r="E11">
-        <v>3.904727723951229</v>
+        <v>3.904727723951228</v>
       </c>
       <c r="F11">
         <v>4</v>
@@ -2192,22 +2192,22 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>3.980081276395799</v>
+        <v>3.9800812763958</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12">
-        <v>4.214416445947324</v>
+        <v>4.214416445947326</v>
       </c>
       <c r="E12">
-        <v>3.980081276395799</v>
+        <v>3.9800812763958</v>
       </c>
       <c r="F12">
         <v>4</v>
       </c>
       <c r="G12">
-        <v>4.214416445947324</v>
+        <v>4.214416445947326</v>
       </c>
       <c r="H12">
         <v>4</v>
@@ -2218,7 +2218,7 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>3.731273154749325</v>
+        <v>3.731273154749326</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -2227,7 +2227,7 @@
         <v>3.861508266275306</v>
       </c>
       <c r="E13">
-        <v>3.731273154749325</v>
+        <v>3.731273154749326</v>
       </c>
       <c r="F13">
         <v>4</v>
@@ -2244,22 +2244,22 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>3.346642159415114</v>
+        <v>3.346642159415115</v>
       </c>
       <c r="C14">
         <v>3</v>
       </c>
       <c r="D14">
-        <v>3.315949610430049</v>
+        <v>3.31594961043005</v>
       </c>
       <c r="E14">
-        <v>3.346642159415114</v>
+        <v>3.346642159415115</v>
       </c>
       <c r="F14">
         <v>3</v>
       </c>
       <c r="G14">
-        <v>3.315949610430049</v>
+        <v>3.31594961043005</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -2270,7 +2270,7 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>3.943790920838024</v>
+        <v>3.943790920838025</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -2279,7 +2279,7 @@
         <v>4.162942389414146</v>
       </c>
       <c r="E15">
-        <v>3.943790920838024</v>
+        <v>3.943790920838025</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -2296,22 +2296,22 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>2.339224275198645</v>
+        <v>2.339224275198644</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
       <c r="D16">
-        <v>1.887033185454861</v>
+        <v>1.88703318545486</v>
       </c>
       <c r="E16">
-        <v>2.339224275198645</v>
+        <v>2.339224275198644</v>
       </c>
       <c r="F16">
         <v>2</v>
       </c>
       <c r="G16">
-        <v>1.887033185454861</v>
+        <v>1.88703318545486</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -2322,22 +2322,22 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>3.276322883120584</v>
+        <v>3.276322883120585</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17">
-        <v>3.216209105060946</v>
+        <v>3.216209105060948</v>
       </c>
       <c r="E17">
-        <v>3.276322883120584</v>
+        <v>3.276322883120585</v>
       </c>
       <c r="F17">
         <v>3</v>
       </c>
       <c r="G17">
-        <v>3.216209105060946</v>
+        <v>3.216209105060948</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2354,7 +2354,7 @@
         <v>3</v>
       </c>
       <c r="D18">
-        <v>3.67487036285016</v>
+        <v>3.674870362850161</v>
       </c>
       <c r="E18">
         <v>3.599689278675942</v>
@@ -2363,7 +2363,7 @@
         <v>4</v>
       </c>
       <c r="G18">
-        <v>3.67487036285016</v>
+        <v>3.674870362850161</v>
       </c>
       <c r="H18">
         <v>4</v>
@@ -2374,7 +2374,7 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>4.31798084405423</v>
+        <v>4.317980844054231</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -2383,7 +2383,7 @@
         <v>4.693691481445304</v>
       </c>
       <c r="E19">
-        <v>4.31798084405423</v>
+        <v>4.317980844054231</v>
       </c>
       <c r="F19">
         <v>4</v>
@@ -2406,7 +2406,7 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>2.715860064083229</v>
+        <v>2.71586006408323</v>
       </c>
       <c r="E20">
         <v>2.923565672536862</v>
@@ -2415,7 +2415,7 @@
         <v>3</v>
       </c>
       <c r="G20">
-        <v>2.715860064083229</v>
+        <v>2.71586006408323</v>
       </c>
       <c r="H20">
         <v>3</v>
@@ -2426,22 +2426,22 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>2.869265456465749</v>
+        <v>2.869265456465746</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
       <c r="D21">
-        <v>2.638840912607612</v>
+        <v>2.638840912607608</v>
       </c>
       <c r="E21">
-        <v>2.869265456465749</v>
+        <v>2.869265456465746</v>
       </c>
       <c r="F21">
         <v>3</v>
       </c>
       <c r="G21">
-        <v>2.638840912607612</v>
+        <v>2.638840912607608</v>
       </c>
       <c r="H21">
         <v>3</v>
@@ -2452,22 +2452,22 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>3.303586639784454</v>
+        <v>3.303586639784455</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="D22">
-        <v>3.25487987943759</v>
+        <v>3.254879879437591</v>
       </c>
       <c r="E22">
-        <v>3.303586639784454</v>
+        <v>3.303586639784455</v>
       </c>
       <c r="F22">
         <v>3</v>
       </c>
       <c r="G22">
-        <v>3.25487987943759</v>
+        <v>3.254879879437591</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -2478,22 +2478,22 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>2.875267876070984</v>
+        <v>2.875267876070982</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="D23">
-        <v>2.647354714176841</v>
+        <v>2.64735471417684</v>
       </c>
       <c r="E23">
-        <v>2.875267876070984</v>
+        <v>2.875267876070982</v>
       </c>
       <c r="F23">
         <v>3</v>
       </c>
       <c r="G23">
-        <v>2.647354714176841</v>
+        <v>2.64735471417684</v>
       </c>
       <c r="H23">
         <v>3</v>
@@ -2530,22 +2530,22 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>3.817698526166384</v>
+        <v>3.817698526166385</v>
       </c>
       <c r="C25">
         <v>4</v>
       </c>
       <c r="D25">
-        <v>3.984093575398009</v>
+        <v>3.98409357539801</v>
       </c>
       <c r="E25">
-        <v>3.817698526166384</v>
+        <v>3.817698526166385</v>
       </c>
       <c r="F25">
         <v>4</v>
       </c>
       <c r="G25">
-        <v>3.984093575398009</v>
+        <v>3.98409357539801</v>
       </c>
       <c r="H25">
         <v>4</v>
@@ -2582,22 +2582,22 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>3.48266629312497</v>
+        <v>3.482666293124969</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
       <c r="D27">
-        <v>3.508885552799392</v>
+        <v>3.508885552799391</v>
       </c>
       <c r="E27">
-        <v>3.48266629312497</v>
+        <v>3.482666293124969</v>
       </c>
       <c r="F27">
         <v>3</v>
       </c>
       <c r="G27">
-        <v>3.508885552799392</v>
+        <v>3.508885552799391</v>
       </c>
       <c r="H27">
         <v>4</v>
@@ -2608,22 +2608,22 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>3.87613067724168</v>
+        <v>3.876130677241681</v>
       </c>
       <c r="C28">
         <v>4</v>
       </c>
       <c r="D28">
-        <v>4.066973442557665</v>
+        <v>4.066973442557666</v>
       </c>
       <c r="E28">
-        <v>3.87613067724168</v>
+        <v>3.876130677241681</v>
       </c>
       <c r="F28">
         <v>4</v>
       </c>
       <c r="G28">
-        <v>4.066973442557665</v>
+        <v>4.066973442557666</v>
       </c>
       <c r="H28">
         <v>4</v>
@@ -2634,22 +2634,22 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>3.910174681970712</v>
+        <v>3.910174681970711</v>
       </c>
       <c r="C29">
         <v>4</v>
       </c>
       <c r="D29">
-        <v>4.115261286451841</v>
+        <v>4.11526128645184</v>
       </c>
       <c r="E29">
-        <v>3.910174681970712</v>
+        <v>3.910174681970711</v>
       </c>
       <c r="F29">
         <v>4</v>
       </c>
       <c r="G29">
-        <v>4.115261286451841</v>
+        <v>4.11526128645184</v>
       </c>
       <c r="H29">
         <v>4</v>
@@ -2666,7 +2666,7 @@
         <v>4</v>
       </c>
       <c r="D30">
-        <v>3.850458121651906</v>
+        <v>3.850458121651905</v>
       </c>
       <c r="E30">
         <v>3.723482556837355</v>
@@ -2675,7 +2675,7 @@
         <v>4</v>
       </c>
       <c r="G30">
-        <v>3.850458121651906</v>
+        <v>3.850458121651905</v>
       </c>
       <c r="H30">
         <v>4</v>
@@ -2686,22 +2686,22 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>4.195457308792044</v>
+        <v>4.195457308792045</v>
       </c>
       <c r="C31">
         <v>4</v>
       </c>
       <c r="D31">
-        <v>4.519904719541297</v>
+        <v>4.519904719541298</v>
       </c>
       <c r="E31">
-        <v>4.195457308792044</v>
+        <v>4.195457308792045</v>
       </c>
       <c r="F31">
         <v>4</v>
       </c>
       <c r="G31">
-        <v>4.519904719541297</v>
+        <v>4.519904719541298</v>
       </c>
       <c r="H31">
         <v>5</v>
@@ -2712,22 +2712,22 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>3.184405050586612</v>
+        <v>3.18440505058661</v>
       </c>
       <c r="C32">
         <v>4</v>
       </c>
       <c r="D32">
-        <v>3.085833316906197</v>
+        <v>3.085833316906196</v>
       </c>
       <c r="E32">
-        <v>3.184405050586612</v>
+        <v>3.18440505058661</v>
       </c>
       <c r="F32">
         <v>3</v>
       </c>
       <c r="G32">
-        <v>3.085833316906197</v>
+        <v>3.085833316906196</v>
       </c>
       <c r="H32">
         <v>3</v>
@@ -2764,7 +2764,7 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>2.668221334020947</v>
+        <v>2.668221334020946</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -2773,7 +2773,7 @@
         <v>2.353680947505808</v>
       </c>
       <c r="E34">
-        <v>2.668221334020947</v>
+        <v>2.668221334020946</v>
       </c>
       <c r="F34">
         <v>3</v>
@@ -2790,22 +2790,22 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>3.433080131443008</v>
+        <v>3.433080131443007</v>
       </c>
       <c r="C35">
         <v>3</v>
       </c>
       <c r="D35">
-        <v>3.438552792195348</v>
+        <v>3.438552792195345</v>
       </c>
       <c r="E35">
-        <v>3.433080131443008</v>
+        <v>3.433080131443007</v>
       </c>
       <c r="F35">
         <v>3</v>
       </c>
       <c r="G35">
-        <v>3.438552792195348</v>
+        <v>3.438552792195345</v>
       </c>
       <c r="H35">
         <v>3</v>
@@ -2842,22 +2842,22 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>3.053215595842713</v>
+        <v>3.053215595842712</v>
       </c>
       <c r="C37">
         <v>3</v>
       </c>
       <c r="D37">
-        <v>2.899754858697275</v>
+        <v>2.899754858697273</v>
       </c>
       <c r="E37">
-        <v>3.053215595842713</v>
+        <v>3.053215595842712</v>
       </c>
       <c r="F37">
         <v>3</v>
       </c>
       <c r="G37">
-        <v>2.899754858697275</v>
+        <v>2.899754858697273</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -2874,7 +2874,7 @@
         <v>3</v>
       </c>
       <c r="D38">
-        <v>2.866245357878522</v>
+        <v>2.86624535787852</v>
       </c>
       <c r="E38">
         <v>3.029590651916013</v>
@@ -2883,7 +2883,7 @@
         <v>3</v>
       </c>
       <c r="G38">
-        <v>2.866245357878522</v>
+        <v>2.86624535787852</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -2900,7 +2900,7 @@
         <v>4</v>
       </c>
       <c r="D39">
-        <v>3.838778138892569</v>
+        <v>3.83877813889257</v>
       </c>
       <c r="E39">
         <v>3.715247909020707</v>
@@ -2909,7 +2909,7 @@
         <v>4</v>
       </c>
       <c r="G39">
-        <v>3.838778138892569</v>
+        <v>3.83877813889257</v>
       </c>
       <c r="H39">
         <v>4</v>
@@ -2926,7 +2926,7 @@
         <v>3</v>
       </c>
       <c r="D40">
-        <v>3.936158028724855</v>
+        <v>3.936158028724854</v>
       </c>
       <c r="E40">
         <v>3.783902898819552</v>
@@ -2935,7 +2935,7 @@
         <v>4</v>
       </c>
       <c r="G40">
-        <v>3.936158028724855</v>
+        <v>3.936158028724854</v>
       </c>
       <c r="H40">
         <v>4</v>
@@ -2952,7 +2952,7 @@
         <v>5</v>
       </c>
       <c r="D41">
-        <v>4.285231153854111</v>
+        <v>4.28523115385411</v>
       </c>
       <c r="E41">
         <v>4.030007221653305</v>
@@ -2961,7 +2961,7 @@
         <v>4</v>
       </c>
       <c r="G41">
-        <v>4.285231153854111</v>
+        <v>4.28523115385411</v>
       </c>
       <c r="H41">
         <v>4</v>
@@ -2998,7 +2998,7 @@
         <v>49</v>
       </c>
       <c r="B43">
-        <v>3.309586687246083</v>
+        <v>3.309586687246082</v>
       </c>
       <c r="C43">
         <v>3</v>
@@ -3007,7 +3007,7 @@
         <v>3.263390316370343</v>
       </c>
       <c r="E43">
-        <v>3.309586687246083</v>
+        <v>3.309586687246082</v>
       </c>
       <c r="F43">
         <v>3</v>
@@ -3030,7 +3030,7 @@
         <v>4</v>
       </c>
       <c r="D44">
-        <v>3.04887366439952</v>
+        <v>3.048873664399519</v>
       </c>
       <c r="E44">
         <v>3.158347672926963</v>
@@ -3039,7 +3039,7 @@
         <v>3</v>
       </c>
       <c r="G44">
-        <v>3.04887366439952</v>
+        <v>3.048873664399519</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -3050,22 +3050,22 @@
         <v>51</v>
       </c>
       <c r="B45">
-        <v>3.460904686677812</v>
+        <v>3.460904686677811</v>
       </c>
       <c r="C45">
         <v>4</v>
       </c>
       <c r="D45">
-        <v>3.478019000424878</v>
+        <v>3.478019000424877</v>
       </c>
       <c r="E45">
-        <v>3.460904686677812</v>
+        <v>3.460904686677811</v>
       </c>
       <c r="F45">
         <v>3</v>
       </c>
       <c r="G45">
-        <v>3.478019000424878</v>
+        <v>3.478019000424877</v>
       </c>
       <c r="H45">
         <v>3</v>
@@ -3076,22 +3076,22 @@
         <v>52</v>
       </c>
       <c r="B46">
-        <v>1.196027513518417</v>
+        <v>1.196027513518416</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46">
-        <v>0.2655286883277119</v>
+        <v>0.2655286883277124</v>
       </c>
       <c r="E46">
-        <v>1.196027513518417</v>
+        <v>1.196027513518416</v>
       </c>
       <c r="F46">
         <v>1</v>
       </c>
       <c r="G46">
-        <v>0.50002</v>
+        <v>0.5002</v>
       </c>
       <c r="H46">
         <v>1</v>
@@ -3108,7 +3108,7 @@
         <v>3</v>
       </c>
       <c r="D47">
-        <v>2.874668319406213</v>
+        <v>2.874668319406214</v>
       </c>
       <c r="E47">
         <v>3.035529027270059</v>
@@ -3117,7 +3117,7 @@
         <v>3</v>
       </c>
       <c r="G47">
-        <v>2.874668319406213</v>
+        <v>2.874668319406214</v>
       </c>
       <c r="H47">
         <v>3</v>
@@ -3180,22 +3180,22 @@
         <v>56</v>
       </c>
       <c r="B50">
-        <v>4.247912771977659</v>
+        <v>4.247912771977661</v>
       </c>
       <c r="C50">
         <v>5</v>
       </c>
       <c r="D50">
-        <v>4.594307282866748</v>
+        <v>4.594307282866749</v>
       </c>
       <c r="E50">
-        <v>4.247912771977659</v>
+        <v>4.247912771977661</v>
       </c>
       <c r="F50">
         <v>4</v>
       </c>
       <c r="G50">
-        <v>4.594307282866748</v>
+        <v>4.594307282866749</v>
       </c>
       <c r="H50">
         <v>5</v>
@@ -3206,22 +3206,22 @@
         <v>57</v>
       </c>
       <c r="B51">
-        <v>3.19099106548962</v>
+        <v>3.190991065489621</v>
       </c>
       <c r="C51">
         <v>3</v>
       </c>
       <c r="D51">
-        <v>3.095174887090213</v>
+        <v>3.095174887090215</v>
       </c>
       <c r="E51">
-        <v>3.19099106548962</v>
+        <v>3.190991065489621</v>
       </c>
       <c r="F51">
         <v>3</v>
       </c>
       <c r="G51">
-        <v>3.095174887090213</v>
+        <v>3.095174887090215</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -3238,7 +3238,7 @@
         <v>3</v>
       </c>
       <c r="D52">
-        <v>2.852384976998397</v>
+        <v>2.852384976998398</v>
       </c>
       <c r="E52">
         <v>3.019818774893233</v>
@@ -3247,7 +3247,7 @@
         <v>3</v>
       </c>
       <c r="G52">
-        <v>2.852384976998397</v>
+        <v>2.852384976998398</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -3258,22 +3258,22 @@
         <v>59</v>
       </c>
       <c r="B53">
-        <v>3.347899124688458</v>
+        <v>3.347899124688459</v>
       </c>
       <c r="C53">
         <v>3</v>
       </c>
       <c r="D53">
-        <v>3.317732483607946</v>
+        <v>3.317732483607948</v>
       </c>
       <c r="E53">
-        <v>3.347899124688458</v>
+        <v>3.347899124688459</v>
       </c>
       <c r="F53">
         <v>3</v>
       </c>
       <c r="G53">
-        <v>3.317732483607946</v>
+        <v>3.317732483607948</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -3290,7 +3290,7 @@
         <v>5</v>
       </c>
       <c r="D54">
-        <v>4.61550790200166</v>
+        <v>4.615507902001661</v>
       </c>
       <c r="E54">
         <v>4.262859680347996</v>
@@ -3299,7 +3299,7 @@
         <v>4</v>
       </c>
       <c r="G54">
-        <v>4.61550790200166</v>
+        <v>4.615507902001661</v>
       </c>
       <c r="H54">
         <v>5</v>
@@ -3310,22 +3310,22 @@
         <v>61</v>
       </c>
       <c r="B55">
-        <v>3.696019747709415</v>
+        <v>3.696019747709414</v>
       </c>
       <c r="C55">
         <v>4</v>
       </c>
       <c r="D55">
-        <v>3.811505012268312</v>
+        <v>3.81150501226831</v>
       </c>
       <c r="E55">
-        <v>3.696019747709415</v>
+        <v>3.696019747709414</v>
       </c>
       <c r="F55">
         <v>4</v>
       </c>
       <c r="G55">
-        <v>3.811505012268312</v>
+        <v>3.81150501226831</v>
       </c>
       <c r="H55">
         <v>4</v>
@@ -3336,22 +3336,22 @@
         <v>62</v>
       </c>
       <c r="B56">
-        <v>3.701279146715661</v>
+        <v>3.70127914671566</v>
       </c>
       <c r="C56">
         <v>3</v>
       </c>
       <c r="D56">
-        <v>3.818964917182913</v>
+        <v>3.818964917182912</v>
       </c>
       <c r="E56">
-        <v>3.701279146715661</v>
+        <v>3.70127914671566</v>
       </c>
       <c r="F56">
         <v>4</v>
       </c>
       <c r="G56">
-        <v>3.818964917182913</v>
+        <v>3.818964917182912</v>
       </c>
       <c r="H56">
         <v>4</v>
@@ -3362,7 +3362,7 @@
         <v>63</v>
       </c>
       <c r="B57">
-        <v>4.050619619981227</v>
+        <v>4.050619619981226</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -3371,7 +3371,7 @@
         <v>4.314467675252383</v>
       </c>
       <c r="E57">
-        <v>4.050619619981227</v>
+        <v>4.050619619981226</v>
       </c>
       <c r="F57">
         <v>4</v>
@@ -3420,7 +3420,7 @@
         <v>4</v>
       </c>
       <c r="D59">
-        <v>4.247352670042</v>
+        <v>4.247352670042001</v>
       </c>
       <c r="E59">
         <v>4.003302047472117</v>
@@ -3429,7 +3429,7 @@
         <v>4</v>
       </c>
       <c r="G59">
-        <v>4.247352670042</v>
+        <v>4.247352670042001</v>
       </c>
       <c r="H59">
         <v>4</v>
@@ -3440,7 +3440,7 @@
         <v>66</v>
       </c>
       <c r="B60">
-        <v>3.017259398781813</v>
+        <v>3.017259398781812</v>
       </c>
       <c r="C60">
         <v>3</v>
@@ -3449,7 +3449,7 @@
         <v>2.84875477088374</v>
       </c>
       <c r="E60">
-        <v>3.017259398781813</v>
+        <v>3.017259398781812</v>
       </c>
       <c r="F60">
         <v>3</v>
@@ -3498,7 +3498,7 @@
         <v>3</v>
       </c>
       <c r="D62">
-        <v>2.928215035594464</v>
+        <v>2.928215035594463</v>
       </c>
       <c r="E62">
         <v>3.073280654017609</v>
@@ -3507,7 +3507,7 @@
         <v>3</v>
       </c>
       <c r="G62">
-        <v>2.928215035594464</v>
+        <v>2.928215035594463</v>
       </c>
       <c r="H62">
         <v>3</v>
@@ -3524,7 +3524,7 @@
         <v>3</v>
       </c>
       <c r="D63">
-        <v>3.170434381142996</v>
+        <v>3.170434381142995</v>
       </c>
       <c r="E63">
         <v>3.244050683911441</v>
@@ -3533,7 +3533,7 @@
         <v>3</v>
       </c>
       <c r="G63">
-        <v>3.170434381142996</v>
+        <v>3.170434381142995</v>
       </c>
       <c r="H63">
         <v>3</v>
@@ -3550,7 +3550,7 @@
         <v>6</v>
       </c>
       <c r="D64">
-        <v>5.009648965947679</v>
+        <v>5.009648965947681</v>
       </c>
       <c r="E64">
         <v>4.540737903163038</v>
@@ -3559,7 +3559,7 @@
         <v>5</v>
       </c>
       <c r="G64">
-        <v>5.009648965947679</v>
+        <v>5.009648965947681</v>
       </c>
       <c r="H64">
         <v>5</v>
@@ -3570,22 +3570,22 @@
         <v>71</v>
       </c>
       <c r="B65">
-        <v>4.438529063152888</v>
+        <v>4.43852906315289</v>
       </c>
       <c r="C65">
         <v>4</v>
       </c>
       <c r="D65">
-        <v>4.864676464906814</v>
+        <v>4.864676464906813</v>
       </c>
       <c r="E65">
-        <v>4.438529063152888</v>
+        <v>4.43852906315289</v>
       </c>
       <c r="F65">
         <v>4</v>
       </c>
       <c r="G65">
-        <v>4.864676464906814</v>
+        <v>4.864676464906813</v>
       </c>
       <c r="H65">
         <v>5</v>
@@ -3648,22 +3648,22 @@
         <v>74</v>
       </c>
       <c r="B68">
-        <v>3.93605736226783</v>
+        <v>3.936057362267829</v>
       </c>
       <c r="C68">
         <v>4</v>
       </c>
       <c r="D68">
-        <v>4.151973149104248</v>
+        <v>4.151973149104247</v>
       </c>
       <c r="E68">
-        <v>3.93605736226783</v>
+        <v>3.936057362267829</v>
       </c>
       <c r="F68">
         <v>4</v>
       </c>
       <c r="G68">
-        <v>4.151973149104248</v>
+        <v>4.151973149104247</v>
       </c>
       <c r="H68">
         <v>4</v>
@@ -3674,7 +3674,7 @@
         <v>75</v>
       </c>
       <c r="B69">
-        <v>4.158061939917831</v>
+        <v>4.158061939917832</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -3683,7 +3683,7 @@
         <v>4.466863317716347</v>
       </c>
       <c r="E69">
-        <v>4.158061939917831</v>
+        <v>4.158061939917832</v>
       </c>
       <c r="F69">
         <v>4</v>
@@ -3732,7 +3732,7 @@
         <v>4</v>
       </c>
       <c r="D71">
-        <v>3.040896113664397</v>
+        <v>3.040896113664398</v>
       </c>
       <c r="E71">
         <v>3.152723322095566</v>
@@ -3741,7 +3741,7 @@
         <v>3</v>
       </c>
       <c r="G71">
-        <v>3.040896113664397</v>
+        <v>3.040896113664398</v>
       </c>
       <c r="H71">
         <v>3</v>
@@ -3758,7 +3758,7 @@
         <v>2</v>
       </c>
       <c r="D72">
-        <v>2.108805959817386</v>
+        <v>2.108805959817387</v>
       </c>
       <c r="E72">
         <v>2.495579017309605</v>
@@ -3767,7 +3767,7 @@
         <v>2</v>
       </c>
       <c r="G72">
-        <v>2.108805959817386</v>
+        <v>2.108805959817387</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -3778,22 +3778,22 @@
         <v>79</v>
       </c>
       <c r="B73">
-        <v>3.365120909567717</v>
+        <v>3.365120909567715</v>
       </c>
       <c r="C73">
         <v>4</v>
       </c>
       <c r="D73">
-        <v>3.342159776062162</v>
+        <v>3.34215977606216</v>
       </c>
       <c r="E73">
-        <v>3.365120909567717</v>
+        <v>3.365120909567715</v>
       </c>
       <c r="F73">
         <v>3</v>
       </c>
       <c r="G73">
-        <v>3.342159776062162</v>
+        <v>3.34215977606216</v>
       </c>
       <c r="H73">
         <v>3</v>
@@ -3804,22 +3804,22 @@
         <v>80</v>
       </c>
       <c r="B74">
-        <v>3.072837664203573</v>
+        <v>3.072837664203572</v>
       </c>
       <c r="C74">
         <v>3</v>
       </c>
       <c r="D74">
-        <v>2.927586701085725</v>
+        <v>2.927586701085724</v>
       </c>
       <c r="E74">
-        <v>3.072837664203573</v>
+        <v>3.072837664203572</v>
       </c>
       <c r="F74">
         <v>3</v>
       </c>
       <c r="G74">
-        <v>2.927586701085725</v>
+        <v>2.927586701085724</v>
       </c>
       <c r="H74">
         <v>3</v>
@@ -3830,22 +3830,22 @@
         <v>81</v>
       </c>
       <c r="B75">
-        <v>2.760403471975489</v>
+        <v>2.760403471975487</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
       <c r="D75">
-        <v>2.484431625130538</v>
+        <v>2.484431625130535</v>
       </c>
       <c r="E75">
-        <v>2.760403471975489</v>
+        <v>2.760403471975487</v>
       </c>
       <c r="F75">
         <v>3</v>
       </c>
       <c r="G75">
-        <v>2.484431625130538</v>
+        <v>2.484431625130535</v>
       </c>
       <c r="H75">
         <v>2</v>
@@ -3856,22 +3856,22 @@
         <v>82</v>
       </c>
       <c r="B76">
-        <v>3.023099527266044</v>
+        <v>3.023099527266043</v>
       </c>
       <c r="C76">
         <v>3</v>
       </c>
       <c r="D76">
-        <v>2.857038379548852</v>
+        <v>2.857038379548851</v>
       </c>
       <c r="E76">
-        <v>3.023099527266044</v>
+        <v>3.023099527266043</v>
       </c>
       <c r="F76">
         <v>3</v>
       </c>
       <c r="G76">
-        <v>2.857038379548852</v>
+        <v>2.857038379548851</v>
       </c>
       <c r="H76">
         <v>3</v>
@@ -3908,22 +3908,22 @@
         <v>84</v>
       </c>
       <c r="B78">
-        <v>4.407546785859551</v>
+        <v>4.407546785859552</v>
       </c>
       <c r="C78">
         <v>4</v>
       </c>
       <c r="D78">
-        <v>4.820731359701519</v>
+        <v>4.82073135970152</v>
       </c>
       <c r="E78">
-        <v>4.407546785859551</v>
+        <v>4.407546785859552</v>
       </c>
       <c r="F78">
         <v>4</v>
       </c>
       <c r="G78">
-        <v>4.820731359701519</v>
+        <v>4.82073135970152</v>
       </c>
       <c r="H78">
         <v>5</v>
@@ -3934,22 +3934,22 @@
         <v>85</v>
       </c>
       <c r="B79">
-        <v>3.438298464351447</v>
+        <v>3.438298464351446</v>
       </c>
       <c r="C79">
         <v>3</v>
       </c>
       <c r="D79">
-        <v>3.445954449164795</v>
+        <v>3.445954449164793</v>
       </c>
       <c r="E79">
-        <v>3.438298464351447</v>
+        <v>3.438298464351446</v>
       </c>
       <c r="F79">
         <v>3</v>
       </c>
       <c r="G79">
-        <v>3.445954449164795</v>
+        <v>3.445954449164793</v>
       </c>
       <c r="H79">
         <v>3</v>
@@ -3966,7 +3966,7 @@
         <v>4</v>
       </c>
       <c r="D80">
-        <v>3.052324158708733</v>
+        <v>3.052324158708734</v>
       </c>
       <c r="E80">
         <v>3.160780348215547</v>
@@ -3975,7 +3975,7 @@
         <v>3</v>
       </c>
       <c r="G80">
-        <v>3.052324158708733</v>
+        <v>3.052324158708734</v>
       </c>
       <c r="H80">
         <v>3</v>
@@ -3992,7 +3992,7 @@
         <v>4</v>
       </c>
       <c r="D81">
-        <v>3.025834917136602</v>
+        <v>3.025834917136603</v>
       </c>
       <c r="E81">
         <v>3.142104843313601</v>
@@ -4001,7 +4001,7 @@
         <v>3</v>
       </c>
       <c r="G81">
-        <v>3.025834917136602</v>
+        <v>3.025834917136603</v>
       </c>
       <c r="H81">
         <v>3</v>
@@ -4012,22 +4012,22 @@
         <v>88</v>
       </c>
       <c r="B82">
-        <v>1.338513500372996</v>
+        <v>1.338513500372995</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
       <c r="D82">
-        <v>0.4676300904719266</v>
+        <v>0.4676300904719271</v>
       </c>
       <c r="E82">
-        <v>1.338513500372996</v>
+        <v>1.338513500372995</v>
       </c>
       <c r="F82">
         <v>1</v>
       </c>
       <c r="G82">
-        <v>0.50002</v>
+        <v>0.5002</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -4044,7 +4044,7 @@
         <v>4</v>
       </c>
       <c r="D83">
-        <v>4.196482449230485</v>
+        <v>4.196482449230484</v>
       </c>
       <c r="E83">
         <v>3.967437409538199</v>
@@ -4053,7 +4053,7 @@
         <v>4</v>
       </c>
       <c r="G83">
-        <v>4.196482449230485</v>
+        <v>4.196482449230484</v>
       </c>
       <c r="H83">
         <v>4</v>
@@ -4070,7 +4070,7 @@
         <v>4</v>
       </c>
       <c r="D84">
-        <v>3.232649687745276</v>
+        <v>3.232649687745277</v>
       </c>
       <c r="E84">
         <v>3.287913859845077</v>
@@ -4079,7 +4079,7 @@
         <v>3</v>
       </c>
       <c r="G84">
-        <v>3.232649687745276</v>
+        <v>3.232649687745277</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -4122,7 +4122,7 @@
         <v>4</v>
       </c>
       <c r="D86">
-        <v>3.612535993353073</v>
+        <v>3.612535993353075</v>
       </c>
       <c r="E86">
         <v>3.555742160751384</v>
@@ -4131,7 +4131,7 @@
         <v>4</v>
       </c>
       <c r="G86">
-        <v>3.612535993353073</v>
+        <v>3.612535993353075</v>
       </c>
       <c r="H86">
         <v>4</v>
@@ -4142,22 +4142,22 @@
         <v>93</v>
       </c>
       <c r="B87">
-        <v>4.069854138015859</v>
+        <v>4.069854138015861</v>
       </c>
       <c r="C87">
         <v>4</v>
       </c>
       <c r="D87">
-        <v>4.341749818220837</v>
+        <v>4.341749818220838</v>
       </c>
       <c r="E87">
-        <v>4.069854138015859</v>
+        <v>4.069854138015861</v>
       </c>
       <c r="F87">
         <v>4</v>
       </c>
       <c r="G87">
-        <v>4.341749818220837</v>
+        <v>4.341749818220838</v>
       </c>
       <c r="H87">
         <v>4</v>
@@ -4168,22 +4168,22 @@
         <v>94</v>
       </c>
       <c r="B88">
-        <v>3.266318785166102</v>
+        <v>3.266318785166103</v>
       </c>
       <c r="C88">
         <v>3</v>
       </c>
       <c r="D88">
-        <v>3.202019343187365</v>
+        <v>3.202019343187366</v>
       </c>
       <c r="E88">
-        <v>3.266318785166102</v>
+        <v>3.266318785166103</v>
       </c>
       <c r="F88">
         <v>3</v>
       </c>
       <c r="G88">
-        <v>3.202019343187365</v>
+        <v>3.202019343187366</v>
       </c>
       <c r="H88">
         <v>3</v>
@@ -4200,7 +4200,7 @@
         <v>5</v>
       </c>
       <c r="D89">
-        <v>4.632741971602754</v>
+        <v>4.632741971602753</v>
       </c>
       <c r="E89">
         <v>4.275010083010121</v>
@@ -4209,7 +4209,7 @@
         <v>4</v>
       </c>
       <c r="G89">
-        <v>4.632741971602754</v>
+        <v>4.632741971602753</v>
       </c>
       <c r="H89">
         <v>5</v>
@@ -4220,22 +4220,22 @@
         <v>96</v>
       </c>
       <c r="B90">
-        <v>3.220197044331341</v>
+        <v>3.220197044331342</v>
       </c>
       <c r="C90">
         <v>3</v>
       </c>
       <c r="D90">
-        <v>3.136600499567672</v>
+        <v>3.136600499567673</v>
       </c>
       <c r="E90">
-        <v>3.220197044331341</v>
+        <v>3.220197044331342</v>
       </c>
       <c r="F90">
         <v>3</v>
       </c>
       <c r="G90">
-        <v>3.136600499567672</v>
+        <v>3.136600499567673</v>
       </c>
       <c r="H90">
         <v>3</v>
@@ -4272,22 +4272,22 @@
         <v>98</v>
       </c>
       <c r="B92">
-        <v>4.357940973114839</v>
+        <v>4.357940973114838</v>
       </c>
       <c r="C92">
         <v>4</v>
       </c>
       <c r="D92">
-        <v>4.75037072612959</v>
+        <v>4.750370726129588</v>
       </c>
       <c r="E92">
-        <v>4.357940973114839</v>
+        <v>4.357940973114838</v>
       </c>
       <c r="F92">
         <v>4</v>
       </c>
       <c r="G92">
-        <v>4.75037072612959</v>
+        <v>4.750370726129588</v>
       </c>
       <c r="H92">
         <v>5</v>
@@ -4298,22 +4298,22 @@
         <v>99</v>
       </c>
       <c r="B93">
-        <v>3.422682975636576</v>
+        <v>3.422682975636577</v>
       </c>
       <c r="C93">
         <v>4</v>
       </c>
       <c r="D93">
-        <v>3.423805519055173</v>
+        <v>3.423805519055174</v>
       </c>
       <c r="E93">
-        <v>3.422682975636576</v>
+        <v>3.422682975636577</v>
       </c>
       <c r="F93">
         <v>3</v>
       </c>
       <c r="G93">
-        <v>3.423805519055173</v>
+        <v>3.423805519055174</v>
       </c>
       <c r="H93">
         <v>3</v>
@@ -4324,22 +4324,22 @@
         <v>100</v>
       </c>
       <c r="B94">
-        <v>3.336972204181928</v>
+        <v>3.336972204181927</v>
       </c>
       <c r="C94">
         <v>2</v>
       </c>
       <c r="D94">
-        <v>3.30223379490011</v>
+        <v>3.302233794900109</v>
       </c>
       <c r="E94">
-        <v>3.336972204181928</v>
+        <v>3.336972204181927</v>
       </c>
       <c r="F94">
         <v>3</v>
       </c>
       <c r="G94">
-        <v>3.30223379490011</v>
+        <v>3.302233794900109</v>
       </c>
       <c r="H94">
         <v>3</v>
@@ -4376,22 +4376,22 @@
         <v>102</v>
       </c>
       <c r="B96">
-        <v>2.429499582477076</v>
+        <v>2.429499582477074</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
       <c r="D96">
-        <v>2.015079224105604</v>
+        <v>2.015079224105603</v>
       </c>
       <c r="E96">
-        <v>2.429499582477076</v>
+        <v>2.429499582477074</v>
       </c>
       <c r="F96">
         <v>2</v>
       </c>
       <c r="G96">
-        <v>2.015079224105604</v>
+        <v>2.015079224105603</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -4402,7 +4402,7 @@
         <v>103</v>
       </c>
       <c r="B97">
-        <v>2.632893071300707</v>
+        <v>2.632893071300706</v>
       </c>
       <c r="C97">
         <v>3</v>
@@ -4411,7 +4411,7 @@
         <v>2.303571518580937</v>
       </c>
       <c r="E97">
-        <v>2.632893071300707</v>
+        <v>2.632893071300706</v>
       </c>
       <c r="F97">
         <v>3</v>
@@ -4434,7 +4434,7 @@
         <v>3</v>
       </c>
       <c r="D98">
-        <v>3.101279906734734</v>
+        <v>3.101279906734735</v>
       </c>
       <c r="E98">
         <v>3.195295240223626</v>
@@ -4443,7 +4443,7 @@
         <v>3</v>
       </c>
       <c r="G98">
-        <v>3.101279906734734</v>
+        <v>3.101279906734735</v>
       </c>
       <c r="H98">
         <v>3</v>
@@ -4454,7 +4454,7 @@
         <v>105</v>
       </c>
       <c r="B99">
-        <v>2.815539739643761</v>
+        <v>2.81553973964376</v>
       </c>
       <c r="C99">
         <v>4</v>
@@ -4463,7 +4463,7 @@
         <v>2.56263662795744</v>
       </c>
       <c r="E99">
-        <v>2.815539739643761</v>
+        <v>2.81553973964376</v>
       </c>
       <c r="F99">
         <v>3</v>
@@ -4480,22 +4480,22 @@
         <v>106</v>
       </c>
       <c r="B100">
-        <v>3.669339456110375</v>
+        <v>3.669339456110376</v>
       </c>
       <c r="C100">
         <v>3</v>
       </c>
       <c r="D100">
-        <v>3.773661821784706</v>
+        <v>3.773661821784707</v>
       </c>
       <c r="E100">
-        <v>3.669339456110375</v>
+        <v>3.669339456110376</v>
       </c>
       <c r="F100">
         <v>4</v>
       </c>
       <c r="G100">
-        <v>3.773661821784706</v>
+        <v>3.773661821784707</v>
       </c>
       <c r="H100">
         <v>4</v>
@@ -4506,22 +4506,22 @@
         <v>107</v>
       </c>
       <c r="B101">
-        <v>3.209964867099828</v>
+        <v>3.209964867099826</v>
       </c>
       <c r="C101">
         <v>4</v>
       </c>
       <c r="D101">
-        <v>3.122087231202639</v>
+        <v>3.122087231202637</v>
       </c>
       <c r="E101">
-        <v>3.209964867099828</v>
+        <v>3.209964867099826</v>
       </c>
       <c r="F101">
         <v>3</v>
       </c>
       <c r="G101">
-        <v>3.122087231202639</v>
+        <v>3.122087231202637</v>
       </c>
       <c r="H101">
         <v>3</v>
@@ -4532,22 +4532,22 @@
         <v>108</v>
       </c>
       <c r="B102">
-        <v>3.528546495633387</v>
+        <v>3.528546495633388</v>
       </c>
       <c r="C102">
         <v>3</v>
       </c>
       <c r="D102">
-        <v>3.573961799680253</v>
+        <v>3.573961799680254</v>
       </c>
       <c r="E102">
-        <v>3.528546495633387</v>
+        <v>3.528546495633388</v>
       </c>
       <c r="F102">
         <v>4</v>
       </c>
       <c r="G102">
-        <v>3.573961799680253</v>
+        <v>3.573961799680254</v>
       </c>
       <c r="H102">
         <v>4</v>
@@ -4558,22 +4558,22 @@
         <v>109</v>
       </c>
       <c r="B103">
-        <v>3.531183570632365</v>
+        <v>3.531183570632367</v>
       </c>
       <c r="C103">
         <v>4</v>
       </c>
       <c r="D103">
-        <v>3.577702213503521</v>
+        <v>3.577702213503523</v>
       </c>
       <c r="E103">
-        <v>3.531183570632365</v>
+        <v>3.531183570632367</v>
       </c>
       <c r="F103">
         <v>4</v>
       </c>
       <c r="G103">
-        <v>3.577702213503521</v>
+        <v>3.577702213503523</v>
       </c>
       <c r="H103">
         <v>4</v>
@@ -4584,7 +4584,7 @@
         <v>110</v>
       </c>
       <c r="B104">
-        <v>3.513008478920967</v>
+        <v>3.513008478920966</v>
       </c>
       <c r="C104">
         <v>3</v>
@@ -4593,7 +4593,7 @@
         <v>3.551922755466554</v>
       </c>
       <c r="E104">
-        <v>3.513008478920967</v>
+        <v>3.513008478920966</v>
       </c>
       <c r="F104">
         <v>4</v>
@@ -4616,7 +4616,7 @@
         <v>3</v>
       </c>
       <c r="D105">
-        <v>2.949910313076989</v>
+        <v>2.94991031307699</v>
       </c>
       <c r="E105">
         <v>3.088576307533045</v>
@@ -4625,7 +4625,7 @@
         <v>3</v>
       </c>
       <c r="G105">
-        <v>2.949910313076989</v>
+        <v>2.94991031307699</v>
       </c>
       <c r="H105">
         <v>3</v>
@@ -4642,7 +4642,7 @@
         <v>3</v>
       </c>
       <c r="D106">
-        <v>3.2917665734607</v>
+        <v>3.291766573460699</v>
       </c>
       <c r="E106">
         <v>3.329592580089288</v>
@@ -4651,7 +4651,7 @@
         <v>3</v>
       </c>
       <c r="G106">
-        <v>3.2917665734607</v>
+        <v>3.291766573460699</v>
       </c>
       <c r="H106">
         <v>3</v>
@@ -4662,22 +4662,22 @@
         <v>113</v>
       </c>
       <c r="B107">
-        <v>3.869816611442792</v>
+        <v>3.869816611442791</v>
       </c>
       <c r="C107">
         <v>4</v>
       </c>
       <c r="D107">
-        <v>4.058017603605666</v>
+        <v>4.058017603605665</v>
       </c>
       <c r="E107">
-        <v>3.869816611442792</v>
+        <v>3.869816611442791</v>
       </c>
       <c r="F107">
         <v>4</v>
       </c>
       <c r="G107">
-        <v>4.058017603605666</v>
+        <v>4.058017603605665</v>
       </c>
       <c r="H107">
         <v>4</v>
@@ -4688,22 +4688,22 @@
         <v>114</v>
       </c>
       <c r="B108">
-        <v>3.489347611231309</v>
+        <v>3.48934761123131</v>
       </c>
       <c r="C108">
         <v>3</v>
       </c>
       <c r="D108">
-        <v>3.518362300564356</v>
+        <v>3.518362300564357</v>
       </c>
       <c r="E108">
-        <v>3.489347611231309</v>
+        <v>3.48934761123131</v>
       </c>
       <c r="F108">
         <v>3</v>
       </c>
       <c r="G108">
-        <v>3.518362300564356</v>
+        <v>3.518362300564357</v>
       </c>
       <c r="H108">
         <v>4</v>
@@ -4714,22 +4714,22 @@
         <v>115</v>
       </c>
       <c r="B109">
-        <v>3.317177260811264</v>
+        <v>3.317177260811263</v>
       </c>
       <c r="C109">
         <v>3</v>
       </c>
       <c r="D109">
-        <v>3.274156747473267</v>
+        <v>3.274156747473266</v>
       </c>
       <c r="E109">
-        <v>3.317177260811264</v>
+        <v>3.317177260811263</v>
       </c>
       <c r="F109">
         <v>3</v>
       </c>
       <c r="G109">
-        <v>3.274156747473267</v>
+        <v>3.274156747473266</v>
       </c>
       <c r="H109">
         <v>3</v>
@@ -4740,7 +4740,7 @@
         <v>116</v>
       </c>
       <c r="B110">
-        <v>3.009612954255984</v>
+        <v>3.009612954255983</v>
       </c>
       <c r="C110">
         <v>3</v>
@@ -4749,7 +4749,7 @@
         <v>2.837909092693188</v>
       </c>
       <c r="E110">
-        <v>3.009612954255984</v>
+        <v>3.009612954255983</v>
       </c>
       <c r="F110">
         <v>3</v>
@@ -4772,7 +4772,7 @@
         <v>2</v>
       </c>
       <c r="D111">
-        <v>4.153049145486461</v>
+        <v>4.15304914548646</v>
       </c>
       <c r="E111">
         <v>3.936815963666656</v>
@@ -4781,7 +4781,7 @@
         <v>4</v>
       </c>
       <c r="G111">
-        <v>4.153049145486461</v>
+        <v>4.15304914548646</v>
       </c>
       <c r="H111">
         <v>4</v>
@@ -4792,22 +4792,22 @@
         <v>118</v>
       </c>
       <c r="B112">
-        <v>4.077036685241477</v>
+        <v>4.077036685241478</v>
       </c>
       <c r="C112">
         <v>3</v>
       </c>
       <c r="D112">
-        <v>4.351937506830144</v>
+        <v>4.351937506830145</v>
       </c>
       <c r="E112">
-        <v>4.077036685241477</v>
+        <v>4.077036685241478</v>
       </c>
       <c r="F112">
         <v>4</v>
       </c>
       <c r="G112">
-        <v>4.351937506830144</v>
+        <v>4.351937506830145</v>
       </c>
       <c r="H112">
         <v>4</v>
@@ -4818,22 +4818,22 @@
         <v>119</v>
       </c>
       <c r="B113">
-        <v>3.746776598200598</v>
+        <v>3.746776598200599</v>
       </c>
       <c r="C113">
         <v>4</v>
       </c>
       <c r="D113">
-        <v>3.883498271950485</v>
+        <v>3.883498271950486</v>
       </c>
       <c r="E113">
-        <v>3.746776598200598</v>
+        <v>3.746776598200599</v>
       </c>
       <c r="F113">
         <v>4</v>
       </c>
       <c r="G113">
-        <v>3.883498271950485</v>
+        <v>3.883498271950486</v>
       </c>
       <c r="H113">
         <v>4</v>
@@ -4844,22 +4844,22 @@
         <v>120</v>
       </c>
       <c r="B114">
-        <v>3.457992443856087</v>
+        <v>3.457992443856088</v>
       </c>
       <c r="C114">
         <v>3</v>
       </c>
       <c r="D114">
-        <v>3.473888289955394</v>
+        <v>3.473888289955395</v>
       </c>
       <c r="E114">
-        <v>3.457992443856087</v>
+        <v>3.457992443856088</v>
       </c>
       <c r="F114">
         <v>3</v>
       </c>
       <c r="G114">
-        <v>3.473888289955394</v>
+        <v>3.473888289955395</v>
       </c>
       <c r="H114">
         <v>3</v>
@@ -4870,22 +4870,22 @@
         <v>121</v>
       </c>
       <c r="B115">
-        <v>4.048027204296623</v>
+        <v>4.048027204296622</v>
       </c>
       <c r="C115">
         <v>4</v>
       </c>
       <c r="D115">
-        <v>4.310790605974449</v>
+        <v>4.310790605974448</v>
       </c>
       <c r="E115">
-        <v>4.048027204296623</v>
+        <v>4.048027204296622</v>
       </c>
       <c r="F115">
         <v>4</v>
       </c>
       <c r="G115">
-        <v>4.310790605974449</v>
+        <v>4.310790605974448</v>
       </c>
       <c r="H115">
         <v>4</v>
@@ -4896,22 +4896,22 @@
         <v>122</v>
       </c>
       <c r="B116">
-        <v>2.460967977178037</v>
+        <v>2.460967977178036</v>
       </c>
       <c r="C116">
         <v>2</v>
       </c>
       <c r="D116">
-        <v>2.059713835779962</v>
+        <v>2.059713835779961</v>
       </c>
       <c r="E116">
-        <v>2.460967977178037</v>
+        <v>2.460967977178036</v>
       </c>
       <c r="F116">
         <v>2</v>
       </c>
       <c r="G116">
-        <v>2.059713835779962</v>
+        <v>2.059713835779961</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -4928,7 +4928,7 @@
         <v>3</v>
       </c>
       <c r="D117">
-        <v>3.379193505152539</v>
+        <v>3.37919350515254</v>
       </c>
       <c r="E117">
         <v>3.391230512867659</v>
@@ -4937,7 +4937,7 @@
         <v>3</v>
       </c>
       <c r="G117">
-        <v>3.379193505152539</v>
+        <v>3.37919350515254</v>
       </c>
       <c r="H117">
         <v>3</v>
@@ -4948,7 +4948,7 @@
         <v>124</v>
       </c>
       <c r="B118">
-        <v>3.522224932081167</v>
+        <v>3.522224932081168</v>
       </c>
       <c r="C118">
         <v>3</v>
@@ -4957,7 +4957,7 @@
         <v>3.564995325952901</v>
       </c>
       <c r="E118">
-        <v>3.522224932081167</v>
+        <v>3.522224932081168</v>
       </c>
       <c r="F118">
         <v>4</v>
@@ -4980,7 +4980,7 @@
         <v>4</v>
       </c>
       <c r="D119">
-        <v>4.681171334396303</v>
+        <v>4.681171334396302</v>
       </c>
       <c r="E119">
         <v>4.309153861713116</v>
@@ -4989,7 +4989,7 @@
         <v>4</v>
       </c>
       <c r="G119">
-        <v>4.681171334396303</v>
+        <v>4.681171334396302</v>
       </c>
       <c r="H119">
         <v>5</v>
@@ -5000,22 +5000,22 @@
         <v>126</v>
       </c>
       <c r="B120">
-        <v>2.856831150648792</v>
+        <v>2.856831150648793</v>
       </c>
       <c r="C120">
         <v>3</v>
       </c>
       <c r="D120">
-        <v>2.621204156209512</v>
+        <v>2.621204156209514</v>
       </c>
       <c r="E120">
-        <v>2.856831150648792</v>
+        <v>2.856831150648793</v>
       </c>
       <c r="F120">
         <v>3</v>
       </c>
       <c r="G120">
-        <v>2.621204156209512</v>
+        <v>2.621204156209514</v>
       </c>
       <c r="H120">
         <v>3</v>
@@ -5026,7 +5026,7 @@
         <v>127</v>
       </c>
       <c r="B121">
-        <v>2.673789128232096</v>
+        <v>2.673789128232095</v>
       </c>
       <c r="C121">
         <v>3</v>
@@ -5035,7 +5035,7 @@
         <v>2.361578278617197</v>
       </c>
       <c r="E121">
-        <v>2.673789128232096</v>
+        <v>2.673789128232095</v>
       </c>
       <c r="F121">
         <v>3</v>
@@ -5058,7 +5058,7 @@
         <v>3</v>
       </c>
       <c r="D122">
-        <v>3.389973517791202</v>
+        <v>3.389973517791203</v>
       </c>
       <c r="E122">
         <v>3.398830661717832</v>
@@ -5067,7 +5067,7 @@
         <v>3</v>
       </c>
       <c r="G122">
-        <v>3.389973517791202</v>
+        <v>3.389973517791203</v>
       </c>
       <c r="H122">
         <v>3</v>
@@ -5084,7 +5084,7 @@
         <v>3</v>
       </c>
       <c r="D123">
-        <v>2.577616090943663</v>
+        <v>2.577616090943664</v>
       </c>
       <c r="E123">
         <v>2.826100594459704</v>
@@ -5093,7 +5093,7 @@
         <v>3</v>
       </c>
       <c r="G123">
-        <v>2.577616090943663</v>
+        <v>2.577616090943664</v>
       </c>
       <c r="H123">
         <v>3</v>
@@ -5110,7 +5110,7 @@
         <v>3</v>
       </c>
       <c r="D124">
-        <v>3.316371220252021</v>
+        <v>3.316371220252022</v>
       </c>
       <c r="E124">
         <v>3.346939403723733</v>
@@ -5119,7 +5119,7 @@
         <v>3</v>
       </c>
       <c r="G124">
-        <v>3.316371220252021</v>
+        <v>3.316371220252022</v>
       </c>
       <c r="H124">
         <v>3</v>
@@ -5130,22 +5130,22 @@
         <v>131</v>
       </c>
       <c r="B125">
-        <v>3.940425778575956</v>
+        <v>3.940425778575955</v>
       </c>
       <c r="C125">
         <v>4</v>
       </c>
       <c r="D125">
-        <v>4.158169288672156</v>
+        <v>4.158169288672154</v>
       </c>
       <c r="E125">
-        <v>3.940425778575956</v>
+        <v>3.940425778575955</v>
       </c>
       <c r="F125">
         <v>4</v>
       </c>
       <c r="G125">
-        <v>4.158169288672156</v>
+        <v>4.158169288672154</v>
       </c>
       <c r="H125">
         <v>4</v>
@@ -5162,7 +5162,7 @@
         <v>4</v>
       </c>
       <c r="D126">
-        <v>4.215022669803795</v>
+        <v>4.215022669803794</v>
       </c>
       <c r="E126">
         <v>3.980508677707851</v>
@@ -5171,7 +5171,7 @@
         <v>4</v>
       </c>
       <c r="G126">
-        <v>4.215022669803795</v>
+        <v>4.215022669803794</v>
       </c>
       <c r="H126">
         <v>4</v>
@@ -5208,22 +5208,22 @@
         <v>134</v>
       </c>
       <c r="B128">
-        <v>3.725858752481755</v>
+        <v>3.725858752481757</v>
       </c>
       <c r="C128">
         <v>4</v>
       </c>
       <c r="D128">
-        <v>3.853828505519846</v>
+        <v>3.853828505519848</v>
       </c>
       <c r="E128">
-        <v>3.725858752481755</v>
+        <v>3.725858752481757</v>
       </c>
       <c r="F128">
         <v>4</v>
       </c>
       <c r="G128">
-        <v>3.853828505519846</v>
+        <v>3.853828505519848</v>
       </c>
       <c r="H128">
         <v>4</v>
@@ -5240,7 +5240,7 @@
         <v>4</v>
       </c>
       <c r="D129">
-        <v>4.12528618705764</v>
+        <v>4.125286187057639</v>
       </c>
       <c r="E129">
         <v>3.917242460030544</v>
@@ -5249,7 +5249,7 @@
         <v>4</v>
       </c>
       <c r="G129">
-        <v>4.12528618705764</v>
+        <v>4.125286187057639</v>
       </c>
       <c r="H129">
         <v>4</v>
@@ -5260,22 +5260,22 @@
         <v>136</v>
       </c>
       <c r="B130">
-        <v>3.514000341291119</v>
+        <v>3.51400034129112</v>
       </c>
       <c r="C130">
         <v>4</v>
       </c>
       <c r="D130">
-        <v>3.553329608029161</v>
+        <v>3.553329608029163</v>
       </c>
       <c r="E130">
-        <v>3.514000341291119</v>
+        <v>3.51400034129112</v>
       </c>
       <c r="F130">
         <v>4</v>
       </c>
       <c r="G130">
-        <v>3.553329608029161</v>
+        <v>3.553329608029163</v>
       </c>
       <c r="H130">
         <v>4</v>
@@ -5292,7 +5292,7 @@
         <v>4</v>
       </c>
       <c r="D131">
-        <v>4.57090178244723</v>
+        <v>4.570901782447231</v>
       </c>
       <c r="E131">
         <v>4.231411373225757</v>
@@ -5301,7 +5301,7 @@
         <v>4</v>
       </c>
       <c r="G131">
-        <v>4.57090178244723</v>
+        <v>4.570901782447231</v>
       </c>
       <c r="H131">
         <v>5</v>
@@ -5312,22 +5312,22 @@
         <v>138</v>
       </c>
       <c r="B132">
-        <v>3.182202737427655</v>
+        <v>3.182202737427654</v>
       </c>
       <c r="C132">
         <v>4</v>
       </c>
       <c r="D132">
-        <v>3.082709567074995</v>
+        <v>3.082709567074994</v>
       </c>
       <c r="E132">
-        <v>3.182202737427655</v>
+        <v>3.182202737427654</v>
       </c>
       <c r="F132">
         <v>3</v>
       </c>
       <c r="G132">
-        <v>3.082709567074995</v>
+        <v>3.082709567074994</v>
       </c>
       <c r="H132">
         <v>3</v>
@@ -5338,22 +5338,22 @@
         <v>139</v>
       </c>
       <c r="B133">
-        <v>3.940720482689299</v>
+        <v>3.940720482689302</v>
       </c>
       <c r="C133">
         <v>4</v>
       </c>
       <c r="D133">
-        <v>4.158587295494013</v>
+        <v>4.158587295494017</v>
       </c>
       <c r="E133">
-        <v>3.940720482689299</v>
+        <v>3.940720482689302</v>
       </c>
       <c r="F133">
         <v>4</v>
       </c>
       <c r="G133">
-        <v>4.158587295494013</v>
+        <v>4.158587295494017</v>
       </c>
       <c r="H133">
         <v>4</v>
@@ -5364,22 +5364,22 @@
         <v>140</v>
       </c>
       <c r="B134">
-        <v>2.711158350199516</v>
+        <v>2.711158350199514</v>
       </c>
       <c r="C134">
         <v>3</v>
       </c>
       <c r="D134">
-        <v>2.414582593801973</v>
+        <v>2.414582593801972</v>
       </c>
       <c r="E134">
-        <v>2.711158350199516</v>
+        <v>2.711158350199514</v>
       </c>
       <c r="F134">
         <v>3</v>
       </c>
       <c r="G134">
-        <v>2.414582593801973</v>
+        <v>2.414582593801972</v>
       </c>
       <c r="H134">
         <v>2</v>
@@ -5396,7 +5396,7 @@
         <v>3</v>
       </c>
       <c r="D135">
-        <v>3.288855253920254</v>
+        <v>3.288855253920253</v>
       </c>
       <c r="E135">
         <v>3.327540035013556</v>
@@ -5405,7 +5405,7 @@
         <v>3</v>
       </c>
       <c r="G135">
-        <v>3.288855253920254</v>
+        <v>3.288855253920253</v>
       </c>
       <c r="H135">
         <v>3</v>
@@ -5442,22 +5442,22 @@
         <v>143</v>
       </c>
       <c r="B137">
-        <v>3.135244884680541</v>
+        <v>3.135244884680539</v>
       </c>
       <c r="C137">
         <v>3</v>
       </c>
       <c r="D137">
-        <v>3.01610478655325</v>
+        <v>3.016104786553249</v>
       </c>
       <c r="E137">
-        <v>3.135244884680541</v>
+        <v>3.135244884680539</v>
       </c>
       <c r="F137">
         <v>3</v>
       </c>
       <c r="G137">
-        <v>3.01610478655325</v>
+        <v>3.016104786553249</v>
       </c>
       <c r="H137">
         <v>3</v>
@@ -5500,7 +5500,7 @@
         <v>4</v>
       </c>
       <c r="D139">
-        <v>3.979025731262636</v>
+        <v>3.979025731262635</v>
       </c>
       <c r="E139">
         <v>3.814125583251625</v>
@@ -5509,7 +5509,7 @@
         <v>4</v>
       </c>
       <c r="G139">
-        <v>3.979025731262636</v>
+        <v>3.979025731262635</v>
       </c>
       <c r="H139">
         <v>4</v>
@@ -5546,22 +5546,22 @@
         <v>147</v>
       </c>
       <c r="B141">
-        <v>3.961243247063735</v>
+        <v>3.961243247063736</v>
       </c>
       <c r="C141">
         <v>5</v>
       </c>
       <c r="D141">
-        <v>4.187696680546608</v>
+        <v>4.187696680546609</v>
       </c>
       <c r="E141">
-        <v>3.961243247063735</v>
+        <v>3.961243247063736</v>
       </c>
       <c r="F141">
         <v>4</v>
       </c>
       <c r="G141">
-        <v>4.187696680546608</v>
+        <v>4.187696680546609</v>
       </c>
       <c r="H141">
         <v>4</v>
@@ -5572,22 +5572,22 @@
         <v>148</v>
       </c>
       <c r="B142">
-        <v>3.403760829548757</v>
+        <v>3.403760829548758</v>
       </c>
       <c r="C142">
         <v>3</v>
       </c>
       <c r="D142">
-        <v>3.396966442874096</v>
+        <v>3.396966442874097</v>
       </c>
       <c r="E142">
-        <v>3.403760829548757</v>
+        <v>3.403760829548758</v>
       </c>
       <c r="F142">
         <v>3</v>
       </c>
       <c r="G142">
-        <v>3.396966442874096</v>
+        <v>3.396966442874097</v>
       </c>
       <c r="H142">
         <v>3</v>
@@ -5598,22 +5598,22 @@
         <v>149</v>
       </c>
       <c r="B143">
-        <v>3.13447823620314</v>
+        <v>3.134478236203141</v>
       </c>
       <c r="C143">
         <v>3</v>
       </c>
       <c r="D143">
-        <v>3.015017376235543</v>
+        <v>3.015017376235544</v>
       </c>
       <c r="E143">
-        <v>3.13447823620314</v>
+        <v>3.134478236203141</v>
       </c>
       <c r="F143">
         <v>3</v>
       </c>
       <c r="G143">
-        <v>3.015017376235543</v>
+        <v>3.015017376235544</v>
       </c>
       <c r="H143">
         <v>3</v>
@@ -5650,22 +5650,22 @@
         <v>151</v>
       </c>
       <c r="B145">
-        <v>3.425410694250846</v>
+        <v>3.425410694250845</v>
       </c>
       <c r="C145">
         <v>4</v>
       </c>
       <c r="D145">
-        <v>3.427674501323313</v>
+        <v>3.427674501323311</v>
       </c>
       <c r="E145">
-        <v>3.425410694250846</v>
+        <v>3.425410694250845</v>
       </c>
       <c r="F145">
         <v>3</v>
       </c>
       <c r="G145">
-        <v>3.427674501323313</v>
+        <v>3.427674501323311</v>
       </c>
       <c r="H145">
         <v>3</v>
@@ -5682,7 +5682,7 @@
         <v>1</v>
       </c>
       <c r="D146">
-        <v>0.1675039311142373</v>
+        <v>0.1675039311142381</v>
       </c>
       <c r="E146">
         <v>1.126917877862471</v>
@@ -5691,7 +5691,7 @@
         <v>1</v>
       </c>
       <c r="G146">
-        <v>0.50002</v>
+        <v>0.5002</v>
       </c>
       <c r="H146">
         <v>1</v>
@@ -5702,22 +5702,22 @@
         <v>153</v>
       </c>
       <c r="B147">
-        <v>3.011535926902286</v>
+        <v>3.011535926902285</v>
       </c>
       <c r="C147">
         <v>3</v>
       </c>
       <c r="D147">
-        <v>2.840636627355943</v>
+        <v>2.840636627355942</v>
       </c>
       <c r="E147">
-        <v>3.011535926902286</v>
+        <v>3.011535926902285</v>
       </c>
       <c r="F147">
         <v>3</v>
       </c>
       <c r="G147">
-        <v>2.840636627355943</v>
+        <v>2.840636627355942</v>
       </c>
       <c r="H147">
         <v>3</v>
@@ -5728,22 +5728,22 @@
         <v>154</v>
       </c>
       <c r="B148">
-        <v>2.509439343990154</v>
+        <v>2.509439343990155</v>
       </c>
       <c r="C148">
         <v>3</v>
       </c>
       <c r="D148">
-        <v>2.128465376986421</v>
+        <v>2.128465376986423</v>
       </c>
       <c r="E148">
-        <v>2.509439343990154</v>
+        <v>2.509439343990155</v>
       </c>
       <c r="F148">
         <v>3</v>
       </c>
       <c r="G148">
-        <v>2.128465376986421</v>
+        <v>2.128465376986423</v>
       </c>
       <c r="H148">
         <v>2</v>
@@ -5754,22 +5754,22 @@
         <v>155</v>
       </c>
       <c r="B149">
-        <v>3.154134486511052</v>
+        <v>3.154134486511051</v>
       </c>
       <c r="C149">
         <v>4</v>
       </c>
       <c r="D149">
-        <v>3.04289770212458</v>
+        <v>3.042897702124579</v>
       </c>
       <c r="E149">
-        <v>3.154134486511052</v>
+        <v>3.154134486511051</v>
       </c>
       <c r="F149">
         <v>3</v>
       </c>
       <c r="G149">
-        <v>3.04289770212458</v>
+        <v>3.042897702124579</v>
       </c>
       <c r="H149">
         <v>3</v>
@@ -5780,22 +5780,22 @@
         <v>156</v>
       </c>
       <c r="B150">
-        <v>4.319579441145201</v>
+        <v>4.319579441145202</v>
       </c>
       <c r="C150">
         <v>5</v>
       </c>
       <c r="D150">
-        <v>4.695958923463153</v>
+        <v>4.695958923463154</v>
       </c>
       <c r="E150">
-        <v>4.319579441145201</v>
+        <v>4.319579441145202</v>
       </c>
       <c r="F150">
         <v>4</v>
       </c>
       <c r="G150">
-        <v>4.695958923463153</v>
+        <v>4.695958923463154</v>
       </c>
       <c r="H150">
         <v>5</v>
@@ -5806,22 +5806,22 @@
         <v>157</v>
       </c>
       <c r="B151">
-        <v>3.244271565842421</v>
+        <v>3.244271565842422</v>
       </c>
       <c r="C151">
         <v>3</v>
       </c>
       <c r="D151">
-        <v>3.170747678955256</v>
+        <v>3.170747678955257</v>
       </c>
       <c r="E151">
-        <v>3.244271565842421</v>
+        <v>3.244271565842422</v>
       </c>
       <c r="F151">
         <v>3</v>
       </c>
       <c r="G151">
-        <v>3.170747678955256</v>
+        <v>3.170747678955257</v>
       </c>
       <c r="H151">
         <v>3</v>
@@ -5832,22 +5832,22 @@
         <v>158</v>
       </c>
       <c r="B152">
-        <v>2.963277800774888</v>
+        <v>2.963277800774889</v>
       </c>
       <c r="C152">
         <v>3</v>
       </c>
       <c r="D152">
-        <v>2.772187545656749</v>
+        <v>2.77218754565675</v>
       </c>
       <c r="E152">
-        <v>2.963277800774888</v>
+        <v>2.963277800774889</v>
       </c>
       <c r="F152">
         <v>3</v>
       </c>
       <c r="G152">
-        <v>2.772187545656749</v>
+        <v>2.77218754565675</v>
       </c>
       <c r="H152">
         <v>3</v>
@@ -5890,7 +5890,7 @@
         <v>5</v>
       </c>
       <c r="D154">
-        <v>4.562199852677238</v>
+        <v>4.562199852677237</v>
       </c>
       <c r="E154">
         <v>4.225276319051655</v>
@@ -5899,7 +5899,7 @@
         <v>4</v>
       </c>
       <c r="G154">
-        <v>4.562199852677238</v>
+        <v>4.562199852677237</v>
       </c>
       <c r="H154">
         <v>5</v>
@@ -5910,22 +5910,22 @@
         <v>161</v>
       </c>
       <c r="B155">
-        <v>3.638655234947164</v>
+        <v>3.638655234947163</v>
       </c>
       <c r="C155">
         <v>4</v>
       </c>
       <c r="D155">
-        <v>3.7301394778849</v>
+        <v>3.730139477884899</v>
       </c>
       <c r="E155">
-        <v>3.638655234947164</v>
+        <v>3.638655234947163</v>
       </c>
       <c r="F155">
         <v>4</v>
       </c>
       <c r="G155">
-        <v>3.7301394778849</v>
+        <v>3.730139477884899</v>
       </c>
       <c r="H155">
         <v>4</v>
@@ -5936,7 +5936,7 @@
         <v>162</v>
       </c>
       <c r="B156">
-        <v>3.550822289678325</v>
+        <v>3.550822289678326</v>
       </c>
       <c r="C156">
         <v>3</v>
@@ -5945,7 +5945,7 @@
         <v>3.605557673139392</v>
       </c>
       <c r="E156">
-        <v>3.550822289678325</v>
+        <v>3.550822289678326</v>
       </c>
       <c r="F156">
         <v>4</v>
@@ -5962,22 +5962,22 @@
         <v>163</v>
       </c>
       <c r="B157">
-        <v>3.856988187768</v>
+        <v>3.856988187768001</v>
       </c>
       <c r="C157">
         <v>4</v>
       </c>
       <c r="D157">
-        <v>4.039821832433997</v>
+        <v>4.039821832433999</v>
       </c>
       <c r="E157">
-        <v>3.856988187768</v>
+        <v>3.856988187768001</v>
       </c>
       <c r="F157">
         <v>4</v>
       </c>
       <c r="G157">
-        <v>4.039821832433997</v>
+        <v>4.039821832433999</v>
       </c>
       <c r="H157">
         <v>4</v>
@@ -5994,7 +5994,7 @@
         <v>3</v>
       </c>
       <c r="D158">
-        <v>3.528275870269248</v>
+        <v>3.528275870269249</v>
       </c>
       <c r="E158">
         <v>3.496336898528017</v>
@@ -6003,7 +6003,7 @@
         <v>3</v>
       </c>
       <c r="G158">
-        <v>3.528275870269248</v>
+        <v>3.528275870269249</v>
       </c>
       <c r="H158">
         <v>4</v>
@@ -6014,22 +6014,22 @@
         <v>165</v>
       </c>
       <c r="B159">
-        <v>3.885858361358778</v>
+        <v>3.88585836135878</v>
       </c>
       <c r="C159">
         <v>4</v>
       </c>
       <c r="D159">
-        <v>4.080771140444181</v>
+        <v>4.080771140444183</v>
       </c>
       <c r="E159">
-        <v>3.885858361358778</v>
+        <v>3.88585836135878</v>
       </c>
       <c r="F159">
         <v>4</v>
       </c>
       <c r="G159">
-        <v>4.080771140444181</v>
+        <v>4.080771140444183</v>
       </c>
       <c r="H159">
         <v>4</v>
@@ -6040,22 +6040,22 @@
         <v>166</v>
       </c>
       <c r="B160">
-        <v>3.113012220122276</v>
+        <v>3.113012220122275</v>
       </c>
       <c r="C160">
         <v>3</v>
       </c>
       <c r="D160">
-        <v>2.984570087739584</v>
+        <v>2.984570087739582</v>
       </c>
       <c r="E160">
-        <v>3.113012220122276</v>
+        <v>3.113012220122275</v>
       </c>
       <c r="F160">
         <v>3</v>
       </c>
       <c r="G160">
-        <v>2.984570087739584</v>
+        <v>2.984570087739582</v>
       </c>
       <c r="H160">
         <v>3</v>
@@ -6066,22 +6066,22 @@
         <v>167</v>
       </c>
       <c r="B161">
-        <v>3.412317432727284</v>
+        <v>3.412317432727283</v>
       </c>
       <c r="C161">
         <v>4</v>
       </c>
       <c r="D161">
-        <v>3.4091030854882</v>
+        <v>3.409103085488199</v>
       </c>
       <c r="E161">
-        <v>3.412317432727284</v>
+        <v>3.412317432727283</v>
       </c>
       <c r="F161">
         <v>3</v>
       </c>
       <c r="G161">
-        <v>3.4091030854882</v>
+        <v>3.409103085488199</v>
       </c>
       <c r="H161">
         <v>3</v>
@@ -6092,22 +6092,22 @@
         <v>168</v>
       </c>
       <c r="B162">
-        <v>3.200197658479644</v>
+        <v>3.200197658479643</v>
       </c>
       <c r="C162">
         <v>3</v>
       </c>
       <c r="D162">
-        <v>3.108233471961117</v>
+        <v>3.108233471961115</v>
       </c>
       <c r="E162">
-        <v>3.200197658479644</v>
+        <v>3.200197658479643</v>
       </c>
       <c r="F162">
         <v>3</v>
       </c>
       <c r="G162">
-        <v>3.108233471961117</v>
+        <v>3.108233471961115</v>
       </c>
       <c r="H162">
         <v>3</v>
@@ -6118,22 +6118,22 @@
         <v>169</v>
       </c>
       <c r="B163">
-        <v>3.337146099078342</v>
+        <v>3.337146099078341</v>
       </c>
       <c r="C163">
         <v>3</v>
       </c>
       <c r="D163">
-        <v>3.302480446540505</v>
+        <v>3.302480446540504</v>
       </c>
       <c r="E163">
-        <v>3.337146099078342</v>
+        <v>3.337146099078341</v>
       </c>
       <c r="F163">
         <v>3</v>
       </c>
       <c r="G163">
-        <v>3.302480446540505</v>
+        <v>3.302480446540504</v>
       </c>
       <c r="H163">
         <v>3</v>
@@ -6150,7 +6150,7 @@
         <v>6</v>
       </c>
       <c r="D164">
-        <v>5.097708265278789</v>
+        <v>5.097708265278788</v>
       </c>
       <c r="E164">
         <v>4.602821669202237</v>
@@ -6159,7 +6159,7 @@
         <v>5</v>
       </c>
       <c r="G164">
-        <v>5.097708265278789</v>
+        <v>5.097708265278788</v>
       </c>
       <c r="H164">
         <v>5</v>
@@ -6170,22 +6170,22 @@
         <v>171</v>
       </c>
       <c r="B165">
-        <v>4.402585195241571</v>
+        <v>4.402585195241572</v>
       </c>
       <c r="C165">
         <v>4</v>
       </c>
       <c r="D165">
-        <v>4.813693864696605</v>
+        <v>4.813693864696607</v>
       </c>
       <c r="E165">
-        <v>4.402585195241571</v>
+        <v>4.402585195241572</v>
       </c>
       <c r="F165">
         <v>4</v>
       </c>
       <c r="G165">
-        <v>4.813693864696605</v>
+        <v>4.813693864696607</v>
       </c>
       <c r="H165">
         <v>5</v>
@@ -6196,22 +6196,22 @@
         <v>172</v>
       </c>
       <c r="B166">
-        <v>2.625467410578352</v>
+        <v>2.625467410578353</v>
       </c>
       <c r="C166">
         <v>3</v>
       </c>
       <c r="D166">
-        <v>2.293038999019088</v>
+        <v>2.29303899901909</v>
       </c>
       <c r="E166">
-        <v>2.625467410578352</v>
+        <v>2.625467410578353</v>
       </c>
       <c r="F166">
         <v>3</v>
       </c>
       <c r="G166">
-        <v>2.293038999019088</v>
+        <v>2.29303899901909</v>
       </c>
       <c r="H166">
         <v>2</v>
@@ -6222,22 +6222,22 @@
         <v>173</v>
       </c>
       <c r="B167">
-        <v>3.725432935882285</v>
+        <v>3.725432935882284</v>
       </c>
       <c r="C167">
         <v>4</v>
       </c>
       <c r="D167">
-        <v>3.853224529411677</v>
+        <v>3.853224529411674</v>
       </c>
       <c r="E167">
-        <v>3.725432935882285</v>
+        <v>3.725432935882284</v>
       </c>
       <c r="F167">
         <v>4</v>
       </c>
       <c r="G167">
-        <v>3.853224529411677</v>
+        <v>3.853224529411674</v>
       </c>
       <c r="H167">
         <v>4</v>
@@ -6274,22 +6274,22 @@
         <v>175</v>
       </c>
       <c r="B169">
-        <v>4.165646543647723</v>
+        <v>4.165646543647724</v>
       </c>
       <c r="C169">
         <v>3</v>
       </c>
       <c r="D169">
-        <v>4.477621281235129</v>
+        <v>4.47762128123513</v>
       </c>
       <c r="E169">
-        <v>4.165646543647723</v>
+        <v>4.165646543647724</v>
       </c>
       <c r="F169">
         <v>4</v>
       </c>
       <c r="G169">
-        <v>4.477621281235129</v>
+        <v>4.47762128123513</v>
       </c>
       <c r="H169">
         <v>4</v>
@@ -6300,22 +6300,22 @@
         <v>176</v>
       </c>
       <c r="B170">
-        <v>3.808895698278441</v>
+        <v>3.808895698278442</v>
       </c>
       <c r="C170">
         <v>4</v>
       </c>
       <c r="D170">
-        <v>3.971607688903058</v>
+        <v>3.971607688903059</v>
       </c>
       <c r="E170">
-        <v>3.808895698278441</v>
+        <v>3.808895698278442</v>
       </c>
       <c r="F170">
         <v>4</v>
       </c>
       <c r="G170">
-        <v>3.971607688903058</v>
+        <v>3.971607688903059</v>
       </c>
       <c r="H170">
         <v>4</v>
@@ -6384,7 +6384,7 @@
         <v>4</v>
       </c>
       <c r="D173">
-        <v>2.970140267535827</v>
+        <v>2.970140267535828</v>
       </c>
       <c r="E173">
         <v>3.102838875701839</v>
@@ -6393,7 +6393,7 @@
         <v>3</v>
       </c>
       <c r="G173">
-        <v>2.970140267535827</v>
+        <v>2.970140267535828</v>
       </c>
       <c r="H173">
         <v>3</v>
@@ -6404,22 +6404,22 @@
         <v>180</v>
       </c>
       <c r="B174">
-        <v>2.97968908340261</v>
+        <v>2.979689083402609</v>
       </c>
       <c r="C174">
         <v>3</v>
       </c>
       <c r="D174">
-        <v>2.795465225822115</v>
+        <v>2.795465225822114</v>
       </c>
       <c r="E174">
-        <v>2.97968908340261</v>
+        <v>2.979689083402609</v>
       </c>
       <c r="F174">
         <v>3</v>
       </c>
       <c r="G174">
-        <v>2.795465225822115</v>
+        <v>2.795465225822114</v>
       </c>
       <c r="H174">
         <v>3</v>
@@ -6430,22 +6430,22 @@
         <v>181</v>
       </c>
       <c r="B175">
-        <v>2.683583806514017</v>
+        <v>2.683583806514015</v>
       </c>
       <c r="C175">
         <v>2</v>
       </c>
       <c r="D175">
-        <v>2.375471000687811</v>
+        <v>2.375471000687809</v>
       </c>
       <c r="E175">
-        <v>2.683583806514017</v>
+        <v>2.683583806514015</v>
       </c>
       <c r="F175">
         <v>3</v>
       </c>
       <c r="G175">
-        <v>2.375471000687811</v>
+        <v>2.375471000687809</v>
       </c>
       <c r="H175">
         <v>2</v>
@@ -6456,7 +6456,7 @@
         <v>182</v>
       </c>
       <c r="B176">
-        <v>2.999368682345641</v>
+        <v>2.99936868234564</v>
       </c>
       <c r="C176">
         <v>3</v>
@@ -6465,7 +6465,7 @@
         <v>2.823378669296957</v>
       </c>
       <c r="E176">
-        <v>2.999368682345641</v>
+        <v>2.99936868234564</v>
       </c>
       <c r="F176">
         <v>3</v>
@@ -6482,7 +6482,7 @@
         <v>183</v>
       </c>
       <c r="B177">
-        <v>3.574975342549389</v>
+        <v>3.57497534254939</v>
       </c>
       <c r="C177">
         <v>4</v>
@@ -6491,7 +6491,7 @@
         <v>3.639816241010261</v>
       </c>
       <c r="E177">
-        <v>3.574975342549389</v>
+        <v>3.57497534254939</v>
       </c>
       <c r="F177">
         <v>4</v>
@@ -6514,7 +6514,7 @@
         <v>4</v>
       </c>
       <c r="D178">
-        <v>5.093896401511259</v>
+        <v>5.093896401511256</v>
       </c>
       <c r="E178">
         <v>4.600134220402231</v>
@@ -6523,7 +6523,7 @@
         <v>5</v>
       </c>
       <c r="G178">
-        <v>5.093896401511259</v>
+        <v>5.093896401511256</v>
       </c>
       <c r="H178">
         <v>5</v>
@@ -6612,22 +6612,22 @@
         <v>188</v>
       </c>
       <c r="B182">
-        <v>1.43251122179112</v>
+        <v>1.432511221791117</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>0.6009559824865041</v>
+        <v>0.6009559824865023</v>
       </c>
       <c r="E182">
-        <v>1.43251122179112</v>
+        <v>1.432511221791117</v>
       </c>
       <c r="F182">
         <v>1</v>
       </c>
       <c r="G182">
-        <v>0.6009559824865041</v>
+        <v>0.6009559824865023</v>
       </c>
       <c r="H182">
         <v>1</v>
@@ -6638,22 +6638,22 @@
         <v>189</v>
       </c>
       <c r="B183">
-        <v>3.84555249045061</v>
+        <v>3.845552490450611</v>
       </c>
       <c r="C183">
         <v>4</v>
       </c>
       <c r="D183">
-        <v>4.023601497274301</v>
+        <v>4.023601497274302</v>
       </c>
       <c r="E183">
-        <v>3.84555249045061</v>
+        <v>3.845552490450611</v>
       </c>
       <c r="F183">
         <v>4</v>
       </c>
       <c r="G183">
-        <v>4.023601497274301</v>
+        <v>4.023601497274302</v>
       </c>
       <c r="H183">
         <v>4</v>
@@ -6690,22 +6690,22 @@
         <v>191</v>
       </c>
       <c r="B185">
-        <v>3.558263598939397</v>
+        <v>3.558263598939398</v>
       </c>
       <c r="C185">
         <v>4</v>
       </c>
       <c r="D185">
-        <v>3.616112388509305</v>
+        <v>3.616112388509306</v>
       </c>
       <c r="E185">
-        <v>3.558263598939397</v>
+        <v>3.558263598939398</v>
       </c>
       <c r="F185">
         <v>4</v>
       </c>
       <c r="G185">
-        <v>3.616112388509305</v>
+        <v>3.616112388509306</v>
       </c>
       <c r="H185">
         <v>4</v>
@@ -6768,22 +6768,22 @@
         <v>194</v>
       </c>
       <c r="B188">
-        <v>3.181074642927494</v>
+        <v>3.181074642927495</v>
       </c>
       <c r="C188">
         <v>3</v>
       </c>
       <c r="D188">
-        <v>3.081109483549122</v>
+        <v>3.081109483549123</v>
       </c>
       <c r="E188">
-        <v>3.181074642927494</v>
+        <v>3.181074642927495</v>
       </c>
       <c r="F188">
         <v>3</v>
       </c>
       <c r="G188">
-        <v>3.081109483549122</v>
+        <v>3.081109483549123</v>
       </c>
       <c r="H188">
         <v>3</v>
@@ -6826,7 +6826,7 @@
         <v>3</v>
       </c>
       <c r="D190">
-        <v>3.232566556747919</v>
+        <v>3.23256655674792</v>
       </c>
       <c r="E190">
         <v>3.287855250641623</v>
@@ -6835,7 +6835,7 @@
         <v>3</v>
       </c>
       <c r="G190">
-        <v>3.232566556747919</v>
+        <v>3.23256655674792</v>
       </c>
       <c r="H190">
         <v>3</v>
@@ -6846,22 +6846,22 @@
         <v>197</v>
       </c>
       <c r="B191">
-        <v>3.162447250568515</v>
+        <v>3.162447250568514</v>
       </c>
       <c r="C191">
         <v>3</v>
       </c>
       <c r="D191">
-        <v>3.054688484564273</v>
+        <v>3.054688484564272</v>
       </c>
       <c r="E191">
-        <v>3.162447250568515</v>
+        <v>3.162447250568514</v>
       </c>
       <c r="F191">
         <v>3</v>
       </c>
       <c r="G191">
-        <v>3.054688484564273</v>
+        <v>3.054688484564272</v>
       </c>
       <c r="H191">
         <v>3</v>
@@ -6872,22 +6872,22 @@
         <v>198</v>
       </c>
       <c r="B192">
-        <v>4.286862314130261</v>
+        <v>4.286862314130262</v>
       </c>
       <c r="C192">
         <v>4</v>
       </c>
       <c r="D192">
-        <v>4.649553116198764</v>
+        <v>4.649553116198765</v>
       </c>
       <c r="E192">
-        <v>4.286862314130261</v>
+        <v>4.286862314130262</v>
       </c>
       <c r="F192">
         <v>4</v>
       </c>
       <c r="G192">
-        <v>4.649553116198764</v>
+        <v>4.649553116198765</v>
       </c>
       <c r="H192">
         <v>5</v>
@@ -6924,22 +6924,22 @@
         <v>200</v>
       </c>
       <c r="B194">
-        <v>3.141286041437058</v>
+        <v>3.141286041437059</v>
       </c>
       <c r="C194">
         <v>2</v>
       </c>
       <c r="D194">
-        <v>3.024673532701679</v>
+        <v>3.02467353270168</v>
       </c>
       <c r="E194">
-        <v>3.141286041437058</v>
+        <v>3.141286041437059</v>
       </c>
       <c r="F194">
         <v>3</v>
       </c>
       <c r="G194">
-        <v>3.024673532701679</v>
+        <v>3.02467353270168</v>
       </c>
       <c r="H194">
         <v>3</v>
@@ -6950,22 +6950,22 @@
         <v>201</v>
       </c>
       <c r="B195">
-        <v>3.844084781044183</v>
+        <v>3.844084781044184</v>
       </c>
       <c r="C195">
         <v>4</v>
       </c>
       <c r="D195">
-        <v>4.021519705685337</v>
+        <v>4.021519705685338</v>
       </c>
       <c r="E195">
-        <v>3.844084781044183</v>
+        <v>3.844084781044184</v>
       </c>
       <c r="F195">
         <v>4</v>
       </c>
       <c r="G195">
-        <v>4.021519705685337</v>
+        <v>4.021519705685338</v>
       </c>
       <c r="H195">
         <v>4</v>
@@ -6976,7 +6976,7 @@
         <v>202</v>
       </c>
       <c r="B196">
-        <v>2.481611504112524</v>
+        <v>2.481611504112522</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -6985,7 +6985,7 @@
         <v>2.088994509836139</v>
       </c>
       <c r="E196">
-        <v>2.481611504112524</v>
+        <v>2.481611504112522</v>
       </c>
       <c r="F196">
         <v>2</v>
@@ -7002,22 +7002,22 @@
         <v>203</v>
       </c>
       <c r="B197">
-        <v>2.690936091539359</v>
+        <v>2.690936091539357</v>
       </c>
       <c r="C197">
         <v>3</v>
       </c>
       <c r="D197">
-        <v>2.385899444532622</v>
+        <v>2.385899444532621</v>
       </c>
       <c r="E197">
-        <v>2.690936091539359</v>
+        <v>2.690936091539357</v>
       </c>
       <c r="F197">
         <v>3</v>
       </c>
       <c r="G197">
-        <v>2.385899444532622</v>
+        <v>2.385899444532621</v>
       </c>
       <c r="H197">
         <v>2</v>
@@ -7028,7 +7028,7 @@
         <v>204</v>
       </c>
       <c r="B198">
-        <v>3.297335865167101</v>
+        <v>3.2973358651671</v>
       </c>
       <c r="C198">
         <v>3</v>
@@ -7037,7 +7037,7 @@
         <v>3.246013812376947</v>
       </c>
       <c r="E198">
-        <v>3.297335865167101</v>
+        <v>3.2973358651671</v>
       </c>
       <c r="F198">
         <v>3</v>
@@ -7054,22 +7054,22 @@
         <v>205</v>
       </c>
       <c r="B199">
-        <v>2.639268517297381</v>
+        <v>2.639268517297382</v>
       </c>
       <c r="C199">
         <v>4</v>
       </c>
       <c r="D199">
-        <v>2.312614418894619</v>
+        <v>2.312614418894621</v>
       </c>
       <c r="E199">
-        <v>2.639268517297381</v>
+        <v>2.639268517297382</v>
       </c>
       <c r="F199">
         <v>3</v>
       </c>
       <c r="G199">
-        <v>2.312614418894619</v>
+        <v>2.312614418894621</v>
       </c>
       <c r="H199">
         <v>2</v>
@@ -7086,7 +7086,7 @@
         <v>3</v>
       </c>
       <c r="D200">
-        <v>3.655523918107753</v>
+        <v>3.655523918107755</v>
       </c>
       <c r="E200">
         <v>3.58604960452226</v>
@@ -7095,7 +7095,7 @@
         <v>4</v>
       </c>
       <c r="G200">
-        <v>3.655523918107753</v>
+        <v>3.655523918107755</v>
       </c>
       <c r="H200">
         <v>4</v>
@@ -7106,22 +7106,22 @@
         <v>207</v>
       </c>
       <c r="B201">
-        <v>3.211574932621429</v>
+        <v>3.211574932621428</v>
       </c>
       <c r="C201">
         <v>4</v>
       </c>
       <c r="D201">
-        <v>3.124370939984415</v>
+        <v>3.124370939984413</v>
       </c>
       <c r="E201">
-        <v>3.211574932621429</v>
+        <v>3.211574932621428</v>
       </c>
       <c r="F201">
         <v>3</v>
       </c>
       <c r="G201">
-        <v>3.124370939984415</v>
+        <v>3.124370939984413</v>
       </c>
       <c r="H201">
         <v>3</v>
@@ -7132,22 +7132,22 @@
         <v>208</v>
       </c>
       <c r="B202">
-        <v>3.487931887595741</v>
+        <v>3.487931887595742</v>
       </c>
       <c r="C202">
         <v>3</v>
       </c>
       <c r="D202">
-        <v>3.516354245329499</v>
+        <v>3.5163542453295</v>
       </c>
       <c r="E202">
-        <v>3.487931887595741</v>
+        <v>3.487931887595742</v>
       </c>
       <c r="F202">
         <v>3</v>
       </c>
       <c r="G202">
-        <v>3.516354245329499</v>
+        <v>3.5163542453295</v>
       </c>
       <c r="H202">
         <v>4</v>
@@ -7158,22 +7158,22 @@
         <v>209</v>
       </c>
       <c r="B203">
-        <v>3.673684381747323</v>
+        <v>3.673684381747322</v>
       </c>
       <c r="C203">
         <v>4</v>
       </c>
       <c r="D203">
-        <v>3.779824642303581</v>
+        <v>3.77982464230358</v>
       </c>
       <c r="E203">
-        <v>3.673684381747323</v>
+        <v>3.673684381747322</v>
       </c>
       <c r="F203">
         <v>4</v>
       </c>
       <c r="G203">
-        <v>3.779824642303581</v>
+        <v>3.77982464230358</v>
       </c>
       <c r="H203">
         <v>4</v>
@@ -7210,22 +7210,22 @@
         <v>211</v>
       </c>
       <c r="B205">
-        <v>2.947534306560051</v>
+        <v>2.947534306560052</v>
       </c>
       <c r="C205">
         <v>3</v>
       </c>
       <c r="D205">
-        <v>2.749857053194249</v>
+        <v>2.749857053194251</v>
       </c>
       <c r="E205">
-        <v>2.947534306560051</v>
+        <v>2.947534306560052</v>
       </c>
       <c r="F205">
         <v>3</v>
       </c>
       <c r="G205">
-        <v>2.749857053194249</v>
+        <v>2.749857053194251</v>
       </c>
       <c r="H205">
         <v>3</v>
@@ -7236,22 +7236,22 @@
         <v>212</v>
       </c>
       <c r="B206">
-        <v>3.385904293516621</v>
+        <v>3.38590429351662</v>
       </c>
       <c r="C206">
         <v>3</v>
       </c>
       <c r="D206">
-        <v>3.371638822599293</v>
+        <v>3.371638822599291</v>
       </c>
       <c r="E206">
-        <v>3.385904293516621</v>
+        <v>3.38590429351662</v>
       </c>
       <c r="F206">
         <v>3</v>
       </c>
       <c r="G206">
-        <v>3.371638822599293</v>
+        <v>3.371638822599291</v>
       </c>
       <c r="H206">
         <v>3</v>
@@ -7268,7 +7268,7 @@
         <v>4</v>
       </c>
       <c r="D207">
-        <v>4.017814120541863</v>
+        <v>4.017814120541862</v>
       </c>
       <c r="E207">
         <v>3.841472261039672</v>
@@ -7277,7 +7277,7 @@
         <v>4</v>
       </c>
       <c r="G207">
-        <v>4.017814120541863</v>
+        <v>4.017814120541862</v>
       </c>
       <c r="H207">
         <v>4</v>
@@ -7294,7 +7294,7 @@
         <v>3</v>
       </c>
       <c r="D208">
-        <v>3.648881058331011</v>
+        <v>3.648881058331012</v>
       </c>
       <c r="E208">
         <v>3.581366240523873</v>
@@ -7303,7 +7303,7 @@
         <v>4</v>
       </c>
       <c r="G208">
-        <v>3.648881058331011</v>
+        <v>3.648881058331012</v>
       </c>
       <c r="H208">
         <v>4</v>
@@ -7314,22 +7314,22 @@
         <v>215</v>
       </c>
       <c r="B209">
-        <v>3.374132145753195</v>
+        <v>3.374132145753194</v>
       </c>
       <c r="C209">
         <v>3</v>
       </c>
       <c r="D209">
-        <v>3.354941267830869</v>
+        <v>3.354941267830868</v>
       </c>
       <c r="E209">
-        <v>3.374132145753195</v>
+        <v>3.374132145753194</v>
       </c>
       <c r="F209">
         <v>3</v>
       </c>
       <c r="G209">
-        <v>3.354941267830869</v>
+        <v>3.354941267830868</v>
       </c>
       <c r="H209">
         <v>3</v>
@@ -7340,7 +7340,7 @@
         <v>216</v>
       </c>
       <c r="B210">
-        <v>3.022402657677174</v>
+        <v>3.022402657677173</v>
       </c>
       <c r="C210">
         <v>3</v>
@@ -7349,7 +7349,7 @@
         <v>2.856049943253245</v>
       </c>
       <c r="E210">
-        <v>3.022402657677174</v>
+        <v>3.022402657677173</v>
       </c>
       <c r="F210">
         <v>3</v>
@@ -7392,22 +7392,22 @@
         <v>218</v>
       </c>
       <c r="B212">
-        <v>4.027231567613184</v>
+        <v>4.027231567613185</v>
       </c>
       <c r="C212">
         <v>3</v>
       </c>
       <c r="D212">
-        <v>4.281294180220709</v>
+        <v>4.281294180220711</v>
       </c>
       <c r="E212">
-        <v>4.027231567613184</v>
+        <v>4.027231567613185</v>
       </c>
       <c r="F212">
         <v>4</v>
       </c>
       <c r="G212">
-        <v>4.281294180220709</v>
+        <v>4.281294180220711</v>
       </c>
       <c r="H212">
         <v>4</v>
@@ -7450,7 +7450,7 @@
         <v>3</v>
       </c>
       <c r="D214">
-        <v>3.508064300474104</v>
+        <v>3.508064300474103</v>
       </c>
       <c r="E214">
         <v>3.48208729195633</v>
@@ -7459,7 +7459,7 @@
         <v>3</v>
       </c>
       <c r="G214">
-        <v>3.508064300474104</v>
+        <v>3.508064300474103</v>
       </c>
       <c r="H214">
         <v>4</v>
@@ -7470,7 +7470,7 @@
         <v>221</v>
       </c>
       <c r="B215">
-        <v>4.041068661958994</v>
+        <v>4.041068661958993</v>
       </c>
       <c r="C215">
         <v>4</v>
@@ -7479,7 +7479,7 @@
         <v>4.300920644763806</v>
       </c>
       <c r="E215">
-        <v>4.041068661958994</v>
+        <v>4.041068661958993</v>
       </c>
       <c r="F215">
         <v>4</v>
@@ -7496,22 +7496,22 @@
         <v>222</v>
       </c>
       <c r="B216">
-        <v>2.462423644561356</v>
+        <v>2.462423644561354</v>
       </c>
       <c r="C216">
         <v>2</v>
       </c>
       <c r="D216">
-        <v>2.061778547024337</v>
+        <v>2.061778547024335</v>
       </c>
       <c r="E216">
-        <v>2.462423644561356</v>
+        <v>2.462423644561354</v>
       </c>
       <c r="F216">
         <v>2</v>
       </c>
       <c r="G216">
-        <v>2.061778547024337</v>
+        <v>2.061778547024335</v>
       </c>
       <c r="H216">
         <v>2</v>
@@ -7528,7 +7528,7 @@
         <v>3</v>
       </c>
       <c r="D217">
-        <v>3.374675123326274</v>
+        <v>3.374675123326275</v>
       </c>
       <c r="E217">
         <v>3.388044953110672</v>
@@ -7537,7 +7537,7 @@
         <v>3</v>
       </c>
       <c r="G217">
-        <v>3.374675123326274</v>
+        <v>3.374675123326275</v>
       </c>
       <c r="H217">
         <v>3</v>
@@ -7548,7 +7548,7 @@
         <v>224</v>
       </c>
       <c r="B218">
-        <v>3.635131589754898</v>
+        <v>3.635131589754899</v>
       </c>
       <c r="C218">
         <v>3</v>
@@ -7557,7 +7557,7 @@
         <v>3.725141557389446</v>
       </c>
       <c r="E218">
-        <v>3.635131589754898</v>
+        <v>3.635131589754899</v>
       </c>
       <c r="F218">
         <v>4</v>
@@ -7574,22 +7574,22 @@
         <v>225</v>
       </c>
       <c r="B219">
-        <v>4.315401641024209</v>
+        <v>4.31540164102421</v>
       </c>
       <c r="C219">
         <v>4</v>
       </c>
       <c r="D219">
-        <v>4.690033152929715</v>
+        <v>4.690033152929716</v>
       </c>
       <c r="E219">
-        <v>4.315401641024209</v>
+        <v>4.31540164102421</v>
       </c>
       <c r="F219">
         <v>4</v>
       </c>
       <c r="G219">
-        <v>4.690033152929715</v>
+        <v>4.690033152929716</v>
       </c>
       <c r="H219">
         <v>5</v>
@@ -7600,22 +7600,22 @@
         <v>226</v>
       </c>
       <c r="B220">
-        <v>2.895185549536532</v>
+        <v>2.895185549536533</v>
       </c>
       <c r="C220">
         <v>3</v>
       </c>
       <c r="D220">
-        <v>2.67560584134871</v>
+        <v>2.675605841348712</v>
       </c>
       <c r="E220">
-        <v>2.895185549536532</v>
+        <v>2.895185549536533</v>
       </c>
       <c r="F220">
         <v>3</v>
       </c>
       <c r="G220">
-        <v>2.67560584134871</v>
+        <v>2.675605841348712</v>
       </c>
       <c r="H220">
         <v>3</v>
@@ -7626,22 +7626,22 @@
         <v>227</v>
       </c>
       <c r="B221">
-        <v>2.852742432277512</v>
+        <v>2.85274243227751</v>
       </c>
       <c r="C221">
         <v>3</v>
       </c>
       <c r="D221">
-        <v>2.615404738778716</v>
+        <v>2.615404738778714</v>
       </c>
       <c r="E221">
-        <v>2.852742432277512</v>
+        <v>2.85274243227751</v>
       </c>
       <c r="F221">
         <v>3</v>
       </c>
       <c r="G221">
-        <v>2.615404738778716</v>
+        <v>2.615404738778714</v>
       </c>
       <c r="H221">
         <v>3</v>
@@ -7652,22 +7652,22 @@
         <v>228</v>
       </c>
       <c r="B222">
-        <v>3.316295319566413</v>
+        <v>3.316295319566414</v>
       </c>
       <c r="C222">
         <v>3</v>
       </c>
       <c r="D222">
-        <v>3.2729058064781</v>
+        <v>3.272905806478102</v>
       </c>
       <c r="E222">
-        <v>3.316295319566413</v>
+        <v>3.316295319566414</v>
       </c>
       <c r="F222">
         <v>3</v>
       </c>
       <c r="G222">
-        <v>3.2729058064781</v>
+        <v>3.272905806478102</v>
       </c>
       <c r="H222">
         <v>3</v>
@@ -7684,7 +7684,7 @@
         <v>3</v>
       </c>
       <c r="D223">
-        <v>2.475725271942388</v>
+        <v>2.475725271942389</v>
       </c>
       <c r="E223">
         <v>2.754265299193132</v>
@@ -7693,7 +7693,7 @@
         <v>3</v>
       </c>
       <c r="G223">
-        <v>2.475725271942388</v>
+        <v>2.475725271942389</v>
       </c>
       <c r="H223">
         <v>2</v>
@@ -7704,22 +7704,22 @@
         <v>230</v>
       </c>
       <c r="B224">
-        <v>3.538316512289815</v>
+        <v>3.538316512289814</v>
       </c>
       <c r="C224">
         <v>3</v>
       </c>
       <c r="D224">
-        <v>3.587819541826163</v>
+        <v>3.587819541826162</v>
       </c>
       <c r="E224">
-        <v>3.538316512289815</v>
+        <v>3.538316512289814</v>
       </c>
       <c r="F224">
         <v>4</v>
       </c>
       <c r="G224">
-        <v>3.587819541826163</v>
+        <v>3.587819541826162</v>
       </c>
       <c r="H224">
         <v>4</v>
@@ -7730,22 +7730,22 @@
         <v>231</v>
       </c>
       <c r="B225">
-        <v>3.899196402333407</v>
+        <v>3.899196402333406</v>
       </c>
       <c r="C225">
         <v>4</v>
       </c>
       <c r="D225">
-        <v>4.099689750213019</v>
+        <v>4.099689750213017</v>
       </c>
       <c r="E225">
-        <v>3.899196402333407</v>
+        <v>3.899196402333406</v>
       </c>
       <c r="F225">
         <v>4</v>
       </c>
       <c r="G225">
-        <v>4.099689750213019</v>
+        <v>4.099689750213017</v>
       </c>
       <c r="H225">
         <v>4</v>
@@ -7814,7 +7814,7 @@
         <v>4</v>
       </c>
       <c r="D228">
-        <v>4.069576323213674</v>
+        <v>4.069576323213673</v>
       </c>
       <c r="E228">
         <v>3.877965766038696</v>
@@ -7823,7 +7823,7 @@
         <v>4</v>
       </c>
       <c r="G228">
-        <v>4.069576323213674</v>
+        <v>4.069576323213673</v>
       </c>
       <c r="H228">
         <v>4</v>
@@ -7840,7 +7840,7 @@
         <v>4</v>
       </c>
       <c r="D229">
-        <v>4.058890675725721</v>
+        <v>4.05889067572572</v>
       </c>
       <c r="E229">
         <v>3.870432146720139</v>
@@ -7849,7 +7849,7 @@
         <v>4</v>
       </c>
       <c r="G229">
-        <v>4.058890675725721</v>
+        <v>4.05889067572572</v>
       </c>
       <c r="H229">
         <v>4</v>
@@ -7860,22 +7860,22 @@
         <v>236</v>
       </c>
       <c r="B230">
-        <v>3.585753939056131</v>
+        <v>3.585753939056132</v>
       </c>
       <c r="C230">
         <v>4</v>
       </c>
       <c r="D230">
-        <v>3.655104547707975</v>
+        <v>3.655104547707976</v>
       </c>
       <c r="E230">
-        <v>3.585753939056131</v>
+        <v>3.585753939056132</v>
       </c>
       <c r="F230">
         <v>4</v>
       </c>
       <c r="G230">
-        <v>3.655104547707975</v>
+        <v>3.655104547707976</v>
       </c>
       <c r="H230">
         <v>4</v>
@@ -7886,22 +7886,22 @@
         <v>237</v>
       </c>
       <c r="B231">
-        <v>4.229119100420641</v>
+        <v>4.229119100420642</v>
       </c>
       <c r="C231">
         <v>4</v>
       </c>
       <c r="D231">
-        <v>4.56765043430951</v>
+        <v>4.567650434309511</v>
       </c>
       <c r="E231">
-        <v>4.229119100420641</v>
+        <v>4.229119100420642</v>
       </c>
       <c r="F231">
         <v>4</v>
       </c>
       <c r="G231">
-        <v>4.56765043430951</v>
+        <v>4.567650434309511</v>
       </c>
       <c r="H231">
         <v>5</v>
@@ -7912,22 +7912,22 @@
         <v>238</v>
       </c>
       <c r="B232">
-        <v>3.178675497683867</v>
+        <v>3.178675497683866</v>
       </c>
       <c r="C232">
         <v>4</v>
       </c>
       <c r="D232">
-        <v>3.077706548085865</v>
+        <v>3.077706548085863</v>
       </c>
       <c r="E232">
-        <v>3.178675497683867</v>
+        <v>3.178675497683866</v>
       </c>
       <c r="F232">
         <v>3</v>
       </c>
       <c r="G232">
-        <v>3.077706548085865</v>
+        <v>3.077706548085863</v>
       </c>
       <c r="H232">
         <v>3</v>
@@ -7938,22 +7938,22 @@
         <v>239</v>
       </c>
       <c r="B233">
-        <v>3.952232931775882</v>
+        <v>3.952232931775883</v>
       </c>
       <c r="C233">
         <v>4</v>
       </c>
       <c r="D233">
-        <v>4.174916494974428</v>
+        <v>4.174916494974429</v>
       </c>
       <c r="E233">
-        <v>3.952232931775882</v>
+        <v>3.952232931775883</v>
       </c>
       <c r="F233">
         <v>4</v>
       </c>
       <c r="G233">
-        <v>4.174916494974428</v>
+        <v>4.174916494974429</v>
       </c>
       <c r="H233">
         <v>4</v>
@@ -7964,7 +7964,7 @@
         <v>240</v>
       </c>
       <c r="B234">
-        <v>2.635498736416361</v>
+        <v>2.63549873641636</v>
       </c>
       <c r="C234">
         <v>3</v>
@@ -7973,7 +7973,7 @@
         <v>2.307267380784771</v>
       </c>
       <c r="E234">
-        <v>2.635498736416361</v>
+        <v>2.63549873641636</v>
       </c>
       <c r="F234">
         <v>3</v>
@@ -8042,22 +8042,22 @@
         <v>243</v>
       </c>
       <c r="B237">
-        <v>3.064497323121397</v>
+        <v>3.064497323121396</v>
       </c>
       <c r="C237">
         <v>3</v>
       </c>
       <c r="D237">
-        <v>2.915756803533842</v>
+        <v>2.915756803533839</v>
       </c>
       <c r="E237">
-        <v>3.064497323121397</v>
+        <v>3.064497323121396</v>
       </c>
       <c r="F237">
         <v>3</v>
       </c>
       <c r="G237">
-        <v>2.915756803533842</v>
+        <v>2.915756803533839</v>
       </c>
       <c r="H237">
         <v>3</v>
@@ -8068,22 +8068,22 @@
         <v>244</v>
       </c>
       <c r="B238">
-        <v>2.969333140532171</v>
+        <v>2.96933314053217</v>
       </c>
       <c r="C238">
         <v>3</v>
       </c>
       <c r="D238">
-        <v>2.780776408901633</v>
+        <v>2.780776408901632</v>
       </c>
       <c r="E238">
-        <v>2.969333140532171</v>
+        <v>2.96933314053217</v>
       </c>
       <c r="F238">
         <v>3</v>
       </c>
       <c r="G238">
-        <v>2.780776408901633</v>
+        <v>2.780776408901632</v>
       </c>
       <c r="H238">
         <v>3</v>
@@ -8094,7 +8094,7 @@
         <v>245</v>
       </c>
       <c r="B239">
-        <v>3.727724946898625</v>
+        <v>3.727724946898626</v>
       </c>
       <c r="C239">
         <v>4</v>
@@ -8103,7 +8103,7 @@
         <v>3.856475506229523</v>
       </c>
       <c r="E239">
-        <v>3.727724946898625</v>
+        <v>3.727724946898626</v>
       </c>
       <c r="F239">
         <v>4</v>
@@ -8120,22 +8120,22 @@
         <v>246</v>
       </c>
       <c r="B240">
-        <v>3.828924420106109</v>
+        <v>3.82892442010611</v>
       </c>
       <c r="C240">
         <v>3</v>
       </c>
       <c r="D240">
-        <v>4.00001632650936</v>
+        <v>4.000016326509361</v>
       </c>
       <c r="E240">
-        <v>3.828924420106109</v>
+        <v>3.82892442010611</v>
       </c>
       <c r="F240">
         <v>4</v>
       </c>
       <c r="G240">
-        <v>4.00001632650936</v>
+        <v>4.000016326509361</v>
       </c>
       <c r="H240">
         <v>4</v>
@@ -8146,22 +8146,22 @@
         <v>247</v>
       </c>
       <c r="B241">
-        <v>3.887718990362915</v>
+        <v>3.887718990362916</v>
       </c>
       <c r="C241">
         <v>5</v>
       </c>
       <c r="D241">
-        <v>4.083410247200623</v>
+        <v>4.083410247200624</v>
       </c>
       <c r="E241">
-        <v>3.887718990362915</v>
+        <v>3.887718990362916</v>
       </c>
       <c r="F241">
         <v>4</v>
       </c>
       <c r="G241">
-        <v>4.083410247200623</v>
+        <v>4.083410247200624</v>
       </c>
       <c r="H241">
         <v>4</v>
@@ -8172,22 +8172,22 @@
         <v>248</v>
       </c>
       <c r="B242">
-        <v>3.45287787339778</v>
+        <v>3.452877873397781</v>
       </c>
       <c r="C242">
         <v>3</v>
       </c>
       <c r="D242">
-        <v>3.466633809119716</v>
+        <v>3.466633809119717</v>
       </c>
       <c r="E242">
-        <v>3.45287787339778</v>
+        <v>3.452877873397781</v>
       </c>
       <c r="F242">
         <v>3</v>
       </c>
       <c r="G242">
-        <v>3.466633809119716</v>
+        <v>3.466633809119717</v>
       </c>
       <c r="H242">
         <v>3</v>
@@ -8224,22 +8224,22 @@
         <v>250</v>
       </c>
       <c r="B244">
-        <v>3.074013182309073</v>
+        <v>3.074013182309074</v>
       </c>
       <c r="C244">
         <v>4</v>
       </c>
       <c r="D244">
-        <v>2.929254050013238</v>
+        <v>2.929254050013239</v>
       </c>
       <c r="E244">
-        <v>3.074013182309073</v>
+        <v>3.074013182309074</v>
       </c>
       <c r="F244">
         <v>3</v>
       </c>
       <c r="G244">
-        <v>2.929254050013238</v>
+        <v>2.929254050013239</v>
       </c>
       <c r="H244">
         <v>3</v>
@@ -8256,7 +8256,7 @@
         <v>4</v>
       </c>
       <c r="D245">
-        <v>3.323825698999754</v>
+        <v>3.323825698999753</v>
       </c>
       <c r="E245">
         <v>3.352194977161562</v>
@@ -8265,7 +8265,7 @@
         <v>3</v>
       </c>
       <c r="G245">
-        <v>3.323825698999754</v>
+        <v>3.323825698999753</v>
       </c>
       <c r="H245">
         <v>3</v>
@@ -8276,22 +8276,22 @@
         <v>252</v>
       </c>
       <c r="B246">
-        <v>1.359263620542163</v>
+        <v>1.359263620542161</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>0.4970619558323399</v>
+        <v>0.4970619558323386</v>
       </c>
       <c r="E246">
-        <v>1.359263620542163</v>
+        <v>1.359263620542161</v>
       </c>
       <c r="F246">
         <v>1</v>
       </c>
       <c r="G246">
-        <v>0.50002</v>
+        <v>0.5002</v>
       </c>
       <c r="H246">
         <v>1</v>
@@ -8308,7 +8308,7 @@
         <v>3</v>
       </c>
       <c r="D247">
-        <v>2.764519159183605</v>
+        <v>2.764519159183606</v>
       </c>
       <c r="E247">
         <v>2.957871417629518</v>
@@ -8317,7 +8317,7 @@
         <v>3</v>
       </c>
       <c r="G247">
-        <v>2.764519159183605</v>
+        <v>2.764519159183606</v>
       </c>
       <c r="H247">
         <v>3</v>
@@ -8328,7 +8328,7 @@
         <v>254</v>
       </c>
       <c r="B248">
-        <v>2.673444328802825</v>
+        <v>2.673444328802824</v>
       </c>
       <c r="C248">
         <v>3</v>
@@ -8337,7 +8337,7 @@
         <v>2.361089216852932</v>
       </c>
       <c r="E248">
-        <v>2.673444328802825</v>
+        <v>2.673444328802824</v>
       </c>
       <c r="F248">
         <v>3</v>
@@ -8354,22 +8354,22 @@
         <v>255</v>
       </c>
       <c r="B249">
-        <v>3.155090279528085</v>
+        <v>3.155090279528084</v>
       </c>
       <c r="C249">
         <v>4</v>
       </c>
       <c r="D249">
-        <v>3.044253394099392</v>
+        <v>3.044253394099391</v>
       </c>
       <c r="E249">
-        <v>3.155090279528085</v>
+        <v>3.155090279528084</v>
       </c>
       <c r="F249">
         <v>3</v>
       </c>
       <c r="G249">
-        <v>3.044253394099392</v>
+        <v>3.044253394099391</v>
       </c>
       <c r="H249">
         <v>3</v>
@@ -8386,7 +8386,7 @@
         <v>5</v>
       </c>
       <c r="D250">
-        <v>4.815481006798557</v>
+        <v>4.815481006798556</v>
       </c>
       <c r="E250">
         <v>4.403845170201389</v>
@@ -8395,7 +8395,7 @@
         <v>4</v>
       </c>
       <c r="G250">
-        <v>4.815481006798557</v>
+        <v>4.815481006798556</v>
       </c>
       <c r="H250">
         <v>5</v>
@@ -8432,22 +8432,22 @@
         <v>258</v>
       </c>
       <c r="B252">
-        <v>2.916132065149442</v>
+        <v>2.916132065149443</v>
       </c>
       <c r="C252">
         <v>3</v>
       </c>
       <c r="D252">
-        <v>2.705316273011898</v>
+        <v>2.7053162730119</v>
       </c>
       <c r="E252">
-        <v>2.916132065149442</v>
+        <v>2.916132065149443</v>
       </c>
       <c r="F252">
         <v>3</v>
       </c>
       <c r="G252">
-        <v>2.705316273011898</v>
+        <v>2.7053162730119</v>
       </c>
       <c r="H252">
         <v>3</v>
@@ -8458,22 +8458,22 @@
         <v>259</v>
       </c>
       <c r="B253">
-        <v>3.39541499626773</v>
+        <v>3.395414996267731</v>
       </c>
       <c r="C253">
         <v>3</v>
       </c>
       <c r="D253">
-        <v>3.385128755215177</v>
+        <v>3.385128755215178</v>
       </c>
       <c r="E253">
-        <v>3.39541499626773</v>
+        <v>3.395414996267731</v>
       </c>
       <c r="F253">
         <v>3</v>
       </c>
       <c r="G253">
-        <v>3.385128755215177</v>
+        <v>3.385128755215178</v>
       </c>
       <c r="H253">
         <v>3</v>
@@ -8490,7 +8490,7 @@
         <v>5</v>
       </c>
       <c r="D254">
-        <v>4.745001313240998</v>
+        <v>4.745001313240997</v>
       </c>
       <c r="E254">
         <v>4.354155417516789</v>
@@ -8499,7 +8499,7 @@
         <v>4</v>
       </c>
       <c r="G254">
-        <v>4.745001313240998</v>
+        <v>4.745001313240997</v>
       </c>
       <c r="H254">
         <v>5</v>
@@ -8516,7 +8516,7 @@
         <v>4</v>
       </c>
       <c r="D255">
-        <v>3.747156694719409</v>
+        <v>3.747156694719408</v>
       </c>
       <c r="E255">
         <v>3.65065275158217</v>
@@ -8525,7 +8525,7 @@
         <v>4</v>
       </c>
       <c r="G255">
-        <v>3.747156694719409</v>
+        <v>3.747156694719408</v>
       </c>
       <c r="H255">
         <v>4</v>
@@ -8536,22 +8536,22 @@
         <v>262</v>
       </c>
       <c r="B256">
-        <v>3.681096172314354</v>
+        <v>3.681096172314353</v>
       </c>
       <c r="C256">
         <v>3</v>
       </c>
       <c r="D256">
-        <v>3.790337488507362</v>
+        <v>3.79033748850736</v>
       </c>
       <c r="E256">
-        <v>3.681096172314354</v>
+        <v>3.681096172314353</v>
       </c>
       <c r="F256">
         <v>4</v>
       </c>
       <c r="G256">
-        <v>3.790337488507362</v>
+        <v>3.79033748850736</v>
       </c>
       <c r="H256">
         <v>4</v>
@@ -8562,22 +8562,22 @@
         <v>263</v>
       </c>
       <c r="B257">
-        <v>3.864618036348793</v>
+        <v>3.864618036348795</v>
       </c>
       <c r="C257">
         <v>4</v>
       </c>
       <c r="D257">
-        <v>4.050643971020161</v>
+        <v>4.050643971020162</v>
       </c>
       <c r="E257">
-        <v>3.864618036348793</v>
+        <v>3.864618036348795</v>
       </c>
       <c r="F257">
         <v>4</v>
       </c>
       <c r="G257">
-        <v>4.050643971020161</v>
+        <v>4.050643971020162</v>
       </c>
       <c r="H257">
         <v>4</v>
@@ -8646,7 +8646,7 @@
         <v>3</v>
       </c>
       <c r="D260">
-        <v>2.841440998080618</v>
+        <v>2.841440998080617</v>
       </c>
       <c r="E260">
         <v>3.012103026166745</v>
@@ -8655,7 +8655,7 @@
         <v>3</v>
       </c>
       <c r="G260">
-        <v>2.841440998080618</v>
+        <v>2.841440998080617</v>
       </c>
       <c r="H260">
         <v>3</v>
@@ -8666,22 +8666,22 @@
         <v>267</v>
       </c>
       <c r="B261">
-        <v>3.482889562398891</v>
+        <v>3.48288956239889</v>
       </c>
       <c r="C261">
         <v>4</v>
       </c>
       <c r="D261">
-        <v>3.50920223680679</v>
+        <v>3.509202236806789</v>
       </c>
       <c r="E261">
-        <v>3.482889562398891</v>
+        <v>3.48288956239889</v>
       </c>
       <c r="F261">
         <v>3</v>
       </c>
       <c r="G261">
-        <v>3.50920223680679</v>
+        <v>3.509202236806789</v>
       </c>
       <c r="H261">
         <v>4</v>
@@ -8698,7 +8698,7 @@
         <v>3</v>
       </c>
       <c r="D262">
-        <v>3.107845921129749</v>
+        <v>3.107845921129748</v>
       </c>
       <c r="E262">
         <v>3.199924426517481</v>
@@ -8707,7 +8707,7 @@
         <v>3</v>
       </c>
       <c r="G262">
-        <v>3.107845921129749</v>
+        <v>3.107845921129748</v>
       </c>
       <c r="H262">
         <v>3</v>
@@ -8724,7 +8724,7 @@
         <v>3</v>
       </c>
       <c r="D263">
-        <v>3.089742192289857</v>
+        <v>3.089742192289856</v>
       </c>
       <c r="E263">
         <v>3.187160894735257</v>
@@ -8733,7 +8733,7 @@
         <v>3</v>
       </c>
       <c r="G263">
-        <v>3.089742192289857</v>
+        <v>3.089742192289856</v>
       </c>
       <c r="H263">
         <v>3</v>
@@ -8750,7 +8750,7 @@
         <v>6</v>
       </c>
       <c r="D264">
-        <v>5.247835365246756</v>
+        <v>5.247835365246755</v>
       </c>
       <c r="E264">
         <v>4.708664616186285</v>
@@ -8759,7 +8759,7 @@
         <v>5</v>
       </c>
       <c r="G264">
-        <v>5.247835365246756</v>
+        <v>5.247835365246755</v>
       </c>
       <c r="H264">
         <v>5</v>
@@ -8770,22 +8770,22 @@
         <v>271</v>
       </c>
       <c r="B265">
-        <v>4.401644944527156</v>
+        <v>4.401644944527158</v>
       </c>
       <c r="C265">
         <v>4</v>
       </c>
       <c r="D265">
-        <v>4.812360217845113</v>
+        <v>4.812360217845115</v>
       </c>
       <c r="E265">
-        <v>4.401644944527156</v>
+        <v>4.401644944527158</v>
       </c>
       <c r="F265">
         <v>4</v>
       </c>
       <c r="G265">
-        <v>4.812360217845113</v>
+        <v>4.812360217845115</v>
       </c>
       <c r="H265">
         <v>5</v>
@@ -8802,7 +8802,7 @@
         <v>3</v>
       </c>
       <c r="D266">
-        <v>2.643409093301418</v>
+        <v>2.643409093301417</v>
       </c>
       <c r="E266">
         <v>2.872486125532768</v>
@@ -8811,7 +8811,7 @@
         <v>3</v>
       </c>
       <c r="G266">
-        <v>2.643409093301418</v>
+        <v>2.643409093301417</v>
       </c>
       <c r="H266">
         <v>3</v>
@@ -8822,22 +8822,22 @@
         <v>273</v>
       </c>
       <c r="B267">
-        <v>3.442972325838328</v>
+        <v>3.442972325838329</v>
       </c>
       <c r="C267">
         <v>4</v>
       </c>
       <c r="D267">
-        <v>3.452583830627342</v>
+        <v>3.452583830627343</v>
       </c>
       <c r="E267">
-        <v>3.442972325838328</v>
+        <v>3.442972325838329</v>
       </c>
       <c r="F267">
         <v>3</v>
       </c>
       <c r="G267">
-        <v>3.452583830627342</v>
+        <v>3.452583830627343</v>
       </c>
       <c r="H267">
         <v>3</v>
@@ -8848,22 +8848,22 @@
         <v>274</v>
       </c>
       <c r="B268">
-        <v>3.677821151460962</v>
+        <v>3.677821151460963</v>
       </c>
       <c r="C268">
         <v>4</v>
       </c>
       <c r="D268">
-        <v>3.785692215515025</v>
+        <v>3.785692215515027</v>
       </c>
       <c r="E268">
-        <v>3.677821151460962</v>
+        <v>3.677821151460963</v>
       </c>
       <c r="F268">
         <v>4</v>
       </c>
       <c r="G268">
-        <v>3.785692215515025</v>
+        <v>3.785692215515027</v>
       </c>
       <c r="H268">
         <v>4</v>
@@ -8874,22 +8874,22 @@
         <v>275</v>
       </c>
       <c r="B269">
-        <v>3.944073029138679</v>
+        <v>3.944073029138681</v>
       </c>
       <c r="C269">
         <v>3</v>
       </c>
       <c r="D269">
-        <v>4.163342530399077</v>
+        <v>4.163342530399079</v>
       </c>
       <c r="E269">
-        <v>3.944073029138679</v>
+        <v>3.944073029138681</v>
       </c>
       <c r="F269">
         <v>4</v>
       </c>
       <c r="G269">
-        <v>4.163342530399077</v>
+        <v>4.163342530399079</v>
       </c>
       <c r="H269">
         <v>4</v>
@@ -8932,7 +8932,7 @@
         <v>4</v>
       </c>
       <c r="D271">
-        <v>2.963415502111652</v>
+        <v>2.963415502111653</v>
       </c>
       <c r="E271">
         <v>3.098097766398968</v>
@@ -8941,7 +8941,7 @@
         <v>3</v>
       </c>
       <c r="G271">
-        <v>2.963415502111652</v>
+        <v>2.963415502111653</v>
       </c>
       <c r="H271">
         <v>3</v>
@@ -8952,22 +8952,22 @@
         <v>278</v>
       </c>
       <c r="B272">
-        <v>2.609049527088085</v>
+        <v>2.609049527088084</v>
       </c>
       <c r="C272">
         <v>2</v>
       </c>
       <c r="D272">
-        <v>2.269751956223717</v>
+        <v>2.269751956223716</v>
       </c>
       <c r="E272">
-        <v>2.609049527088085</v>
+        <v>2.609049527088084</v>
       </c>
       <c r="F272">
         <v>3</v>
       </c>
       <c r="G272">
-        <v>2.269751956223717</v>
+        <v>2.269751956223716</v>
       </c>
       <c r="H272">
         <v>2</v>
@@ -8978,22 +8978,22 @@
         <v>279</v>
       </c>
       <c r="B273">
-        <v>3.237326470191217</v>
+        <v>3.237326470191216</v>
       </c>
       <c r="C273">
         <v>4</v>
       </c>
       <c r="D273">
-        <v>3.160896790456539</v>
+        <v>3.160896790456538</v>
       </c>
       <c r="E273">
-        <v>3.237326470191217</v>
+        <v>3.237326470191216</v>
       </c>
       <c r="F273">
         <v>3</v>
       </c>
       <c r="G273">
-        <v>3.160896790456539</v>
+        <v>3.160896790456538</v>
       </c>
       <c r="H273">
         <v>3</v>
@@ -9004,22 +9004,22 @@
         <v>280</v>
       </c>
       <c r="B274">
-        <v>2.855836723069334</v>
+        <v>2.855836723069335</v>
       </c>
       <c r="C274">
         <v>3</v>
       </c>
       <c r="D274">
-        <v>2.619793665167018</v>
+        <v>2.619793665167019</v>
       </c>
       <c r="E274">
-        <v>2.855836723069334</v>
+        <v>2.855836723069335</v>
       </c>
       <c r="F274">
         <v>3</v>
       </c>
       <c r="G274">
-        <v>2.619793665167018</v>
+        <v>2.619793665167019</v>
       </c>
       <c r="H274">
         <v>3</v>
@@ -9030,22 +9030,22 @@
         <v>281</v>
       </c>
       <c r="B275">
-        <v>2.679193021736845</v>
+        <v>2.679193021736843</v>
       </c>
       <c r="C275">
         <v>2</v>
       </c>
       <c r="D275">
-        <v>2.369243133796693</v>
+        <v>2.369243133796691</v>
       </c>
       <c r="E275">
-        <v>2.679193021736845</v>
+        <v>2.679193021736843</v>
       </c>
       <c r="F275">
         <v>3</v>
       </c>
       <c r="G275">
-        <v>2.369243133796693</v>
+        <v>2.369243133796691</v>
       </c>
       <c r="H275">
         <v>2</v>
@@ -9056,7 +9056,7 @@
         <v>282</v>
       </c>
       <c r="B276">
-        <v>2.970304877327289</v>
+        <v>2.970304877327288</v>
       </c>
       <c r="C276">
         <v>3</v>
@@ -9065,7 +9065,7 @@
         <v>2.782154715450535</v>
       </c>
       <c r="E276">
-        <v>2.970304877327289</v>
+        <v>2.970304877327288</v>
       </c>
       <c r="F276">
         <v>3</v>
@@ -9088,7 +9088,7 @@
         <v>4</v>
       </c>
       <c r="D277">
-        <v>3.672980451849519</v>
+        <v>3.672980451849518</v>
       </c>
       <c r="E277">
         <v>3.598356849355131</v>
@@ -9097,7 +9097,7 @@
         <v>4</v>
       </c>
       <c r="G277">
-        <v>3.672980451849519</v>
+        <v>3.672980451849518</v>
       </c>
       <c r="H277">
         <v>4</v>
@@ -9108,22 +9108,22 @@
         <v>284</v>
       </c>
       <c r="B278">
-        <v>4.434267688084926</v>
+        <v>4.434267688084927</v>
       </c>
       <c r="C278">
         <v>4</v>
       </c>
       <c r="D278">
-        <v>4.858632152091849</v>
+        <v>4.85863215209185</v>
       </c>
       <c r="E278">
-        <v>4.434267688084926</v>
+        <v>4.434267688084927</v>
       </c>
       <c r="F278">
         <v>4</v>
       </c>
       <c r="G278">
-        <v>4.858632152091849</v>
+        <v>4.85863215209185</v>
       </c>
       <c r="H278">
         <v>5</v>
@@ -9134,22 +9134,22 @@
         <v>285</v>
       </c>
       <c r="B279">
-        <v>3.412109675962921</v>
+        <v>3.41210967596292</v>
       </c>
       <c r="C279">
         <v>3</v>
       </c>
       <c r="D279">
-        <v>3.408808404345799</v>
+        <v>3.408808404345796</v>
       </c>
       <c r="E279">
-        <v>3.412109675962921</v>
+        <v>3.41210967596292</v>
       </c>
       <c r="F279">
         <v>3</v>
       </c>
       <c r="G279">
-        <v>3.408808404345799</v>
+        <v>3.408808404345796</v>
       </c>
       <c r="H279">
         <v>3</v>
@@ -9160,22 +9160,22 @@
         <v>286</v>
       </c>
       <c r="B280">
-        <v>3.111106011703817</v>
+        <v>3.111106011703818</v>
       </c>
       <c r="C280">
         <v>4</v>
       </c>
       <c r="D280">
-        <v>2.981866331372701</v>
+        <v>2.981866331372702</v>
       </c>
       <c r="E280">
-        <v>3.111106011703817</v>
+        <v>3.111106011703818</v>
       </c>
       <c r="F280">
         <v>3</v>
       </c>
       <c r="G280">
-        <v>2.981866331372701</v>
+        <v>2.981866331372702</v>
       </c>
       <c r="H280">
         <v>3</v>
@@ -9212,22 +9212,22 @@
         <v>288</v>
       </c>
       <c r="B282">
-        <v>1.533115170051466</v>
+        <v>1.533115170051464</v>
       </c>
       <c r="C282">
         <v>1</v>
       </c>
       <c r="D282">
-        <v>0.7436521131973164</v>
+        <v>0.7436521131973146</v>
       </c>
       <c r="E282">
-        <v>1.533115170051466</v>
+        <v>1.533115170051464</v>
       </c>
       <c r="F282">
         <v>2</v>
       </c>
       <c r="G282">
-        <v>0.7436521131973164</v>
+        <v>0.7436521131973146</v>
       </c>
       <c r="H282">
         <v>1</v>
@@ -9238,7 +9238,7 @@
         <v>289</v>
       </c>
       <c r="B283">
-        <v>3.905447060592807</v>
+        <v>3.905447060592808</v>
       </c>
       <c r="C283">
         <v>4</v>
@@ -9247,7 +9247,7 @@
         <v>4.10855565223213</v>
       </c>
       <c r="E283">
-        <v>3.905447060592807</v>
+        <v>3.905447060592808</v>
       </c>
       <c r="F283">
         <v>4</v>
@@ -9290,7 +9290,7 @@
         <v>291</v>
       </c>
       <c r="B285">
-        <v>3.540797388979585</v>
+        <v>3.540797388979586</v>
       </c>
       <c r="C285">
         <v>4</v>
@@ -9299,7 +9299,7 @@
         <v>3.591338404758708</v>
       </c>
       <c r="E285">
-        <v>3.540797388979585</v>
+        <v>3.540797388979586</v>
       </c>
       <c r="F285">
         <v>4</v>
@@ -9316,22 +9316,22 @@
         <v>292</v>
       </c>
       <c r="B286">
-        <v>3.719721425891497</v>
+        <v>3.719721425891496</v>
       </c>
       <c r="C286">
         <v>4</v>
       </c>
       <c r="D286">
-        <v>3.845123352566285</v>
+        <v>3.845123352566283</v>
       </c>
       <c r="E286">
-        <v>3.719721425891497</v>
+        <v>3.719721425891496</v>
       </c>
       <c r="F286">
         <v>4</v>
       </c>
       <c r="G286">
-        <v>3.845123352566285</v>
+        <v>3.845123352566283</v>
       </c>
       <c r="H286">
         <v>4</v>
@@ -9348,7 +9348,7 @@
         <v>4</v>
       </c>
       <c r="D287">
-        <v>4.501924217649728</v>
+        <v>4.501924217649727</v>
       </c>
       <c r="E287">
         <v>4.182780654751154</v>
@@ -9357,7 +9357,7 @@
         <v>4</v>
       </c>
       <c r="G287">
-        <v>4.501924217649728</v>
+        <v>4.501924217649727</v>
       </c>
       <c r="H287">
         <v>5</v>
@@ -9394,22 +9394,22 @@
         <v>295</v>
       </c>
       <c r="B289">
-        <v>4.069186209837011</v>
+        <v>4.069186209837012</v>
       </c>
       <c r="C289">
         <v>5</v>
       </c>
       <c r="D289">
-        <v>4.340802432274633</v>
+        <v>4.340802432274634</v>
       </c>
       <c r="E289">
-        <v>4.069186209837011</v>
+        <v>4.069186209837012</v>
       </c>
       <c r="F289">
         <v>4</v>
       </c>
       <c r="G289">
-        <v>4.340802432274633</v>
+        <v>4.340802432274634</v>
       </c>
       <c r="H289">
         <v>4</v>
@@ -9478,7 +9478,7 @@
         <v>4</v>
       </c>
       <c r="D292">
-        <v>4.654678086716696</v>
+        <v>4.654678086716694</v>
       </c>
       <c r="E292">
         <v>4.290475532416232</v>
@@ -9487,7 +9487,7 @@
         <v>4</v>
       </c>
       <c r="G292">
-        <v>4.654678086716696</v>
+        <v>4.654678086716694</v>
       </c>
       <c r="H292">
         <v>5</v>
@@ -9550,22 +9550,22 @@
         <v>301</v>
       </c>
       <c r="B295">
-        <v>3.94989461742252</v>
+        <v>3.949894617422519</v>
       </c>
       <c r="C295">
         <v>4</v>
       </c>
       <c r="D295">
-        <v>4.171599841737851</v>
+        <v>4.171599841737848</v>
       </c>
       <c r="E295">
-        <v>3.94989461742252</v>
+        <v>3.949894617422519</v>
       </c>
       <c r="F295">
         <v>4</v>
       </c>
       <c r="G295">
-        <v>4.171599841737851</v>
+        <v>4.171599841737848</v>
       </c>
       <c r="H295">
         <v>4</v>
@@ -9576,22 +9576,22 @@
         <v>302</v>
       </c>
       <c r="B296">
-        <v>2.379144423839674</v>
+        <v>2.379144423839673</v>
       </c>
       <c r="C296">
         <v>1</v>
       </c>
       <c r="D296">
-        <v>1.943655722114494</v>
+        <v>1.943655722114495</v>
       </c>
       <c r="E296">
-        <v>2.379144423839674</v>
+        <v>2.379144423839673</v>
       </c>
       <c r="F296">
         <v>2</v>
       </c>
       <c r="G296">
-        <v>1.943655722114494</v>
+        <v>1.943655722114495</v>
       </c>
       <c r="H296">
         <v>2</v>
@@ -9602,22 +9602,22 @@
         <v>303</v>
       </c>
       <c r="B297">
-        <v>2.751120354523793</v>
+        <v>2.751120354523792</v>
       </c>
       <c r="C297">
         <v>3</v>
       </c>
       <c r="D297">
-        <v>2.471264498350751</v>
+        <v>2.47126449835075</v>
       </c>
       <c r="E297">
-        <v>2.751120354523793</v>
+        <v>2.751120354523792</v>
       </c>
       <c r="F297">
         <v>3</v>
       </c>
       <c r="G297">
-        <v>2.471264498350751</v>
+        <v>2.47126449835075</v>
       </c>
       <c r="H297">
         <v>2</v>
@@ -9628,22 +9628,22 @@
         <v>304</v>
       </c>
       <c r="B298">
-        <v>3.368974268168805</v>
+        <v>3.368974268168804</v>
       </c>
       <c r="C298">
         <v>3</v>
       </c>
       <c r="D298">
-        <v>3.347625360386881</v>
+        <v>3.347625360386879</v>
       </c>
       <c r="E298">
-        <v>3.368974268168805</v>
+        <v>3.368974268168804</v>
       </c>
       <c r="F298">
         <v>3</v>
       </c>
       <c r="G298">
-        <v>3.347625360386881</v>
+        <v>3.347625360386879</v>
       </c>
       <c r="H298">
         <v>3</v>
@@ -9654,22 +9654,22 @@
         <v>305</v>
       </c>
       <c r="B299">
-        <v>2.716920630258296</v>
+        <v>2.716920630258297</v>
       </c>
       <c r="C299">
         <v>4</v>
       </c>
       <c r="D299">
-        <v>2.422755782654683</v>
+        <v>2.422755782654684</v>
       </c>
       <c r="E299">
-        <v>2.716920630258296</v>
+        <v>2.716920630258297</v>
       </c>
       <c r="F299">
         <v>3</v>
       </c>
       <c r="G299">
-        <v>2.422755782654683</v>
+        <v>2.422755782654684</v>
       </c>
       <c r="H299">
         <v>2</v>
@@ -9680,22 +9680,22 @@
         <v>306</v>
       </c>
       <c r="B300">
-        <v>3.696204886111099</v>
+        <v>3.6962048861111</v>
       </c>
       <c r="C300">
         <v>3</v>
       </c>
       <c r="D300">
-        <v>3.811767611639641</v>
+        <v>3.811767611639642</v>
       </c>
       <c r="E300">
-        <v>3.696204886111099</v>
+        <v>3.6962048861111</v>
       </c>
       <c r="F300">
         <v>4</v>
       </c>
       <c r="G300">
-        <v>3.811767611639641</v>
+        <v>3.811767611639642</v>
       </c>
       <c r="H300">
         <v>4</v>
@@ -9706,7 +9706,7 @@
         <v>307</v>
       </c>
       <c r="B301">
-        <v>3.129308728772369</v>
+        <v>3.129308728772368</v>
       </c>
       <c r="C301">
         <v>4</v>
@@ -9715,7 +9715,7 @@
         <v>3.007684973076346</v>
       </c>
       <c r="E301">
-        <v>3.129308728772369</v>
+        <v>3.129308728772368</v>
       </c>
       <c r="F301">
         <v>3</v>
@@ -9732,22 +9732,22 @@
         <v>308</v>
       </c>
       <c r="B302">
-        <v>3.520493532814932</v>
+        <v>3.520493532814933</v>
       </c>
       <c r="C302">
         <v>3</v>
       </c>
       <c r="D302">
-        <v>3.562539518002223</v>
+        <v>3.562539518002225</v>
       </c>
       <c r="E302">
-        <v>3.520493532814932</v>
+        <v>3.520493532814933</v>
       </c>
       <c r="F302">
         <v>4</v>
       </c>
       <c r="G302">
-        <v>3.562539518002223</v>
+        <v>3.562539518002225</v>
       </c>
       <c r="H302">
         <v>4</v>
@@ -9758,22 +9758,22 @@
         <v>309</v>
       </c>
       <c r="B303">
-        <v>3.59443451108163</v>
+        <v>3.594434511081631</v>
       </c>
       <c r="C303">
         <v>4</v>
       </c>
       <c r="D303">
-        <v>3.667417027106793</v>
+        <v>3.667417027106794</v>
       </c>
       <c r="E303">
-        <v>3.59443451108163</v>
+        <v>3.594434511081631</v>
       </c>
       <c r="F303">
         <v>4</v>
       </c>
       <c r="G303">
-        <v>3.667417027106793</v>
+        <v>3.667417027106794</v>
       </c>
       <c r="H303">
         <v>4</v>
@@ -9784,22 +9784,22 @@
         <v>310</v>
       </c>
       <c r="B304">
-        <v>3.363442273143996</v>
+        <v>3.363442273143998</v>
       </c>
       <c r="C304">
         <v>3</v>
       </c>
       <c r="D304">
-        <v>3.339778806660094</v>
+        <v>3.339778806660096</v>
       </c>
       <c r="E304">
-        <v>3.363442273143996</v>
+        <v>3.363442273143998</v>
       </c>
       <c r="F304">
         <v>3</v>
       </c>
       <c r="G304">
-        <v>3.339778806660094</v>
+        <v>3.339778806660096</v>
       </c>
       <c r="H304">
         <v>3</v>
@@ -9816,7 +9816,7 @@
         <v>3</v>
       </c>
       <c r="D305">
-        <v>2.830668714631902</v>
+        <v>2.830668714631903</v>
       </c>
       <c r="E305">
         <v>3.004508326567521</v>
@@ -9825,7 +9825,7 @@
         <v>3</v>
       </c>
       <c r="G305">
-        <v>2.830668714631902</v>
+        <v>2.830668714631903</v>
       </c>
       <c r="H305">
         <v>3</v>
@@ -9842,7 +9842,7 @@
         <v>3</v>
       </c>
       <c r="D306">
-        <v>3.377989340735641</v>
+        <v>3.37798934073564</v>
       </c>
       <c r="E306">
         <v>3.390381550151633</v>
@@ -9851,7 +9851,7 @@
         <v>3</v>
       </c>
       <c r="G306">
-        <v>3.377989340735641</v>
+        <v>3.37798934073564</v>
       </c>
       <c r="H306">
         <v>3</v>
@@ -9862,22 +9862,22 @@
         <v>313</v>
       </c>
       <c r="B307">
-        <v>3.766553131415515</v>
+        <v>3.766553131415516</v>
       </c>
       <c r="C307">
         <v>4</v>
       </c>
       <c r="D307">
-        <v>3.911549206505653</v>
+        <v>3.911549206505654</v>
       </c>
       <c r="E307">
-        <v>3.766553131415515</v>
+        <v>3.766553131415516</v>
       </c>
       <c r="F307">
         <v>4</v>
       </c>
       <c r="G307">
-        <v>3.911549206505653</v>
+        <v>3.911549206505654</v>
       </c>
       <c r="H307">
         <v>4</v>
@@ -9914,22 +9914,22 @@
         <v>315</v>
       </c>
       <c r="B309">
-        <v>3.433620203182591</v>
+        <v>3.43362020318259</v>
       </c>
       <c r="C309">
         <v>3</v>
       </c>
       <c r="D309">
-        <v>3.439318827215616</v>
+        <v>3.439318827215615</v>
       </c>
       <c r="E309">
-        <v>3.433620203182591</v>
+        <v>3.43362020318259</v>
       </c>
       <c r="F309">
         <v>3</v>
       </c>
       <c r="G309">
-        <v>3.439318827215616</v>
+        <v>3.439318827215615</v>
       </c>
       <c r="H309">
         <v>3</v>
@@ -9992,22 +9992,22 @@
         <v>318</v>
       </c>
       <c r="B312">
-        <v>4.092126386040999</v>
+        <v>4.092126386041</v>
       </c>
       <c r="C312">
         <v>3</v>
       </c>
       <c r="D312">
-        <v>4.37334066202345</v>
+        <v>4.373340662023451</v>
       </c>
       <c r="E312">
-        <v>4.092126386040999</v>
+        <v>4.092126386041</v>
       </c>
       <c r="F312">
         <v>4</v>
       </c>
       <c r="G312">
-        <v>4.37334066202345</v>
+        <v>4.373340662023451</v>
       </c>
       <c r="H312">
         <v>4</v>
@@ -10018,7 +10018,7 @@
         <v>319</v>
       </c>
       <c r="B313">
-        <v>3.739866092833867</v>
+        <v>3.739866092833869</v>
       </c>
       <c r="C313">
         <v>4</v>
@@ -10027,7 +10027,7 @@
         <v>3.873696446136087</v>
       </c>
       <c r="E313">
-        <v>3.739866092833867</v>
+        <v>3.739866092833869</v>
       </c>
       <c r="F313">
         <v>4</v>
@@ -10070,7 +10070,7 @@
         <v>321</v>
       </c>
       <c r="B315">
-        <v>4.064654992789206</v>
+        <v>4.064654992789205</v>
       </c>
       <c r="C315">
         <v>4</v>
@@ -10079,7 +10079,7 @@
         <v>4.334375376962056</v>
       </c>
       <c r="E315">
-        <v>4.064654992789206</v>
+        <v>4.064654992789205</v>
       </c>
       <c r="F315">
         <v>4</v>
@@ -10096,7 +10096,7 @@
         <v>322</v>
       </c>
       <c r="B316">
-        <v>2.264290964088321</v>
+        <v>2.26429096408832</v>
       </c>
       <c r="C316">
         <v>2</v>
@@ -10105,7 +10105,7 @@
         <v>1.780748156470494</v>
       </c>
       <c r="E316">
-        <v>2.264290964088321</v>
+        <v>2.26429096408832</v>
       </c>
       <c r="F316">
         <v>2</v>
@@ -10122,22 +10122,22 @@
         <v>323</v>
       </c>
       <c r="B317">
-        <v>3.29719099031952</v>
+        <v>3.297190990319521</v>
       </c>
       <c r="C317">
         <v>3</v>
       </c>
       <c r="D317">
-        <v>3.245808322626848</v>
+        <v>3.245808322626849</v>
       </c>
       <c r="E317">
-        <v>3.29719099031952</v>
+        <v>3.297190990319521</v>
       </c>
       <c r="F317">
         <v>3</v>
       </c>
       <c r="G317">
-        <v>3.245808322626848</v>
+        <v>3.245808322626849</v>
       </c>
       <c r="H317">
         <v>3</v>
@@ -10154,7 +10154,7 @@
         <v>3</v>
       </c>
       <c r="D318">
-        <v>3.709805470979397</v>
+        <v>3.709805470979396</v>
       </c>
       <c r="E318">
         <v>3.624319307487486</v>
@@ -10163,7 +10163,7 @@
         <v>4</v>
       </c>
       <c r="G318">
-        <v>3.709805470979397</v>
+        <v>3.709805470979396</v>
       </c>
       <c r="H318">
         <v>4</v>
@@ -10174,22 +10174,22 @@
         <v>325</v>
       </c>
       <c r="B319">
-        <v>4.160001541707786</v>
+        <v>4.160001541707787</v>
       </c>
       <c r="C319">
         <v>4</v>
       </c>
       <c r="D319">
-        <v>4.46961443907224</v>
+        <v>4.469614439072242</v>
       </c>
       <c r="E319">
-        <v>4.160001541707786</v>
+        <v>4.160001541707787</v>
       </c>
       <c r="F319">
         <v>4</v>
       </c>
       <c r="G319">
-        <v>4.46961443907224</v>
+        <v>4.469614439072242</v>
       </c>
       <c r="H319">
         <v>4</v>
@@ -10200,22 +10200,22 @@
         <v>326</v>
       </c>
       <c r="B320">
-        <v>2.910789212232864</v>
+        <v>2.910789212232865</v>
       </c>
       <c r="C320">
         <v>3</v>
       </c>
       <c r="D320">
-        <v>2.69773799749353</v>
+        <v>2.697737997493531</v>
       </c>
       <c r="E320">
-        <v>2.910789212232864</v>
+        <v>2.910789212232865</v>
       </c>
       <c r="F320">
         <v>3</v>
       </c>
       <c r="G320">
-        <v>2.69773799749353</v>
+        <v>2.697737997493531</v>
       </c>
       <c r="H320">
         <v>3</v>
@@ -10226,7 +10226,7 @@
         <v>327</v>
       </c>
       <c r="B321">
-        <v>2.757441156626472</v>
+        <v>2.757441156626471</v>
       </c>
       <c r="C321">
         <v>3</v>
@@ -10235,7 +10235,7 @@
         <v>2.48022989204193</v>
       </c>
       <c r="E321">
-        <v>2.757441156626472</v>
+        <v>2.757441156626471</v>
       </c>
       <c r="F321">
         <v>3</v>
@@ -10252,22 +10252,22 @@
         <v>328</v>
       </c>
       <c r="B322">
-        <v>3.289901575592644</v>
+        <v>3.289901575592645</v>
       </c>
       <c r="C322">
         <v>3</v>
       </c>
       <c r="D322">
-        <v>3.235469053694978</v>
+        <v>3.235469053694979</v>
       </c>
       <c r="E322">
-        <v>3.289901575592644</v>
+        <v>3.289901575592645</v>
       </c>
       <c r="F322">
         <v>3</v>
       </c>
       <c r="G322">
-        <v>3.235469053694978</v>
+        <v>3.235469053694979</v>
       </c>
       <c r="H322">
         <v>3</v>
@@ -10278,22 +10278,22 @@
         <v>329</v>
       </c>
       <c r="B323">
-        <v>2.894090972390575</v>
+        <v>2.894090972390574</v>
       </c>
       <c r="C323">
         <v>3</v>
       </c>
       <c r="D323">
-        <v>2.674053298668294</v>
+        <v>2.674053298668293</v>
       </c>
       <c r="E323">
-        <v>2.894090972390575</v>
+        <v>2.894090972390574</v>
       </c>
       <c r="F323">
         <v>3</v>
       </c>
       <c r="G323">
-        <v>2.674053298668294</v>
+        <v>2.674053298668293</v>
       </c>
       <c r="H323">
         <v>3</v>
@@ -10304,22 +10304,22 @@
         <v>330</v>
       </c>
       <c r="B324">
-        <v>3.494723817165862</v>
+        <v>3.494723817165861</v>
       </c>
       <c r="C324">
         <v>3</v>
       </c>
       <c r="D324">
-        <v>3.525987883834505</v>
+        <v>3.525987883834504</v>
       </c>
       <c r="E324">
-        <v>3.494723817165862</v>
+        <v>3.494723817165861</v>
       </c>
       <c r="F324">
         <v>3</v>
       </c>
       <c r="G324">
-        <v>3.525987883834505</v>
+        <v>3.525987883834504</v>
       </c>
       <c r="H324">
         <v>4</v>
@@ -10330,7 +10330,7 @@
         <v>331</v>
       </c>
       <c r="B325">
-        <v>3.970825451225196</v>
+        <v>3.970825451225195</v>
       </c>
       <c r="C325">
         <v>4</v>
@@ -10339,7 +10339,7 @@
         <v>4.20128803040082</v>
       </c>
       <c r="E325">
-        <v>3.970825451225196</v>
+        <v>3.970825451225195</v>
       </c>
       <c r="F325">
         <v>4</v>
@@ -10362,7 +10362,7 @@
         <v>4</v>
       </c>
       <c r="D326">
-        <v>4.039440287464465</v>
+        <v>4.039440287464464</v>
       </c>
       <c r="E326">
         <v>3.856719190072108</v>
@@ -10371,7 +10371,7 @@
         <v>4</v>
       </c>
       <c r="G326">
-        <v>4.039440287464465</v>
+        <v>4.039440287464464</v>
       </c>
       <c r="H326">
         <v>4</v>
@@ -10382,22 +10382,22 @@
         <v>333</v>
       </c>
       <c r="B327">
-        <v>3.341007934780384</v>
+        <v>3.341007934780385</v>
       </c>
       <c r="C327">
         <v>3</v>
       </c>
       <c r="D327">
-        <v>3.307958054742285</v>
+        <v>3.307958054742286</v>
       </c>
       <c r="E327">
-        <v>3.341007934780384</v>
+        <v>3.341007934780385</v>
       </c>
       <c r="F327">
         <v>3</v>
       </c>
       <c r="G327">
-        <v>3.307958054742285</v>
+        <v>3.307958054742286</v>
       </c>
       <c r="H327">
         <v>3</v>
@@ -10408,22 +10408,22 @@
         <v>334</v>
       </c>
       <c r="B328">
-        <v>3.982002826360907</v>
+        <v>3.982002826360906</v>
       </c>
       <c r="C328">
         <v>4</v>
       </c>
       <c r="D328">
-        <v>4.217141962686278</v>
+        <v>4.217141962686277</v>
       </c>
       <c r="E328">
-        <v>3.982002826360907</v>
+        <v>3.982002826360906</v>
       </c>
       <c r="F328">
         <v>4</v>
       </c>
       <c r="G328">
-        <v>4.217141962686278</v>
+        <v>4.217141962686277</v>
       </c>
       <c r="H328">
         <v>4</v>
@@ -10460,22 +10460,22 @@
         <v>336</v>
       </c>
       <c r="B330">
-        <v>3.591171087036005</v>
+        <v>3.591171087036006</v>
       </c>
       <c r="C330">
         <v>4</v>
       </c>
       <c r="D330">
-        <v>3.662788202967861</v>
+        <v>3.662788202967862</v>
       </c>
       <c r="E330">
-        <v>3.591171087036005</v>
+        <v>3.591171087036006</v>
       </c>
       <c r="F330">
         <v>4</v>
       </c>
       <c r="G330">
-        <v>3.662788202967861</v>
+        <v>3.662788202967862</v>
       </c>
       <c r="H330">
         <v>4</v>
@@ -10486,22 +10486,22 @@
         <v>337</v>
       </c>
       <c r="B331">
-        <v>4.182503645889802</v>
+        <v>4.182503645889803</v>
       </c>
       <c r="C331">
         <v>4</v>
       </c>
       <c r="D331">
-        <v>4.501531309683678</v>
+        <v>4.501531309683679</v>
       </c>
       <c r="E331">
-        <v>4.182503645889802</v>
+        <v>4.182503645889803</v>
       </c>
       <c r="F331">
         <v>4</v>
       </c>
       <c r="G331">
-        <v>4.501531309683678</v>
+        <v>4.501531309683679</v>
       </c>
       <c r="H331">
         <v>5</v>
@@ -10538,22 +10538,22 @@
         <v>339</v>
       </c>
       <c r="B333">
-        <v>3.996207735406587</v>
+        <v>3.996207735406588</v>
       </c>
       <c r="C333">
         <v>4</v>
       </c>
       <c r="D333">
-        <v>4.237290133736901</v>
+        <v>4.237290133736902</v>
       </c>
       <c r="E333">
-        <v>3.996207735406587</v>
+        <v>3.996207735406588</v>
       </c>
       <c r="F333">
         <v>4</v>
       </c>
       <c r="G333">
-        <v>4.237290133736901</v>
+        <v>4.237290133736902</v>
       </c>
       <c r="H333">
         <v>4</v>
@@ -10564,22 +10564,22 @@
         <v>340</v>
       </c>
       <c r="B334">
-        <v>2.788781802634412</v>
+        <v>2.788781802634411</v>
       </c>
       <c r="C334">
         <v>3</v>
       </c>
       <c r="D334">
-        <v>2.524683305617081</v>
+        <v>2.52468330561708</v>
       </c>
       <c r="E334">
-        <v>2.788781802634412</v>
+        <v>2.788781802634411</v>
       </c>
       <c r="F334">
         <v>3</v>
       </c>
       <c r="G334">
-        <v>2.524683305617081</v>
+        <v>2.52468330561708</v>
       </c>
       <c r="H334">
         <v>3</v>
@@ -10590,22 +10590,22 @@
         <v>341</v>
       </c>
       <c r="B335">
-        <v>3.309811879863377</v>
+        <v>3.309811879863376</v>
       </c>
       <c r="C335">
         <v>3</v>
       </c>
       <c r="D335">
-        <v>3.263709728438242</v>
+        <v>3.26370972843824</v>
       </c>
       <c r="E335">
-        <v>3.309811879863377</v>
+        <v>3.309811879863376</v>
       </c>
       <c r="F335">
         <v>3</v>
       </c>
       <c r="G335">
-        <v>3.263709728438242</v>
+        <v>3.26370972843824</v>
       </c>
       <c r="H335">
         <v>3</v>
@@ -10616,22 +10616,22 @@
         <v>342</v>
       </c>
       <c r="B336">
-        <v>2.809378735568085</v>
+        <v>2.809378735568084</v>
       </c>
       <c r="C336">
         <v>4</v>
       </c>
       <c r="D336">
-        <v>2.553897890978477</v>
+        <v>2.553897890978476</v>
       </c>
       <c r="E336">
-        <v>2.809378735568085</v>
+        <v>2.809378735568084</v>
       </c>
       <c r="F336">
         <v>3</v>
       </c>
       <c r="G336">
-        <v>2.553897890978477</v>
+        <v>2.553897890978476</v>
       </c>
       <c r="H336">
         <v>3</v>
@@ -10642,22 +10642,22 @@
         <v>343</v>
       </c>
       <c r="B337">
-        <v>3.1730868551258</v>
+        <v>3.173086855125798</v>
       </c>
       <c r="C337">
         <v>3</v>
       </c>
       <c r="D337">
-        <v>3.069779645784792</v>
+        <v>3.06977964578479</v>
       </c>
       <c r="E337">
-        <v>3.1730868551258</v>
+        <v>3.173086855125798</v>
       </c>
       <c r="F337">
         <v>3</v>
       </c>
       <c r="G337">
-        <v>3.069779645784792</v>
+        <v>3.06977964578479</v>
       </c>
       <c r="H337">
         <v>3</v>
@@ -10668,7 +10668,7 @@
         <v>344</v>
       </c>
       <c r="B338">
-        <v>2.994035161106172</v>
+        <v>2.99403516110617</v>
       </c>
       <c r="C338">
         <v>3</v>
@@ -10677,7 +10677,7 @@
         <v>2.815813629782138</v>
       </c>
       <c r="E338">
-        <v>2.994035161106172</v>
+        <v>2.99403516110617</v>
       </c>
       <c r="F338">
         <v>3</v>
@@ -10720,22 +10720,22 @@
         <v>346</v>
       </c>
       <c r="B340">
-        <v>3.814971052176805</v>
+        <v>3.814971052176806</v>
       </c>
       <c r="C340">
         <v>3</v>
       </c>
       <c r="D340">
-        <v>3.980224940104292</v>
+        <v>3.980224940104293</v>
       </c>
       <c r="E340">
-        <v>3.814971052176805</v>
+        <v>3.814971052176806</v>
       </c>
       <c r="F340">
         <v>4</v>
       </c>
       <c r="G340">
-        <v>3.980224940104292</v>
+        <v>3.980224940104293</v>
       </c>
       <c r="H340">
         <v>4</v>
@@ -10746,7 +10746,7 @@
         <v>347</v>
       </c>
       <c r="B341">
-        <v>3.955912277863971</v>
+        <v>3.955912277863972</v>
       </c>
       <c r="C341">
         <v>5</v>
@@ -10755,7 +10755,7 @@
         <v>4.180135260831984</v>
       </c>
       <c r="E341">
-        <v>3.955912277863971</v>
+        <v>3.955912277863972</v>
       </c>
       <c r="F341">
         <v>4</v>
@@ -10772,22 +10772,22 @@
         <v>348</v>
       </c>
       <c r="B342">
-        <v>3.298523692049073</v>
+        <v>3.298523692049075</v>
       </c>
       <c r="C342">
         <v>3</v>
       </c>
       <c r="D342">
-        <v>3.247698620010671</v>
+        <v>3.247698620010673</v>
       </c>
       <c r="E342">
-        <v>3.298523692049073</v>
+        <v>3.298523692049075</v>
       </c>
       <c r="F342">
         <v>3</v>
       </c>
       <c r="G342">
-        <v>3.247698620010671</v>
+        <v>3.247698620010673</v>
       </c>
       <c r="H342">
         <v>3</v>
@@ -10798,22 +10798,22 @@
         <v>349</v>
       </c>
       <c r="B343">
-        <v>3.136595210447474</v>
+        <v>3.136595210447475</v>
       </c>
       <c r="C343">
         <v>3</v>
       </c>
       <c r="D343">
-        <v>3.018020081782439</v>
+        <v>3.01802008178244</v>
       </c>
       <c r="E343">
-        <v>3.136595210447474</v>
+        <v>3.136595210447475</v>
       </c>
       <c r="F343">
         <v>3</v>
       </c>
       <c r="G343">
-        <v>3.018020081782439</v>
+        <v>3.01802008178244</v>
       </c>
       <c r="H343">
         <v>3</v>
@@ -10824,22 +10824,22 @@
         <v>350</v>
       </c>
       <c r="B344">
-        <v>3.15123809297457</v>
+        <v>3.151238092974571</v>
       </c>
       <c r="C344">
         <v>4</v>
       </c>
       <c r="D344">
-        <v>3.038789472201017</v>
+        <v>3.038789472201018</v>
       </c>
       <c r="E344">
-        <v>3.15123809297457</v>
+        <v>3.151238092974571</v>
       </c>
       <c r="F344">
         <v>3</v>
       </c>
       <c r="G344">
-        <v>3.038789472201017</v>
+        <v>3.038789472201018</v>
       </c>
       <c r="H344">
         <v>3</v>
@@ -10850,22 +10850,22 @@
         <v>351</v>
       </c>
       <c r="B345">
-        <v>3.283194437778675</v>
+        <v>3.283194437778676</v>
       </c>
       <c r="C345">
         <v>4</v>
       </c>
       <c r="D345">
-        <v>3.225955683387475</v>
+        <v>3.225955683387476</v>
       </c>
       <c r="E345">
-        <v>3.283194437778675</v>
+        <v>3.283194437778676</v>
       </c>
       <c r="F345">
         <v>3</v>
       </c>
       <c r="G345">
-        <v>3.225955683387475</v>
+        <v>3.225955683387476</v>
       </c>
       <c r="H345">
         <v>3</v>
@@ -10876,22 +10876,22 @@
         <v>352</v>
       </c>
       <c r="B346">
-        <v>1.233913609019749</v>
+        <v>1.233913609019748</v>
       </c>
       <c r="C346">
         <v>1</v>
       </c>
       <c r="D346">
-        <v>0.3192661343153183</v>
+        <v>0.3192661343153196</v>
       </c>
       <c r="E346">
-        <v>1.233913609019749</v>
+        <v>1.233913609019748</v>
       </c>
       <c r="F346">
         <v>1</v>
       </c>
       <c r="G346">
-        <v>0.50002</v>
+        <v>0.5002</v>
       </c>
       <c r="H346">
         <v>1</v>
@@ -10928,22 +10928,22 @@
         <v>354</v>
       </c>
       <c r="B348">
-        <v>2.763321888656794</v>
+        <v>2.763321888656793</v>
       </c>
       <c r="C348">
         <v>3</v>
       </c>
       <c r="D348">
-        <v>2.488571092571183</v>
+        <v>2.488571092571182</v>
       </c>
       <c r="E348">
-        <v>2.763321888656794</v>
+        <v>2.763321888656793</v>
       </c>
       <c r="F348">
         <v>3</v>
       </c>
       <c r="G348">
-        <v>2.488571092571183</v>
+        <v>2.488571092571182</v>
       </c>
       <c r="H348">
         <v>2</v>
@@ -10954,7 +10954,7 @@
         <v>355</v>
       </c>
       <c r="B349">
-        <v>3.095500667325509</v>
+        <v>3.095500667325508</v>
       </c>
       <c r="C349">
         <v>4</v>
@@ -10963,7 +10963,7 @@
         <v>2.959731789938683</v>
       </c>
       <c r="E349">
-        <v>3.095500667325509</v>
+        <v>3.095500667325508</v>
       </c>
       <c r="F349">
         <v>3</v>
@@ -10980,22 +10980,22 @@
         <v>356</v>
       </c>
       <c r="B350">
-        <v>4.34578345453864</v>
+        <v>4.345783454538641</v>
       </c>
       <c r="C350">
         <v>5</v>
       </c>
       <c r="D350">
-        <v>4.733126563352013</v>
+        <v>4.733126563352014</v>
       </c>
       <c r="E350">
-        <v>4.34578345453864</v>
+        <v>4.345783454538641</v>
       </c>
       <c r="F350">
         <v>4</v>
       </c>
       <c r="G350">
-        <v>4.733126563352013</v>
+        <v>4.733126563352014</v>
       </c>
       <c r="H350">
         <v>5</v>
@@ -11006,22 +11006,22 @@
         <v>357</v>
       </c>
       <c r="B351">
-        <v>3.38934204455284</v>
+        <v>3.389342044552839</v>
       </c>
       <c r="C351">
         <v>3</v>
       </c>
       <c r="D351">
-        <v>3.376514911258816</v>
+        <v>3.376514911258815</v>
       </c>
       <c r="E351">
-        <v>3.38934204455284</v>
+        <v>3.389342044552839</v>
       </c>
       <c r="F351">
         <v>3</v>
       </c>
       <c r="G351">
-        <v>3.376514911258816</v>
+        <v>3.376514911258815</v>
       </c>
       <c r="H351">
         <v>3</v>
@@ -11032,7 +11032,7 @@
         <v>358</v>
       </c>
       <c r="B352">
-        <v>3.160208794164616</v>
+        <v>3.160208794164615</v>
       </c>
       <c r="C352">
         <v>3</v>
@@ -11041,7 +11041,7 @@
         <v>3.051513469337488</v>
       </c>
       <c r="E352">
-        <v>3.160208794164616</v>
+        <v>3.160208794164615</v>
       </c>
       <c r="F352">
         <v>3</v>
@@ -11058,22 +11058,22 @@
         <v>359</v>
       </c>
       <c r="B353">
-        <v>3.323905330987277</v>
+        <v>3.323905330987279</v>
       </c>
       <c r="C353">
         <v>3</v>
       </c>
       <c r="D353">
-        <v>3.283699808137084</v>
+        <v>3.283699808137086</v>
       </c>
       <c r="E353">
-        <v>3.323905330987277</v>
+        <v>3.323905330987279</v>
       </c>
       <c r="F353">
         <v>3</v>
       </c>
       <c r="G353">
-        <v>3.283699808137084</v>
+        <v>3.283699808137086</v>
       </c>
       <c r="H353">
         <v>3</v>
@@ -11090,7 +11090,7 @@
         <v>5</v>
       </c>
       <c r="D354">
-        <v>4.735974725918281</v>
+        <v>4.73597472591828</v>
       </c>
       <c r="E354">
         <v>4.347791472541837</v>
@@ -11099,7 +11099,7 @@
         <v>4</v>
       </c>
       <c r="G354">
-        <v>4.735974725918281</v>
+        <v>4.73597472591828</v>
       </c>
       <c r="H354">
         <v>5</v>
@@ -11142,7 +11142,7 @@
         <v>3</v>
       </c>
       <c r="D356">
-        <v>3.64985114008674</v>
+        <v>3.649851140086739</v>
       </c>
       <c r="E356">
         <v>3.582050169753596</v>
@@ -11151,7 +11151,7 @@
         <v>4</v>
       </c>
       <c r="G356">
-        <v>3.64985114008674</v>
+        <v>3.649851140086739</v>
       </c>
       <c r="H356">
         <v>4</v>
@@ -11162,22 +11162,22 @@
         <v>363</v>
       </c>
       <c r="B357">
-        <v>3.961661231105083</v>
+        <v>3.961661231105084</v>
       </c>
       <c r="C357">
         <v>4</v>
       </c>
       <c r="D357">
-        <v>4.188289546994005</v>
+        <v>4.188289546994006</v>
       </c>
       <c r="E357">
-        <v>3.961661231105083</v>
+        <v>3.961661231105084</v>
       </c>
       <c r="F357">
         <v>4</v>
       </c>
       <c r="G357">
-        <v>4.188289546994005</v>
+        <v>4.188289546994006</v>
       </c>
       <c r="H357">
         <v>4</v>
@@ -11188,7 +11188,7 @@
         <v>364</v>
       </c>
       <c r="B358">
-        <v>3.479565089602986</v>
+        <v>3.479565089602987</v>
       </c>
       <c r="C358">
         <v>3</v>
@@ -11197,7 +11197,7 @@
         <v>3.50448682142964</v>
       </c>
       <c r="E358">
-        <v>3.479565089602986</v>
+        <v>3.479565089602987</v>
       </c>
       <c r="F358">
         <v>3</v>
@@ -11214,22 +11214,22 @@
         <v>365</v>
       </c>
       <c r="B359">
-        <v>3.967307603733194</v>
+        <v>3.967307603733195</v>
       </c>
       <c r="C359">
         <v>4</v>
       </c>
       <c r="D359">
-        <v>4.196298333334058</v>
+        <v>4.196298333334059</v>
       </c>
       <c r="E359">
-        <v>3.967307603733194</v>
+        <v>3.967307603733195</v>
       </c>
       <c r="F359">
         <v>4</v>
       </c>
       <c r="G359">
-        <v>4.196298333334058</v>
+        <v>4.196298333334059</v>
       </c>
       <c r="H359">
         <v>4</v>
@@ -11298,7 +11298,7 @@
         <v>3</v>
       </c>
       <c r="D362">
-        <v>2.941022394213101</v>
+        <v>2.9410223942131</v>
       </c>
       <c r="E362">
         <v>3.082310126908029</v>
@@ -11307,7 +11307,7 @@
         <v>3</v>
       </c>
       <c r="G362">
-        <v>2.941022394213101</v>
+        <v>2.9410223942131</v>
       </c>
       <c r="H362">
         <v>3</v>
@@ -11318,22 +11318,22 @@
         <v>369</v>
       </c>
       <c r="B363">
-        <v>3.202651047481054</v>
+        <v>3.202651047481055</v>
       </c>
       <c r="C363">
         <v>3</v>
       </c>
       <c r="D363">
-        <v>3.111713346495699</v>
+        <v>3.111713346495701</v>
       </c>
       <c r="E363">
-        <v>3.202651047481054</v>
+        <v>3.202651047481055</v>
       </c>
       <c r="F363">
         <v>3</v>
       </c>
       <c r="G363">
-        <v>3.111713346495699</v>
+        <v>3.111713346495701</v>
       </c>
       <c r="H363">
         <v>3</v>
@@ -11350,7 +11350,7 @@
         <v>6</v>
       </c>
       <c r="D364">
-        <v>5.12206696375147</v>
+        <v>5.122066963751469</v>
       </c>
       <c r="E364">
         <v>4.61999509379776</v>
@@ -11359,7 +11359,7 @@
         <v>5</v>
       </c>
       <c r="G364">
-        <v>5.12206696375147</v>
+        <v>5.122066963751469</v>
       </c>
       <c r="H364">
         <v>5</v>
@@ -11376,7 +11376,7 @@
         <v>4</v>
       </c>
       <c r="D365">
-        <v>4.888664753542948</v>
+        <v>4.888664753542947</v>
       </c>
       <c r="E365">
         <v>4.45544134056912</v>
@@ -11385,7 +11385,7 @@
         <v>4</v>
       </c>
       <c r="G365">
-        <v>4.888664753542948</v>
+        <v>4.888664753542947</v>
       </c>
       <c r="H365">
         <v>5</v>
@@ -11402,7 +11402,7 @@
         <v>3</v>
       </c>
       <c r="D366">
-        <v>2.413867590168801</v>
+        <v>2.413867590168802</v>
       </c>
       <c r="E366">
         <v>2.710654256723685</v>
@@ -11411,7 +11411,7 @@
         <v>3</v>
       </c>
       <c r="G366">
-        <v>2.413867590168801</v>
+        <v>2.413867590168802</v>
       </c>
       <c r="H366">
         <v>2</v>
@@ -11428,7 +11428,7 @@
         <v>4</v>
       </c>
       <c r="D367">
-        <v>3.682893245067905</v>
+        <v>3.682893245067906</v>
       </c>
       <c r="E367">
         <v>3.60534558921157</v>
@@ -11437,7 +11437,7 @@
         <v>4</v>
       </c>
       <c r="G367">
-        <v>3.682893245067905</v>
+        <v>3.682893245067906</v>
       </c>
       <c r="H367">
         <v>4</v>
@@ -11448,22 +11448,22 @@
         <v>374</v>
       </c>
       <c r="B368">
-        <v>3.866027294822322</v>
+        <v>3.866027294822321</v>
       </c>
       <c r="C368">
         <v>4</v>
       </c>
       <c r="D368">
-        <v>4.052642856101921</v>
+        <v>4.05264285610192</v>
       </c>
       <c r="E368">
-        <v>3.866027294822322</v>
+        <v>3.866027294822321</v>
       </c>
       <c r="F368">
         <v>4</v>
       </c>
       <c r="G368">
-        <v>4.052642856101921</v>
+        <v>4.05264285610192</v>
       </c>
       <c r="H368">
         <v>4</v>
@@ -11474,7 +11474,7 @@
         <v>375</v>
       </c>
       <c r="B369">
-        <v>4.210381978026565</v>
+        <v>4.210381978026566</v>
       </c>
       <c r="C369">
         <v>3</v>
@@ -11483,7 +11483,7 @@
         <v>4.541073794798599</v>
       </c>
       <c r="E369">
-        <v>4.210381978026565</v>
+        <v>4.210381978026566</v>
       </c>
       <c r="F369">
         <v>4</v>
@@ -11506,7 +11506,7 @@
         <v>4</v>
       </c>
       <c r="D370">
-        <v>4.154896052869248</v>
+        <v>4.154896052869249</v>
       </c>
       <c r="E370">
         <v>3.938118074479712</v>
@@ -11515,7 +11515,7 @@
         <v>4</v>
       </c>
       <c r="G370">
-        <v>4.154896052869248</v>
+        <v>4.154896052869249</v>
       </c>
       <c r="H370">
         <v>4</v>
@@ -11578,22 +11578,22 @@
         <v>379</v>
       </c>
       <c r="B373">
-        <v>3.234054919385715</v>
+        <v>3.234054919385714</v>
       </c>
       <c r="C373">
         <v>4</v>
       </c>
       <c r="D373">
-        <v>3.156256439362556</v>
+        <v>3.156256439362555</v>
       </c>
       <c r="E373">
-        <v>3.234054919385715</v>
+        <v>3.234054919385714</v>
       </c>
       <c r="F373">
         <v>3</v>
       </c>
       <c r="G373">
-        <v>3.156256439362556</v>
+        <v>3.156256439362555</v>
       </c>
       <c r="H373">
         <v>3</v>
@@ -11630,22 +11630,22 @@
         <v>381</v>
       </c>
       <c r="B375">
-        <v>2.663820571634048</v>
+        <v>2.663820571634046</v>
       </c>
       <c r="C375">
         <v>2</v>
       </c>
       <c r="D375">
-        <v>2.347438928423584</v>
+        <v>2.347438928423582</v>
       </c>
       <c r="E375">
-        <v>2.663820571634048</v>
+        <v>2.663820571634046</v>
       </c>
       <c r="F375">
         <v>3</v>
       </c>
       <c r="G375">
-        <v>2.347438928423584</v>
+        <v>2.347438928423582</v>
       </c>
       <c r="H375">
         <v>2</v>
@@ -11656,22 +11656,22 @@
         <v>382</v>
       </c>
       <c r="B376">
-        <v>3.079020252336601</v>
+        <v>3.0790202523366</v>
       </c>
       <c r="C376">
         <v>3</v>
       </c>
       <c r="D376">
-        <v>2.936356052782327</v>
+        <v>2.936356052782326</v>
       </c>
       <c r="E376">
-        <v>3.079020252336601</v>
+        <v>3.0790202523366</v>
       </c>
       <c r="F376">
         <v>3</v>
       </c>
       <c r="G376">
-        <v>2.936356052782327</v>
+        <v>2.936356052782326</v>
       </c>
       <c r="H376">
         <v>3</v>
@@ -11688,7 +11688,7 @@
         <v>4</v>
       </c>
       <c r="D377">
-        <v>3.598531178950217</v>
+        <v>3.598531178950218</v>
       </c>
       <c r="E377">
         <v>3.545868454880297</v>
@@ -11697,7 +11697,7 @@
         <v>4</v>
       </c>
       <c r="G377">
-        <v>3.598531178950217</v>
+        <v>3.598531178950218</v>
       </c>
       <c r="H377">
         <v>4</v>
@@ -11714,7 +11714,7 @@
         <v>4</v>
       </c>
       <c r="D378">
-        <v>4.612635468406426</v>
+        <v>4.612635468406427</v>
       </c>
       <c r="E378">
         <v>4.260834550729157</v>
@@ -11723,7 +11723,7 @@
         <v>4</v>
       </c>
       <c r="G378">
-        <v>4.612635468406426</v>
+        <v>4.612635468406427</v>
       </c>
       <c r="H378">
         <v>5</v>
@@ -11734,7 +11734,7 @@
         <v>385</v>
       </c>
       <c r="B379">
-        <v>3.295628558738602</v>
+        <v>3.295628558738601</v>
       </c>
       <c r="C379">
         <v>3</v>
@@ -11743,7 +11743,7 @@
         <v>3.243592177585298</v>
       </c>
       <c r="E379">
-        <v>3.295628558738602</v>
+        <v>3.295628558738601</v>
       </c>
       <c r="F379">
         <v>3</v>
@@ -11766,7 +11766,7 @@
         <v>4</v>
       </c>
       <c r="D380">
-        <v>3.169875455396416</v>
+        <v>3.169875455396415</v>
       </c>
       <c r="E380">
         <v>3.243656628819616</v>
@@ -11775,7 +11775,7 @@
         <v>3</v>
       </c>
       <c r="G380">
-        <v>3.169875455396416</v>
+        <v>3.169875455396415</v>
       </c>
       <c r="H380">
         <v>3</v>
@@ -11792,7 +11792,7 @@
         <v>4</v>
       </c>
       <c r="D381">
-        <v>3.012457206292427</v>
+        <v>3.012457206292428</v>
       </c>
       <c r="E381">
         <v>3.132673259409362</v>
@@ -11801,7 +11801,7 @@
         <v>3</v>
       </c>
       <c r="G381">
-        <v>3.012457206292427</v>
+        <v>3.012457206292428</v>
       </c>
       <c r="H381">
         <v>3</v>
@@ -11812,22 +11812,22 @@
         <v>388</v>
       </c>
       <c r="B382">
-        <v>1.402025351439124</v>
+        <v>1.402025351439123</v>
       </c>
       <c r="C382">
         <v>1</v>
       </c>
       <c r="D382">
-        <v>0.5577149783727933</v>
+        <v>0.5577149783727928</v>
       </c>
       <c r="E382">
-        <v>1.402025351439124</v>
+        <v>1.402025351439123</v>
       </c>
       <c r="F382">
         <v>1</v>
       </c>
       <c r="G382">
-        <v>0.5577149783727933</v>
+        <v>0.5577149783727928</v>
       </c>
       <c r="H382">
         <v>1</v>
@@ -11844,7 +11844,7 @@
         <v>4</v>
       </c>
       <c r="D383">
-        <v>4.134682188835041</v>
+        <v>4.13468218883504</v>
       </c>
       <c r="E383">
         <v>3.92386685041842</v>
@@ -11853,7 +11853,7 @@
         <v>4</v>
       </c>
       <c r="G383">
-        <v>4.134682188835041</v>
+        <v>4.13468218883504</v>
       </c>
       <c r="H383">
         <v>4</v>
@@ -11870,7 +11870,7 @@
         <v>4</v>
       </c>
       <c r="D384">
-        <v>3.38930327805275</v>
+        <v>3.389303278052749</v>
       </c>
       <c r="E384">
         <v>3.398358127784126</v>
@@ -11879,7 +11879,7 @@
         <v>3</v>
       </c>
       <c r="G384">
-        <v>3.38930327805275</v>
+        <v>3.389303278052749</v>
       </c>
       <c r="H384">
         <v>3</v>
@@ -11896,7 +11896,7 @@
         <v>4</v>
       </c>
       <c r="D385">
-        <v>3.630681815837349</v>
+        <v>3.630681815837348</v>
       </c>
       <c r="E385">
         <v>3.568535369489811</v>
@@ -11905,7 +11905,7 @@
         <v>4</v>
       </c>
       <c r="G385">
-        <v>3.630681815837349</v>
+        <v>3.630681815837348</v>
       </c>
       <c r="H385">
         <v>4</v>
@@ -11942,7 +11942,7 @@
         <v>393</v>
       </c>
       <c r="B387">
-        <v>4.061494264264633</v>
+        <v>4.061494264264634</v>
       </c>
       <c r="C387">
         <v>4</v>
@@ -11951,7 +11951,7 @@
         <v>4.329892215630093</v>
       </c>
       <c r="E387">
-        <v>4.061494264264633</v>
+        <v>4.061494264264634</v>
       </c>
       <c r="F387">
         <v>4</v>
@@ -11968,7 +11968,7 @@
         <v>394</v>
       </c>
       <c r="B388">
-        <v>3.302358541178606</v>
+        <v>3.302358541178607</v>
       </c>
       <c r="C388">
         <v>3</v>
@@ -11977,7 +11977,7 @@
         <v>3.253137950594676</v>
       </c>
       <c r="E388">
-        <v>3.302358541178606</v>
+        <v>3.302358541178607</v>
       </c>
       <c r="F388">
         <v>3</v>
@@ -11994,7 +11994,7 @@
         <v>395</v>
       </c>
       <c r="B389">
-        <v>4.215623163776169</v>
+        <v>4.215623163776168</v>
       </c>
       <c r="C389">
         <v>5</v>
@@ -12003,7 +12003,7 @@
         <v>4.548507866122216</v>
       </c>
       <c r="E389">
-        <v>4.215623163776169</v>
+        <v>4.215623163776168</v>
       </c>
       <c r="F389">
         <v>4</v>
@@ -12020,22 +12020,22 @@
         <v>396</v>
       </c>
       <c r="B390">
-        <v>3.259121493287129</v>
+        <v>3.25912149328713</v>
       </c>
       <c r="C390">
         <v>3</v>
       </c>
       <c r="D390">
-        <v>3.191810740836411</v>
+        <v>3.191810740836412</v>
       </c>
       <c r="E390">
-        <v>3.259121493287129</v>
+        <v>3.25912149328713</v>
       </c>
       <c r="F390">
         <v>3</v>
       </c>
       <c r="G390">
-        <v>3.191810740836411</v>
+        <v>3.191810740836412</v>
       </c>
       <c r="H390">
         <v>3</v>
@@ -12072,22 +12072,22 @@
         <v>398</v>
       </c>
       <c r="B392">
-        <v>4.079292803125544</v>
+        <v>4.079292803125545</v>
       </c>
       <c r="C392">
         <v>4</v>
       </c>
       <c r="D392">
-        <v>4.355137573010953</v>
+        <v>4.355137573010954</v>
       </c>
       <c r="E392">
-        <v>4.079292803125544</v>
+        <v>4.079292803125545</v>
       </c>
       <c r="F392">
         <v>4</v>
       </c>
       <c r="G392">
-        <v>4.355137573010953</v>
+        <v>4.355137573010954</v>
       </c>
       <c r="H392">
         <v>4</v>
@@ -12104,7 +12104,7 @@
         <v>4</v>
       </c>
       <c r="D393">
-        <v>3.576421812985078</v>
+        <v>3.576421812985077</v>
       </c>
       <c r="E393">
         <v>3.530280859767899</v>
@@ -12113,7 +12113,7 @@
         <v>4</v>
       </c>
       <c r="G393">
-        <v>3.576421812985078</v>
+        <v>3.576421812985077</v>
       </c>
       <c r="H393">
         <v>4</v>
@@ -12124,22 +12124,22 @@
         <v>400</v>
       </c>
       <c r="B394">
-        <v>3.18624148940131</v>
+        <v>3.186241489401311</v>
       </c>
       <c r="C394">
         <v>2</v>
       </c>
       <c r="D394">
-        <v>3.088438112420451</v>
+        <v>3.088438112420452</v>
       </c>
       <c r="E394">
-        <v>3.18624148940131</v>
+        <v>3.186241489401311</v>
       </c>
       <c r="F394">
         <v>3</v>
       </c>
       <c r="G394">
-        <v>3.088438112420451</v>
+        <v>3.088438112420452</v>
       </c>
       <c r="H394">
         <v>3</v>
@@ -12182,7 +12182,7 @@
         <v>1</v>
       </c>
       <c r="D396">
-        <v>2.050615497437432</v>
+        <v>2.050615497437431</v>
       </c>
       <c r="E396">
         <v>2.454553446137092</v>
@@ -12191,7 +12191,7 @@
         <v>2</v>
       </c>
       <c r="G396">
-        <v>2.050615497437432</v>
+        <v>2.050615497437431</v>
       </c>
       <c r="H396">
         <v>2</v>
@@ -12202,7 +12202,7 @@
         <v>403</v>
       </c>
       <c r="B397">
-        <v>2.705038845171922</v>
+        <v>2.705038845171921</v>
       </c>
       <c r="C397">
         <v>3</v>
@@ -12211,7 +12211,7 @@
         <v>2.40590271886264</v>
       </c>
       <c r="E397">
-        <v>2.705038845171922</v>
+        <v>2.705038845171921</v>
       </c>
       <c r="F397">
         <v>3</v>
@@ -12228,22 +12228,22 @@
         <v>404</v>
       </c>
       <c r="B398">
-        <v>3.330980600544956</v>
+        <v>3.330980600544957</v>
       </c>
       <c r="C398">
         <v>3</v>
       </c>
       <c r="D398">
-        <v>3.293735334645487</v>
+        <v>3.293735334645488</v>
       </c>
       <c r="E398">
-        <v>3.330980600544956</v>
+        <v>3.330980600544957</v>
       </c>
       <c r="F398">
         <v>3</v>
       </c>
       <c r="G398">
-        <v>3.293735334645487</v>
+        <v>3.293735334645488</v>
       </c>
       <c r="H398">
         <v>3</v>
@@ -12260,7 +12260,7 @@
         <v>4</v>
       </c>
       <c r="D399">
-        <v>2.498304701792626</v>
+        <v>2.498304701792627</v>
       </c>
       <c r="E399">
         <v>2.770184299807136</v>
@@ -12269,7 +12269,7 @@
         <v>3</v>
       </c>
       <c r="G399">
-        <v>2.498304701792626</v>
+        <v>2.498304701792627</v>
       </c>
       <c r="H399">
         <v>2</v>
@@ -12280,22 +12280,22 @@
         <v>406</v>
       </c>
       <c r="B400">
-        <v>3.584776346382804</v>
+        <v>3.584776346382805</v>
       </c>
       <c r="C400">
         <v>3</v>
       </c>
       <c r="D400">
-        <v>3.653717935211077</v>
+        <v>3.653717935211079</v>
       </c>
       <c r="E400">
-        <v>3.584776346382804</v>
+        <v>3.584776346382805</v>
       </c>
       <c r="F400">
         <v>4</v>
       </c>
       <c r="G400">
-        <v>3.653717935211077</v>
+        <v>3.653717935211079</v>
       </c>
       <c r="H400">
         <v>4</v>
@@ -12306,22 +12306,22 @@
         <v>407</v>
       </c>
       <c r="B401">
-        <v>3.030716069931952</v>
+        <v>3.030716069931951</v>
       </c>
       <c r="C401">
         <v>4</v>
       </c>
       <c r="D401">
-        <v>2.867841645092727</v>
+        <v>2.867841645092726</v>
       </c>
       <c r="E401">
-        <v>3.030716069931952</v>
+        <v>3.030716069931951</v>
       </c>
       <c r="F401">
         <v>3</v>
       </c>
       <c r="G401">
-        <v>2.867841645092727</v>
+        <v>2.867841645092726</v>
       </c>
       <c r="H401">
         <v>3</v>
@@ -12364,7 +12364,7 @@
         <v>4</v>
       </c>
       <c r="D403">
-        <v>3.720117317295892</v>
+        <v>3.720117317295893</v>
       </c>
       <c r="E403">
         <v>3.631589388660156</v>
@@ -12373,7 +12373,7 @@
         <v>4</v>
       </c>
       <c r="G403">
-        <v>3.720117317295892</v>
+        <v>3.720117317295893</v>
       </c>
       <c r="H403">
         <v>4</v>
@@ -12390,7 +12390,7 @@
         <v>3</v>
       </c>
       <c r="D404">
-        <v>3.588020518913926</v>
+        <v>3.588020518913927</v>
       </c>
       <c r="E404">
         <v>3.538458205610006</v>
@@ -12399,7 +12399,7 @@
         <v>4</v>
       </c>
       <c r="G404">
-        <v>3.588020518913926</v>
+        <v>3.588020518913927</v>
       </c>
       <c r="H404">
         <v>4</v>
@@ -12410,22 +12410,22 @@
         <v>411</v>
       </c>
       <c r="B405">
-        <v>2.933599825339566</v>
+        <v>2.933599825339567</v>
       </c>
       <c r="C405">
         <v>3</v>
       </c>
       <c r="D405">
-        <v>2.730092455601319</v>
+        <v>2.730092455601321</v>
       </c>
       <c r="E405">
-        <v>2.933599825339566</v>
+        <v>2.933599825339567</v>
       </c>
       <c r="F405">
         <v>3</v>
       </c>
       <c r="G405">
-        <v>2.730092455601319</v>
+        <v>2.730092455601321</v>
       </c>
       <c r="H405">
         <v>3</v>
@@ -12436,22 +12436,22 @@
         <v>412</v>
       </c>
       <c r="B406">
-        <v>3.316123170935621</v>
+        <v>3.31612317093562</v>
       </c>
       <c r="C406">
         <v>3</v>
       </c>
       <c r="D406">
-        <v>3.27266163173202</v>
+        <v>3.272661631732019</v>
       </c>
       <c r="E406">
-        <v>3.316123170935621</v>
+        <v>3.31612317093562</v>
       </c>
       <c r="F406">
         <v>3</v>
       </c>
       <c r="G406">
-        <v>3.27266163173202</v>
+        <v>3.272661631732019</v>
       </c>
       <c r="H406">
         <v>3</v>
@@ -12462,22 +12462,22 @@
         <v>413</v>
       </c>
       <c r="B407">
-        <v>3.80707286652461</v>
+        <v>3.807072866524611</v>
       </c>
       <c r="C407">
         <v>4</v>
       </c>
       <c r="D407">
-        <v>3.969022193575028</v>
+        <v>3.96902219357503</v>
       </c>
       <c r="E407">
-        <v>3.80707286652461</v>
+        <v>3.807072866524611</v>
       </c>
       <c r="F407">
         <v>4</v>
       </c>
       <c r="G407">
-        <v>3.969022193575028</v>
+        <v>3.96902219357503</v>
       </c>
       <c r="H407">
         <v>4</v>
@@ -12514,22 +12514,22 @@
         <v>415</v>
       </c>
       <c r="B409">
-        <v>3.468921039584299</v>
+        <v>3.468921039584298</v>
       </c>
       <c r="C409">
         <v>3</v>
       </c>
       <c r="D409">
-        <v>3.48938935478918</v>
+        <v>3.489389354789178</v>
       </c>
       <c r="E409">
-        <v>3.468921039584299</v>
+        <v>3.468921039584298</v>
       </c>
       <c r="F409">
         <v>3</v>
       </c>
       <c r="G409">
-        <v>3.48938935478918</v>
+        <v>3.489389354789178</v>
       </c>
       <c r="H409">
         <v>3</v>
@@ -12598,7 +12598,7 @@
         <v>3</v>
       </c>
       <c r="D412">
-        <v>4.256150675202681</v>
+        <v>4.256150675202682</v>
       </c>
       <c r="E412">
         <v>4.009504836935085</v>
@@ -12607,7 +12607,7 @@
         <v>4</v>
       </c>
       <c r="G412">
-        <v>4.256150675202681</v>
+        <v>4.256150675202682</v>
       </c>
       <c r="H412">
         <v>4</v>
@@ -12618,22 +12618,22 @@
         <v>419</v>
       </c>
       <c r="B413">
-        <v>3.74058183422212</v>
+        <v>3.740581834222121</v>
       </c>
       <c r="C413">
         <v>4</v>
       </c>
       <c r="D413">
-        <v>3.874711650096362</v>
+        <v>3.874711650096363</v>
       </c>
       <c r="E413">
-        <v>3.74058183422212</v>
+        <v>3.740581834222121</v>
       </c>
       <c r="F413">
         <v>4</v>
       </c>
       <c r="G413">
-        <v>3.874711650096362</v>
+        <v>3.874711650096363</v>
       </c>
       <c r="H413">
         <v>4</v>
@@ -12644,22 +12644,22 @@
         <v>420</v>
       </c>
       <c r="B414">
-        <v>3.380104805631858</v>
+        <v>3.380104805631859</v>
       </c>
       <c r="C414">
         <v>3</v>
       </c>
       <c r="D414">
-        <v>3.363412858354646</v>
+        <v>3.363412858354647</v>
       </c>
       <c r="E414">
-        <v>3.380104805631858</v>
+        <v>3.380104805631859</v>
       </c>
       <c r="F414">
         <v>3</v>
       </c>
       <c r="G414">
-        <v>3.363412858354646</v>
+        <v>3.363412858354647</v>
       </c>
       <c r="H414">
         <v>3</v>
@@ -12676,7 +12676,7 @@
         <v>4</v>
       </c>
       <c r="D415">
-        <v>4.400370347475215</v>
+        <v>4.400370347475214</v>
       </c>
       <c r="E415">
         <v>4.111182915907206</v>
@@ -12685,7 +12685,7 @@
         <v>4</v>
       </c>
       <c r="G415">
-        <v>4.400370347475215</v>
+        <v>4.400370347475214</v>
       </c>
       <c r="H415">
         <v>4</v>
@@ -12696,22 +12696,22 @@
         <v>422</v>
       </c>
       <c r="B416">
-        <v>2.409014648101395</v>
+        <v>2.409014648101394</v>
       </c>
       <c r="C416">
         <v>2</v>
       </c>
       <c r="D416">
-        <v>1.986023496931657</v>
+        <v>1.986023496931656</v>
       </c>
       <c r="E416">
-        <v>2.409014648101395</v>
+        <v>2.409014648101394</v>
       </c>
       <c r="F416">
         <v>2</v>
       </c>
       <c r="G416">
-        <v>1.986023496931657</v>
+        <v>1.986023496931656</v>
       </c>
       <c r="H416">
         <v>2</v>
@@ -12722,22 +12722,22 @@
         <v>423</v>
       </c>
       <c r="B417">
-        <v>3.562577626899493</v>
+        <v>3.562577626899492</v>
       </c>
       <c r="C417">
         <v>3</v>
       </c>
       <c r="D417">
-        <v>3.622231383919812</v>
+        <v>3.622231383919811</v>
       </c>
       <c r="E417">
-        <v>3.562577626899493</v>
+        <v>3.562577626899492</v>
       </c>
       <c r="F417">
         <v>4</v>
       </c>
       <c r="G417">
-        <v>3.622231383919812</v>
+        <v>3.622231383919811</v>
       </c>
       <c r="H417">
         <v>4</v>
@@ -12754,7 +12754,7 @@
         <v>3</v>
       </c>
       <c r="D418">
-        <v>3.64539503807869</v>
+        <v>3.645395038078689</v>
       </c>
       <c r="E418">
         <v>3.578908518654666</v>
@@ -12763,7 +12763,7 @@
         <v>4</v>
       </c>
       <c r="G418">
-        <v>3.64539503807869</v>
+        <v>3.645395038078689</v>
       </c>
       <c r="H418">
         <v>4</v>
@@ -12774,22 +12774,22 @@
         <v>425</v>
       </c>
       <c r="B419">
-        <v>4.30117982331421</v>
+        <v>4.301179823314212</v>
       </c>
       <c r="C419">
         <v>4</v>
       </c>
       <c r="D419">
-        <v>4.669860998715254</v>
+        <v>4.669860998715256</v>
       </c>
       <c r="E419">
-        <v>4.30117982331421</v>
+        <v>4.301179823314212</v>
       </c>
       <c r="F419">
         <v>4</v>
       </c>
       <c r="G419">
-        <v>4.669860998715254</v>
+        <v>4.669860998715256</v>
       </c>
       <c r="H419">
         <v>5</v>
@@ -12806,7 +12806,7 @@
         <v>3</v>
       </c>
       <c r="D420">
-        <v>2.811339147288737</v>
+        <v>2.811339147288738</v>
       </c>
       <c r="E420">
         <v>2.990880551355958</v>
@@ -12815,7 +12815,7 @@
         <v>3</v>
       </c>
       <c r="G420">
-        <v>2.811339147288737</v>
+        <v>2.811339147288738</v>
       </c>
       <c r="H420">
         <v>3</v>
@@ -12832,7 +12832,7 @@
         <v>3</v>
       </c>
       <c r="D421">
-        <v>2.447751179084352</v>
+        <v>2.447751179084351</v>
       </c>
       <c r="E421">
         <v>2.734542941085023</v>
@@ -12841,7 +12841,7 @@
         <v>3</v>
       </c>
       <c r="G421">
-        <v>2.447751179084352</v>
+        <v>2.447751179084351</v>
       </c>
       <c r="H421">
         <v>2</v>
@@ -12884,7 +12884,7 @@
         <v>3</v>
       </c>
       <c r="D423">
-        <v>2.694209007152508</v>
+        <v>2.694209007152506</v>
       </c>
       <c r="E423">
         <v>2.908301195494702</v>
@@ -12893,7 +12893,7 @@
         <v>3</v>
       </c>
       <c r="G423">
-        <v>2.694209007152508</v>
+        <v>2.694209007152506</v>
       </c>
       <c r="H423">
         <v>3</v>
@@ -12904,22 +12904,22 @@
         <v>430</v>
       </c>
       <c r="B424">
-        <v>3.681111233186901</v>
+        <v>3.6811112331869</v>
       </c>
       <c r="C424">
         <v>3</v>
       </c>
       <c r="D424">
-        <v>3.790358850772709</v>
+        <v>3.790358850772707</v>
       </c>
       <c r="E424">
-        <v>3.681111233186901</v>
+        <v>3.6811112331869</v>
       </c>
       <c r="F424">
         <v>4</v>
       </c>
       <c r="G424">
-        <v>3.790358850772709</v>
+        <v>3.790358850772707</v>
       </c>
       <c r="H424">
         <v>4</v>
@@ -12936,7 +12936,7 @@
         <v>4</v>
       </c>
       <c r="D425">
-        <v>4.314316570471067</v>
+        <v>4.314316570471066</v>
       </c>
       <c r="E425">
         <v>4.050513087747129</v>
@@ -12945,7 +12945,7 @@
         <v>4</v>
       </c>
       <c r="G425">
-        <v>4.314316570471067</v>
+        <v>4.314316570471066</v>
       </c>
       <c r="H425">
         <v>4</v>
@@ -12956,22 +12956,22 @@
         <v>432</v>
       </c>
       <c r="B426">
-        <v>4.029870296106426</v>
+        <v>4.029870296106427</v>
       </c>
       <c r="C426">
         <v>4</v>
       </c>
       <c r="D426">
-        <v>4.28503693935187</v>
+        <v>4.285036939351869</v>
       </c>
       <c r="E426">
-        <v>4.029870296106426</v>
+        <v>4.029870296106427</v>
       </c>
       <c r="F426">
         <v>4</v>
       </c>
       <c r="G426">
-        <v>4.28503693935187</v>
+        <v>4.285036939351869</v>
       </c>
       <c r="H426">
         <v>4</v>
@@ -13014,7 +13014,7 @@
         <v>4</v>
       </c>
       <c r="D428">
-        <v>4.156489204763686</v>
+        <v>4.156489204763685</v>
       </c>
       <c r="E428">
         <v>3.939241282025427</v>
@@ -13023,7 +13023,7 @@
         <v>4</v>
       </c>
       <c r="G428">
-        <v>4.156489204763686</v>
+        <v>4.156489204763685</v>
       </c>
       <c r="H428">
         <v>4</v>
@@ -13060,7 +13060,7 @@
         <v>436</v>
       </c>
       <c r="B430">
-        <v>3.616688013258267</v>
+        <v>3.616688013258268</v>
       </c>
       <c r="C430">
         <v>4</v>
@@ -13069,7 +13069,7 @@
         <v>3.698981281892828</v>
       </c>
       <c r="E430">
-        <v>3.616688013258267</v>
+        <v>3.616688013258268</v>
       </c>
       <c r="F430">
         <v>4</v>
@@ -13086,22 +13086,22 @@
         <v>437</v>
       </c>
       <c r="B431">
-        <v>4.148219765251491</v>
+        <v>4.14821976525149</v>
       </c>
       <c r="C431">
         <v>4</v>
       </c>
       <c r="D431">
-        <v>4.452903227014613</v>
+        <v>4.452903227014612</v>
       </c>
       <c r="E431">
-        <v>4.148219765251491</v>
+        <v>4.14821976525149</v>
       </c>
       <c r="F431">
         <v>4</v>
       </c>
       <c r="G431">
-        <v>4.452903227014613</v>
+        <v>4.452903227014612</v>
       </c>
       <c r="H431">
         <v>4</v>
@@ -13112,22 +13112,22 @@
         <v>438</v>
       </c>
       <c r="B432">
-        <v>3.107332535465857</v>
+        <v>3.107332535465856</v>
       </c>
       <c r="C432">
         <v>4</v>
       </c>
       <c r="D432">
-        <v>2.976514051787285</v>
+        <v>2.976514051787284</v>
       </c>
       <c r="E432">
-        <v>3.107332535465857</v>
+        <v>3.107332535465856</v>
       </c>
       <c r="F432">
         <v>3</v>
       </c>
       <c r="G432">
-        <v>2.976514051787285</v>
+        <v>2.976514051787284</v>
       </c>
       <c r="H432">
         <v>3</v>
@@ -13144,7 +13144,7 @@
         <v>4</v>
       </c>
       <c r="D433">
-        <v>4.40960734982096</v>
+        <v>4.409607349820959</v>
       </c>
       <c r="E433">
         <v>4.117695208156778</v>
@@ -13153,7 +13153,7 @@
         <v>4</v>
       </c>
       <c r="G433">
-        <v>4.40960734982096</v>
+        <v>4.409607349820959</v>
       </c>
       <c r="H433">
         <v>4</v>
@@ -13164,7 +13164,7 @@
         <v>440</v>
       </c>
       <c r="B434">
-        <v>2.654203888742736</v>
+        <v>2.654203888742735</v>
       </c>
       <c r="C434">
         <v>3</v>
@@ -13173,7 +13173,7 @@
         <v>2.333798674113565</v>
       </c>
       <c r="E434">
-        <v>2.654203888742736</v>
+        <v>2.654203888742735</v>
       </c>
       <c r="F434">
         <v>3</v>
@@ -13190,7 +13190,7 @@
         <v>441</v>
       </c>
       <c r="B435">
-        <v>3.345413892744608</v>
+        <v>3.345413892744607</v>
       </c>
       <c r="C435">
         <v>3</v>
@@ -13199,7 +13199,7 @@
         <v>3.314207443205073</v>
       </c>
       <c r="E435">
-        <v>3.345413892744608</v>
+        <v>3.345413892744607</v>
       </c>
       <c r="F435">
         <v>3</v>
@@ -13242,22 +13242,22 @@
         <v>443</v>
       </c>
       <c r="B437">
-        <v>3.09500329205998</v>
+        <v>3.095003292059979</v>
       </c>
       <c r="C437">
         <v>3</v>
       </c>
       <c r="D437">
-        <v>2.95902631538098</v>
+        <v>2.959026315380979</v>
       </c>
       <c r="E437">
-        <v>3.09500329205998</v>
+        <v>3.095003292059979</v>
       </c>
       <c r="F437">
         <v>3</v>
       </c>
       <c r="G437">
-        <v>2.95902631538098</v>
+        <v>2.959026315380979</v>
       </c>
       <c r="H437">
         <v>3</v>
@@ -13300,7 +13300,7 @@
         <v>4</v>
       </c>
       <c r="D439">
-        <v>3.913794446693711</v>
+        <v>3.91379444669371</v>
       </c>
       <c r="E439">
         <v>3.768136075722317</v>
@@ -13309,7 +13309,7 @@
         <v>4</v>
       </c>
       <c r="G439">
-        <v>3.913794446693711</v>
+        <v>3.91379444669371</v>
       </c>
       <c r="H439">
         <v>4</v>
@@ -13326,7 +13326,7 @@
         <v>3</v>
       </c>
       <c r="D440">
-        <v>4.135893655668406</v>
+        <v>4.135893655668407</v>
       </c>
       <c r="E440">
         <v>3.924720961500592</v>
@@ -13335,7 +13335,7 @@
         <v>4</v>
       </c>
       <c r="G440">
-        <v>4.135893655668406</v>
+        <v>4.135893655668407</v>
       </c>
       <c r="H440">
         <v>4</v>
@@ -13372,22 +13372,22 @@
         <v>448</v>
       </c>
       <c r="B442">
-        <v>3.353357920986744</v>
+        <v>3.353357920986745</v>
       </c>
       <c r="C442">
         <v>3</v>
       </c>
       <c r="D442">
-        <v>3.325475212631744</v>
+        <v>3.325475212631745</v>
       </c>
       <c r="E442">
-        <v>3.353357920986744</v>
+        <v>3.353357920986745</v>
       </c>
       <c r="F442">
         <v>3</v>
       </c>
       <c r="G442">
-        <v>3.325475212631744</v>
+        <v>3.325475212631745</v>
       </c>
       <c r="H442">
         <v>3</v>
@@ -13404,7 +13404,7 @@
         <v>3</v>
       </c>
       <c r="D443">
-        <v>3.023553937274222</v>
+        <v>3.023553937274223</v>
       </c>
       <c r="E443">
         <v>3.140496701740913</v>
@@ -13413,7 +13413,7 @@
         <v>3</v>
       </c>
       <c r="G443">
-        <v>3.023553937274222</v>
+        <v>3.023553937274223</v>
       </c>
       <c r="H443">
         <v>3</v>
@@ -13430,7 +13430,7 @@
         <v>4</v>
       </c>
       <c r="D444">
-        <v>2.939641422151688</v>
+        <v>2.939641422151689</v>
       </c>
       <c r="E444">
         <v>3.081336510867263</v>
@@ -13439,7 +13439,7 @@
         <v>3</v>
       </c>
       <c r="G444">
-        <v>2.939641422151688</v>
+        <v>2.939641422151689</v>
       </c>
       <c r="H444">
         <v>3</v>
@@ -13456,7 +13456,7 @@
         <v>4</v>
       </c>
       <c r="D445">
-        <v>3.368671492093517</v>
+        <v>3.368671492093516</v>
       </c>
       <c r="E445">
         <v>3.383812259463648</v>
@@ -13465,7 +13465,7 @@
         <v>3</v>
       </c>
       <c r="G445">
-        <v>3.368671492093517</v>
+        <v>3.368671492093516</v>
       </c>
       <c r="H445">
         <v>3</v>
@@ -13476,22 +13476,22 @@
         <v>452</v>
       </c>
       <c r="B446">
-        <v>1.239548010293273</v>
+        <v>1.239548010293272</v>
       </c>
       <c r="C446">
         <v>1</v>
       </c>
       <c r="D446">
-        <v>0.3272579405466534</v>
+        <v>0.3272579405466542</v>
       </c>
       <c r="E446">
-        <v>1.239548010293273</v>
+        <v>1.239548010293272</v>
       </c>
       <c r="F446">
         <v>1</v>
       </c>
       <c r="G446">
-        <v>0.50002</v>
+        <v>0.5002</v>
       </c>
       <c r="H446">
         <v>1</v>
@@ -13508,7 +13508,7 @@
         <v>3</v>
       </c>
       <c r="D447">
-        <v>2.955294571929944</v>
+        <v>2.955294571929945</v>
       </c>
       <c r="E447">
         <v>3.09237232986641</v>
@@ -13517,7 +13517,7 @@
         <v>3</v>
       </c>
       <c r="G447">
-        <v>2.955294571929944</v>
+        <v>2.955294571929945</v>
       </c>
       <c r="H447">
         <v>3</v>
@@ -13554,7 +13554,7 @@
         <v>455</v>
       </c>
       <c r="B449">
-        <v>3.177606834820923</v>
+        <v>3.177606834820922</v>
       </c>
       <c r="C449">
         <v>4</v>
@@ -13563,7 +13563,7 @@
         <v>3.076190762093233</v>
       </c>
       <c r="E449">
-        <v>3.177606834820923</v>
+        <v>3.177606834820922</v>
       </c>
       <c r="F449">
         <v>3</v>
@@ -13580,7 +13580,7 @@
         <v>456</v>
       </c>
       <c r="B450">
-        <v>4.336586050194493</v>
+        <v>4.336586050194494</v>
       </c>
       <c r="C450">
         <v>5</v>
@@ -13589,7 +13589,7 @@
         <v>4.720081011609887</v>
       </c>
       <c r="E450">
-        <v>4.336586050194493</v>
+        <v>4.336586050194494</v>
       </c>
       <c r="F450">
         <v>4</v>
@@ -13606,22 +13606,22 @@
         <v>457</v>
       </c>
       <c r="B451">
-        <v>3.161869909568931</v>
+        <v>3.161869909568932</v>
       </c>
       <c r="C451">
         <v>3</v>
       </c>
       <c r="D451">
-        <v>3.053869587014366</v>
+        <v>3.053869587014367</v>
       </c>
       <c r="E451">
-        <v>3.161869909568931</v>
+        <v>3.161869909568932</v>
       </c>
       <c r="F451">
         <v>3</v>
       </c>
       <c r="G451">
-        <v>3.053869587014366</v>
+        <v>3.053869587014367</v>
       </c>
       <c r="H451">
         <v>3</v>
@@ -13664,7 +13664,7 @@
         <v>3</v>
       </c>
       <c r="D453">
-        <v>3.6048754779382</v>
+        <v>3.604875477938199</v>
       </c>
       <c r="E453">
         <v>3.550341326877286</v>
@@ -13673,7 +13673,7 @@
         <v>4</v>
       </c>
       <c r="G453">
-        <v>3.6048754779382</v>
+        <v>3.604875477938199</v>
       </c>
       <c r="H453">
         <v>4</v>
@@ -13690,7 +13690,7 @@
         <v>5</v>
       </c>
       <c r="D454">
-        <v>4.752977962908167</v>
+        <v>4.752977962908166</v>
       </c>
       <c r="E454">
         <v>4.359779133075223</v>
@@ -13699,7 +13699,7 @@
         <v>4</v>
       </c>
       <c r="G454">
-        <v>4.752977962908167</v>
+        <v>4.752977962908166</v>
       </c>
       <c r="H454">
         <v>5</v>
@@ -13710,22 +13710,22 @@
         <v>461</v>
       </c>
       <c r="B455">
-        <v>3.745363965728731</v>
+        <v>3.74536396572873</v>
       </c>
       <c r="C455">
         <v>4</v>
       </c>
       <c r="D455">
-        <v>3.881494601206567</v>
+        <v>3.881494601206566</v>
       </c>
       <c r="E455">
-        <v>3.745363965728731</v>
+        <v>3.74536396572873</v>
       </c>
       <c r="F455">
         <v>4</v>
       </c>
       <c r="G455">
-        <v>3.881494601206567</v>
+        <v>3.881494601206566</v>
       </c>
       <c r="H455">
         <v>4</v>
@@ -13736,22 +13736,22 @@
         <v>462</v>
       </c>
       <c r="B456">
-        <v>3.77824325962956</v>
+        <v>3.778243259629559</v>
       </c>
       <c r="C456">
         <v>3</v>
       </c>
       <c r="D456">
-        <v>3.928130425160619</v>
+        <v>3.928130425160616</v>
       </c>
       <c r="E456">
-        <v>3.77824325962956</v>
+        <v>3.778243259629559</v>
       </c>
       <c r="F456">
         <v>4</v>
       </c>
       <c r="G456">
-        <v>3.928130425160619</v>
+        <v>3.928130425160616</v>
       </c>
       <c r="H456">
         <v>4</v>
@@ -13768,7 +13768,7 @@
         <v>4</v>
       </c>
       <c r="D457">
-        <v>4.193189359551407</v>
+        <v>4.193189359551405</v>
       </c>
       <c r="E457">
         <v>3.965115708017349</v>
@@ -13777,7 +13777,7 @@
         <v>4</v>
       </c>
       <c r="G457">
-        <v>4.193189359551407</v>
+        <v>4.193189359551405</v>
       </c>
       <c r="H457">
         <v>4</v>
@@ -13794,7 +13794,7 @@
         <v>3</v>
       </c>
       <c r="D458">
-        <v>3.690457765145985</v>
+        <v>3.690457765145983</v>
       </c>
       <c r="E458">
         <v>3.610678744236576</v>
@@ -13803,7 +13803,7 @@
         <v>4</v>
       </c>
       <c r="G458">
-        <v>3.690457765145985</v>
+        <v>3.690457765145983</v>
       </c>
       <c r="H458">
         <v>4</v>
@@ -13840,7 +13840,7 @@
         <v>466</v>
       </c>
       <c r="B460">
-        <v>3.024300386000463</v>
+        <v>3.024300386000462</v>
       </c>
       <c r="C460">
         <v>3</v>
@@ -13849,7 +13849,7 @@
         <v>2.858741671496086</v>
       </c>
       <c r="E460">
-        <v>3.024300386000463</v>
+        <v>3.024300386000462</v>
       </c>
       <c r="F460">
         <v>3</v>
@@ -13872,7 +13872,7 @@
         <v>4</v>
       </c>
       <c r="D461">
-        <v>3.486608516732975</v>
+        <v>3.486608516732974</v>
       </c>
       <c r="E461">
         <v>3.466960486859195</v>
@@ -13881,7 +13881,7 @@
         <v>3</v>
       </c>
       <c r="G461">
-        <v>3.486608516732975</v>
+        <v>3.486608516732974</v>
       </c>
       <c r="H461">
         <v>3</v>
@@ -13892,22 +13892,22 @@
         <v>468</v>
       </c>
       <c r="B462">
-        <v>3.223460783161338</v>
+        <v>3.223460783161336</v>
       </c>
       <c r="C462">
         <v>3</v>
       </c>
       <c r="D462">
-        <v>3.141229770195162</v>
+        <v>3.14122977019516</v>
       </c>
       <c r="E462">
-        <v>3.223460783161338</v>
+        <v>3.223460783161336</v>
       </c>
       <c r="F462">
         <v>3</v>
       </c>
       <c r="G462">
-        <v>3.141229770195162</v>
+        <v>3.14122977019516</v>
       </c>
       <c r="H462">
         <v>3</v>
@@ -13924,7 +13924,7 @@
         <v>3</v>
       </c>
       <c r="D463">
-        <v>3.25556830945098</v>
+        <v>3.255568309450979</v>
       </c>
       <c r="E463">
         <v>3.304071998266866</v>
@@ -13933,7 +13933,7 @@
         <v>3</v>
       </c>
       <c r="G463">
-        <v>3.25556830945098</v>
+        <v>3.255568309450979</v>
       </c>
       <c r="H463">
         <v>3</v>
@@ -13950,7 +13950,7 @@
         <v>6</v>
       </c>
       <c r="D464">
-        <v>5.100512631740699</v>
+        <v>5.100512631740698</v>
       </c>
       <c r="E464">
         <v>4.604798809977055</v>
@@ -13959,7 +13959,7 @@
         <v>5</v>
       </c>
       <c r="G464">
-        <v>5.100512631740699</v>
+        <v>5.100512631740698</v>
       </c>
       <c r="H464">
         <v>5</v>
@@ -13970,7 +13970,7 @@
         <v>471</v>
       </c>
       <c r="B465">
-        <v>4.442829219180672</v>
+        <v>4.442829219180675</v>
       </c>
       <c r="C465">
         <v>4</v>
@@ -13979,7 +13979,7 @@
         <v>4.870775784438783</v>
       </c>
       <c r="E465">
-        <v>4.442829219180672</v>
+        <v>4.442829219180675</v>
       </c>
       <c r="F465">
         <v>4</v>
@@ -14022,22 +14022,22 @@
         <v>473</v>
       </c>
       <c r="B467">
-        <v>3.728273487596615</v>
+        <v>3.728273487596614</v>
       </c>
       <c r="C467">
         <v>4</v>
       </c>
       <c r="D467">
-        <v>3.857253553577506</v>
+        <v>3.857253553577505</v>
       </c>
       <c r="E467">
-        <v>3.728273487596615</v>
+        <v>3.728273487596614</v>
       </c>
       <c r="F467">
         <v>4</v>
       </c>
       <c r="G467">
-        <v>3.857253553577506</v>
+        <v>3.857253553577505</v>
       </c>
       <c r="H467">
         <v>4</v>
@@ -14048,7 +14048,7 @@
         <v>474</v>
       </c>
       <c r="B468">
-        <v>3.837040605283075</v>
+        <v>3.837040605283076</v>
       </c>
       <c r="C468">
         <v>4</v>
@@ -14057,7 +14057,7 @@
         <v>4.011528282460517</v>
       </c>
       <c r="E468">
-        <v>3.837040605283075</v>
+        <v>3.837040605283076</v>
       </c>
       <c r="F468">
         <v>4</v>
@@ -14080,7 +14080,7 @@
         <v>3</v>
       </c>
       <c r="D469">
-        <v>4.640385401051927</v>
+        <v>4.640385401051926</v>
       </c>
       <c r="E469">
         <v>4.280398870898102</v>
@@ -14089,7 +14089,7 @@
         <v>4</v>
       </c>
       <c r="G469">
-        <v>4.640385401051927</v>
+        <v>4.640385401051926</v>
       </c>
       <c r="H469">
         <v>5</v>
@@ -14100,22 +14100,22 @@
         <v>476</v>
       </c>
       <c r="B470">
-        <v>4.008253017810056</v>
+        <v>4.008253017810057</v>
       </c>
       <c r="C470">
         <v>4</v>
       </c>
       <c r="D470">
-        <v>4.254375101295493</v>
+        <v>4.254375101295492</v>
       </c>
       <c r="E470">
-        <v>4.008253017810056</v>
+        <v>4.008253017810057</v>
       </c>
       <c r="F470">
         <v>4</v>
       </c>
       <c r="G470">
-        <v>4.254375101295493</v>
+        <v>4.254375101295492</v>
       </c>
       <c r="H470">
         <v>4</v>
@@ -14126,22 +14126,22 @@
         <v>477</v>
       </c>
       <c r="B471">
-        <v>3.31063536563215</v>
+        <v>3.310635365632149</v>
       </c>
       <c r="C471">
         <v>4</v>
       </c>
       <c r="D471">
-        <v>3.264877756482183</v>
+        <v>3.264877756482181</v>
       </c>
       <c r="E471">
-        <v>3.31063536563215</v>
+        <v>3.310635365632149</v>
       </c>
       <c r="F471">
         <v>3</v>
       </c>
       <c r="G471">
-        <v>3.264877756482183</v>
+        <v>3.264877756482181</v>
       </c>
       <c r="H471">
         <v>3</v>
@@ -14178,22 +14178,22 @@
         <v>479</v>
       </c>
       <c r="B473">
-        <v>3.290264928210207</v>
+        <v>3.290264928210206</v>
       </c>
       <c r="C473">
         <v>4</v>
       </c>
       <c r="D473">
-        <v>3.235984431207555</v>
+        <v>3.235984431207554</v>
       </c>
       <c r="E473">
-        <v>3.290264928210207</v>
+        <v>3.290264928210206</v>
       </c>
       <c r="F473">
         <v>3</v>
       </c>
       <c r="G473">
-        <v>3.235984431207555</v>
+        <v>3.235984431207554</v>
       </c>
       <c r="H473">
         <v>3</v>
@@ -14230,22 +14230,22 @@
         <v>481</v>
       </c>
       <c r="B475">
-        <v>2.630909610655992</v>
+        <v>2.630909610655991</v>
       </c>
       <c r="C475">
         <v>2</v>
       </c>
       <c r="D475">
-        <v>2.300758188047572</v>
+        <v>2.300758188047571</v>
       </c>
       <c r="E475">
-        <v>2.630909610655992</v>
+        <v>2.630909610655991</v>
       </c>
       <c r="F475">
         <v>3</v>
       </c>
       <c r="G475">
-        <v>2.300758188047572</v>
+        <v>2.300758188047571</v>
       </c>
       <c r="H475">
         <v>2</v>
@@ -14262,7 +14262,7 @@
         <v>3</v>
       </c>
       <c r="D476">
-        <v>2.79564386438917</v>
+        <v>2.795643864389171</v>
       </c>
       <c r="E476">
         <v>2.979815027568494</v>
@@ -14271,7 +14271,7 @@
         <v>3</v>
       </c>
       <c r="G476">
-        <v>2.79564386438917</v>
+        <v>2.795643864389171</v>
       </c>
       <c r="H476">
         <v>3</v>
@@ -14334,22 +14334,22 @@
         <v>485</v>
       </c>
       <c r="B479">
-        <v>3.437969795540556</v>
+        <v>3.437969795540555</v>
       </c>
       <c r="C479">
         <v>3</v>
       </c>
       <c r="D479">
-        <v>3.445488266987947</v>
+        <v>3.445488266987945</v>
       </c>
       <c r="E479">
-        <v>3.437969795540556</v>
+        <v>3.437969795540555</v>
       </c>
       <c r="F479">
         <v>3</v>
       </c>
       <c r="G479">
-        <v>3.445488266987947</v>
+        <v>3.445488266987945</v>
       </c>
       <c r="H479">
         <v>3</v>
@@ -14360,22 +14360,22 @@
         <v>486</v>
       </c>
       <c r="B480">
-        <v>3.101594421594851</v>
+        <v>3.101594421594852</v>
       </c>
       <c r="C480">
         <v>4</v>
       </c>
       <c r="D480">
-        <v>2.968375140132927</v>
+        <v>2.968375140132928</v>
       </c>
       <c r="E480">
-        <v>3.101594421594851</v>
+        <v>3.101594421594852</v>
       </c>
       <c r="F480">
         <v>3</v>
       </c>
       <c r="G480">
-        <v>2.968375140132927</v>
+        <v>2.968375140132928</v>
       </c>
       <c r="H480">
         <v>3</v>
@@ -14386,22 +14386,22 @@
         <v>487</v>
       </c>
       <c r="B481">
-        <v>3.34928018776882</v>
+        <v>3.349280187768819</v>
       </c>
       <c r="C481">
         <v>4</v>
       </c>
       <c r="D481">
-        <v>3.319691376486836</v>
+        <v>3.319691376486835</v>
       </c>
       <c r="E481">
-        <v>3.34928018776882</v>
+        <v>3.349280187768819</v>
       </c>
       <c r="F481">
         <v>3</v>
       </c>
       <c r="G481">
-        <v>3.319691376486836</v>
+        <v>3.319691376486835</v>
       </c>
       <c r="H481">
         <v>3</v>
@@ -14412,22 +14412,22 @@
         <v>488</v>
       </c>
       <c r="B482">
-        <v>1.4497914462887</v>
+        <v>1.449791446288698</v>
       </c>
       <c r="C482">
         <v>1</v>
       </c>
       <c r="D482">
-        <v>0.6254661653993829</v>
+        <v>0.6254661653993816</v>
       </c>
       <c r="E482">
-        <v>1.4497914462887</v>
+        <v>1.449791446288698</v>
       </c>
       <c r="F482">
         <v>1</v>
       </c>
       <c r="G482">
-        <v>0.6254661653993829</v>
+        <v>0.6254661653993816</v>
       </c>
       <c r="H482">
         <v>1</v>
@@ -14444,7 +14444,7 @@
         <v>4</v>
       </c>
       <c r="D483">
-        <v>4.178607811823098</v>
+        <v>4.178607811823097</v>
       </c>
       <c r="E483">
         <v>3.954835392314974</v>
@@ -14453,7 +14453,7 @@
         <v>4</v>
       </c>
       <c r="G483">
-        <v>4.178607811823098</v>
+        <v>4.178607811823097</v>
       </c>
       <c r="H483">
         <v>4</v>
@@ -14470,7 +14470,7 @@
         <v>4</v>
       </c>
       <c r="D484">
-        <v>3.326610531223913</v>
+        <v>3.326610531223912</v>
       </c>
       <c r="E484">
         <v>3.354158345863975</v>
@@ -14479,7 +14479,7 @@
         <v>3</v>
       </c>
       <c r="G484">
-        <v>3.326610531223913</v>
+        <v>3.326610531223912</v>
       </c>
       <c r="H484">
         <v>3</v>
@@ -14490,22 +14490,22 @@
         <v>491</v>
       </c>
       <c r="B485">
-        <v>3.417454169635818</v>
+        <v>3.41745416963582</v>
       </c>
       <c r="C485">
         <v>4</v>
       </c>
       <c r="D485">
-        <v>3.416389007104621</v>
+        <v>3.416389007104622</v>
       </c>
       <c r="E485">
-        <v>3.417454169635818</v>
+        <v>3.41745416963582</v>
       </c>
       <c r="F485">
         <v>3</v>
       </c>
       <c r="G485">
-        <v>3.416389007104621</v>
+        <v>3.416389007104622</v>
       </c>
       <c r="H485">
         <v>3</v>
@@ -14568,22 +14568,22 @@
         <v>494</v>
       </c>
       <c r="B488">
-        <v>3.312602438345452</v>
+        <v>3.312602438345453</v>
       </c>
       <c r="C488">
         <v>3</v>
       </c>
       <c r="D488">
-        <v>3.267667842456629</v>
+        <v>3.26766784245663</v>
       </c>
       <c r="E488">
-        <v>3.312602438345452</v>
+        <v>3.312602438345453</v>
       </c>
       <c r="F488">
         <v>3</v>
       </c>
       <c r="G488">
-        <v>3.267667842456629</v>
+        <v>3.26766784245663</v>
       </c>
       <c r="H488">
         <v>3</v>
@@ -14600,7 +14600,7 @@
         <v>5</v>
       </c>
       <c r="D489">
-        <v>4.522093298867858</v>
+        <v>4.522093298867857</v>
       </c>
       <c r="E489">
         <v>4.197000305930342</v>
@@ -14609,7 +14609,7 @@
         <v>4</v>
       </c>
       <c r="G489">
-        <v>4.522093298867858</v>
+        <v>4.522093298867857</v>
       </c>
       <c r="H489">
         <v>5</v>
@@ -14620,22 +14620,22 @@
         <v>496</v>
       </c>
       <c r="B490">
-        <v>3.251441484173399</v>
+        <v>3.2514414841734</v>
       </c>
       <c r="C490">
         <v>3</v>
       </c>
       <c r="D490">
-        <v>3.180917454804364</v>
+        <v>3.180917454804367</v>
       </c>
       <c r="E490">
-        <v>3.251441484173399</v>
+        <v>3.2514414841734</v>
       </c>
       <c r="F490">
         <v>3</v>
       </c>
       <c r="G490">
-        <v>3.180917454804364</v>
+        <v>3.180917454804367</v>
       </c>
       <c r="H490">
         <v>3</v>
@@ -14646,22 +14646,22 @@
         <v>497</v>
       </c>
       <c r="B491">
-        <v>3.076656706826453</v>
+        <v>3.076656706826452</v>
       </c>
       <c r="C491">
         <v>3</v>
       </c>
       <c r="D491">
-        <v>2.933003611800744</v>
+        <v>2.933003611800743</v>
       </c>
       <c r="E491">
-        <v>3.076656706826453</v>
+        <v>3.076656706826452</v>
       </c>
       <c r="F491">
         <v>3</v>
       </c>
       <c r="G491">
-        <v>2.933003611800744</v>
+        <v>2.933003611800743</v>
       </c>
       <c r="H491">
         <v>3</v>
@@ -14672,7 +14672,7 @@
         <v>498</v>
       </c>
       <c r="B492">
-        <v>4.178669201877714</v>
+        <v>4.178669201877715</v>
       </c>
       <c r="C492">
         <v>4</v>
@@ -14681,7 +14681,7 @@
         <v>4.496092553716206</v>
       </c>
       <c r="E492">
-        <v>4.178669201877714</v>
+        <v>4.178669201877715</v>
       </c>
       <c r="F492">
         <v>4</v>
@@ -14698,22 +14698,22 @@
         <v>499</v>
       </c>
       <c r="B493">
-        <v>3.713670391425548</v>
+        <v>3.713670391425547</v>
       </c>
       <c r="C493">
         <v>4</v>
       </c>
       <c r="D493">
-        <v>3.836540595924824</v>
+        <v>3.836540595924823</v>
       </c>
       <c r="E493">
-        <v>3.713670391425548</v>
+        <v>3.713670391425547</v>
       </c>
       <c r="F493">
         <v>4</v>
       </c>
       <c r="G493">
-        <v>3.836540595924824</v>
+        <v>3.836540595924823</v>
       </c>
       <c r="H493">
         <v>4</v>
@@ -14776,22 +14776,22 @@
         <v>502</v>
       </c>
       <c r="B496">
-        <v>2.293905597370259</v>
+        <v>2.293905597370258</v>
       </c>
       <c r="C496">
         <v>1</v>
       </c>
       <c r="D496">
-        <v>1.822753402336354</v>
+        <v>1.822753402336355</v>
       </c>
       <c r="E496">
-        <v>2.293905597370259</v>
+        <v>2.293905597370258</v>
       </c>
       <c r="F496">
         <v>2</v>
       </c>
       <c r="G496">
-        <v>1.822753402336354</v>
+        <v>1.822753402336355</v>
       </c>
       <c r="H496">
         <v>2</v>
@@ -14802,22 +14802,22 @@
         <v>503</v>
       </c>
       <c r="B497">
-        <v>2.695427583039902</v>
+        <v>2.695427583039901</v>
       </c>
       <c r="C497">
         <v>3</v>
       </c>
       <c r="D497">
-        <v>2.392270153330148</v>
+        <v>2.392270153330147</v>
       </c>
       <c r="E497">
-        <v>2.695427583039902</v>
+        <v>2.695427583039901</v>
       </c>
       <c r="F497">
         <v>3</v>
       </c>
       <c r="G497">
-        <v>2.392270153330148</v>
+        <v>2.392270153330147</v>
       </c>
       <c r="H497">
         <v>2</v>
@@ -14828,7 +14828,7 @@
         <v>504</v>
       </c>
       <c r="B498">
-        <v>3.414459244369915</v>
+        <v>3.414459244369914</v>
       </c>
       <c r="C498">
         <v>3</v>
@@ -14837,7 +14837,7 @@
         <v>3.412141020275052</v>
       </c>
       <c r="E498">
-        <v>3.414459244369915</v>
+        <v>3.414459244369914</v>
       </c>
       <c r="F498">
         <v>3</v>
@@ -14854,22 +14854,22 @@
         <v>505</v>
       </c>
       <c r="B499">
-        <v>2.967935742352201</v>
+        <v>2.9679357423522</v>
       </c>
       <c r="C499">
         <v>4</v>
       </c>
       <c r="D499">
-        <v>2.778794346400189</v>
+        <v>2.778794346400188</v>
       </c>
       <c r="E499">
-        <v>2.967935742352201</v>
+        <v>2.9679357423522</v>
       </c>
       <c r="F499">
         <v>3</v>
       </c>
       <c r="G499">
-        <v>2.778794346400189</v>
+        <v>2.778794346400188</v>
       </c>
       <c r="H499">
         <v>3</v>
@@ -14886,7 +14886,7 @@
         <v>3</v>
       </c>
       <c r="D500">
-        <v>3.760798822632524</v>
+        <v>3.760798822632525</v>
       </c>
       <c r="E500">
         <v>3.660270755405368</v>
@@ -14895,7 +14895,7 @@
         <v>4</v>
       </c>
       <c r="G500">
-        <v>3.760798822632524</v>
+        <v>3.760798822632525</v>
       </c>
       <c r="H500">
         <v>4</v>
@@ -14906,22 +14906,22 @@
         <v>507</v>
       </c>
       <c r="B501">
-        <v>3.149993912428825</v>
+        <v>3.149993912428823</v>
       </c>
       <c r="C501">
         <v>4</v>
       </c>
       <c r="D501">
-        <v>3.037024732815996</v>
+        <v>3.037024732815995</v>
       </c>
       <c r="E501">
-        <v>3.149993912428825</v>
+        <v>3.149993912428823</v>
       </c>
       <c r="F501">
         <v>3</v>
       </c>
       <c r="G501">
-        <v>3.037024732815996</v>
+        <v>3.037024732815995</v>
       </c>
       <c r="H501">
         <v>3</v>
